--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/WPI Course Schedule Optimization MQP (‘23 - ‘24)/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="811" documentId="11_A78D6C17F048AC439C69C24C2313F6D8A75DCFAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F763C5-8723-4B56-97E4-E3E773E55F7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD72876-AECF-D847-9C94-BB593CAB32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Sreqs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="502">
   <si>
     <t>Program Key</t>
   </si>
@@ -1542,6 +1543,9 @@
   </si>
   <si>
     <t>["CS_2022", "MA_2201", "CS_2301", "CS_2303", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4802", "BCB_4002", "CS_4803", "BCB_4003", "CS_4804", "BCB_4004", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "MIS_3720", "MIS_3787", "MIS_4720", "MIS_4741", "MIS_4084", "OIE_4430", "MKT_3650", "OIE_3460", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "BCB_502", "BCB_503", "MA_540", "MA_541", "MA_543", "DS_502", "MA_542", "MA_554", "MIS_571", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504", "MIS_584", "MIS_587", "MKT_568", "OIE_559"]</t>
+  </si>
+  <si>
+    <t>lalalala</t>
   </si>
 </sst>
 </file>
@@ -2379,9 +2383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2419,7 +2423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2525,7 +2529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2667,7 +2671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2684,10 +2688,10 @@
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
@@ -2696,7 +2700,7 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2759,7 +2763,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2784,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2801,7 +2805,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2864,7 +2868,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>33</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>33</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>97</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
@@ -3345,7 +3349,7 @@
       <c r="N36" s="54"/>
       <c r="O36" s="54"/>
     </row>
-    <row r="37" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>108</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>108</v>
       </c>
@@ -3470,7 +3474,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>108</v>
       </c>
@@ -3490,7 +3494,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>108</v>
       </c>
@@ -3510,7 +3514,7 @@
       <c r="H45" s="28"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
         <v>108</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="H46" s="28"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="32" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>108</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="82" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="82" t="s">
         <v>223</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="82" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="82" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="82" t="s">
         <v>137</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="32" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
         <v>137</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>169</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>169</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>169</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>169</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>169</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>169</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>169</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>169</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
         <v>169</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>220</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>220</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>220</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4118,7 +4122,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>220</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>220</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="32" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
         <v>227</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="92" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="92" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="92" t="s">
         <v>231</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>437</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>437</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>437</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>437</v>
       </c>
@@ -4263,7 +4267,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>437</v>
       </c>
@@ -4283,7 +4287,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>437</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="26"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>437</v>
       </c>
@@ -4323,7 +4327,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>437</v>
       </c>
@@ -4343,7 +4347,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>437</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="32" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>437</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>437</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="82" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>437</v>
       </c>
@@ -4424,25 +4428,25 @@
   </sheetPr>
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView topLeftCell="A98" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="40" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
     <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>33</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>59</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>59</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>59</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>59</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
         <v>97</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>97</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
         <v>97</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
         <v>97</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>97</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>97</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="59" customFormat="1" ht="129.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="59" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
         <v>108</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
         <v>108</v>
       </c>
@@ -5050,7 +5054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
         <v>108</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>108</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
         <v>108</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
         <v>137</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
         <v>137</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>137</v>
       </c>
@@ -5268,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>137</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="62" t="s">
         <v>137</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
         <v>137</v>
       </c>
@@ -5361,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="62" t="s">
         <v>169</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
         <v>169</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
         <v>169</v>
       </c>
@@ -5451,7 +5455,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="s">
         <v>169</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
         <v>169</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>169</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="s">
         <v>169</v>
       </c>
@@ -5568,7 +5572,7 @@
       </c>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>220</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>220</v>
       </c>
@@ -5626,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
         <v>220</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68" t="s">
         <v>223</v>
       </c>
@@ -5685,7 +5689,7 @@
       </c>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>223</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>223</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>223</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>223</v>
       </c>
@@ -5802,7 +5806,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>223</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>223</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>223</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>223</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>223</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>223</v>
       </c>
@@ -5976,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>223</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>223</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>223</v>
       </c>
@@ -6063,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="96" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="97" t="s">
         <v>223</v>
       </c>
@@ -6093,7 +6097,7 @@
       </c>
       <c r="J54" s="69"/>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>227</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>227</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="62" t="s">
         <v>231</v>
       </c>
@@ -6247,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="96" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="96" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A61" s="63" t="s">
         <v>231</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="59" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="59" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A62" s="100" t="s">
         <v>437</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>437</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>437</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>437</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>437</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>437</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>437</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>437</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>437</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>437</v>
       </c>
@@ -6618,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>437</v>
       </c>
@@ -6648,7 +6652,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>437</v>
       </c>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>437</v>
       </c>
@@ -6708,7 +6712,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>437</v>
       </c>
@@ -6738,7 +6742,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>437</v>
       </c>
@@ -6768,7 +6772,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>437</v>
       </c>
@@ -6798,7 +6802,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>437</v>
       </c>
@@ -6828,7 +6832,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>437</v>
       </c>
@@ -6858,7 +6862,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>437</v>
       </c>
@@ -6888,7 +6892,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>437</v>
       </c>
@@ -6918,7 +6922,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>437</v>
       </c>
@@ -6948,7 +6952,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>437</v>
       </c>
@@ -6978,7 +6982,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>437</v>
       </c>
@@ -7008,7 +7012,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>437</v>
       </c>
@@ -7038,7 +7042,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>437</v>
       </c>
@@ -7068,7 +7072,7 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
         <v>437</v>
       </c>
@@ -7098,7 +7102,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>437</v>
       </c>
@@ -7128,7 +7132,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>437</v>
       </c>
@@ -7158,7 +7162,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
         <v>437</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>437</v>
       </c>
@@ -7220,7 +7224,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>437</v>
       </c>
@@ -7250,7 +7254,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="62" t="s">
         <v>437</v>
       </c>
@@ -7280,7 +7284,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="62" t="s">
         <v>437</v>
       </c>
@@ -7310,7 +7314,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="62" t="s">
         <v>437</v>
       </c>
@@ -7340,7 +7344,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="62" t="s">
         <v>437</v>
       </c>
@@ -7370,7 +7374,7 @@
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="62" t="s">
         <v>437</v>
       </c>
@@ -7400,7 +7404,7 @@
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="62" t="s">
         <v>437</v>
       </c>
@@ -7430,7 +7434,7 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="62" t="s">
         <v>437</v>
       </c>
@@ -7460,7 +7464,7 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="62" t="s">
         <v>437</v>
       </c>
@@ -7490,7 +7494,7 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="62" t="s">
         <v>437</v>
       </c>
@@ -7520,7 +7524,7 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="62" t="s">
         <v>437</v>
       </c>
@@ -7550,7 +7554,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="62" t="s">
         <v>437</v>
       </c>
@@ -7580,7 +7584,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="96" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="96" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="63" t="s">
         <v>437</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="62" t="s">
         <v>437</v>
       </c>
@@ -7638,73 +7642,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="38"/>
     </row>
-    <row r="108" spans="1:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="10:10" s="33" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J137" s="52"/>
     </row>
-    <row r="138" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="121.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435225-A42F-2549-869D-EB0CC2DF62CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD72876-AECF-D847-9C94-BB593CAB32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47B114-4181-DC40-A182-ED7B2DC12720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Sreqs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="501">
   <si>
     <t>Program Key</t>
   </si>
@@ -1543,9 +1542,6 @@
   </si>
   <si>
     <t>["CS_2022", "MA_2201", "CS_2301", "CS_2303", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4802", "BCB_4002", "CS_4803", "BCB_4003", "CS_4804", "BCB_4004", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "MIS_3720", "MIS_3787", "MIS_4720", "MIS_4741", "MIS_4084", "OIE_4430", "MKT_3650", "OIE_3460", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "BCB_502", "BCB_503", "MA_540", "MA_541", "MA_543", "DS_502", "MA_542", "MA_554", "MIS_571", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504", "MIS_584", "MIS_587", "MKT_568", "OIE_559"]</t>
-  </si>
-  <si>
-    <t>lalalala</t>
   </si>
 </sst>
 </file>
@@ -4428,7 +4424,7 @@
   </sheetPr>
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -7711,24 +7707,4 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435225-A42F-2549-869D-EB0CC2DF62CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47B114-4181-DC40-A182-ED7B2DC12720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E870A-024E-B642-8F66-0F6EADC11C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15620" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="503">
   <si>
     <t>Program Key</t>
   </si>
@@ -144,37 +144,16 @@
     <t>CS_SYS</t>
   </si>
   <si>
-    <t>Systems</t>
-  </si>
-  <si>
-    <t>["CS_3013", "CS_4513", "CS_4515", "CS_4516"]</t>
-  </si>
-  <si>
     <t>CS_THRY</t>
   </si>
   <si>
-    <t>Theory and Languages</t>
-  </si>
-  <si>
-    <t>["CS_3133", "CS_4120", "CS_4123", "CS_4533", "CS_4536"]</t>
-  </si>
-  <si>
     <t>CS_DESIGN</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233"]</t>
-  </si>
-  <si>
     <t>CS_CORE</t>
   </si>
   <si>
     <t>CS Core</t>
-  </si>
-  <si>
-    <t>["CS_DEPT"]</t>
   </si>
   <si>
     <t>CS_PROB</t>
@@ -818,9 +797,6 @@
     <t>AT LEAST</t>
   </si>
   <si>
-    <t>["CS_DEPT_4000_L"]</t>
-  </si>
-  <si>
     <t>["CS_SYS", "CS_THRY", "CS_DESIGN", "CS_CORE"]</t>
   </si>
   <si>
@@ -1542,6 +1518,36 @@
   </si>
   <si>
     <t>["CS_2022", "MA_2201", "CS_2301", "CS_2303", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4802", "BCB_4002", "CS_4803", "BCB_4003", "CS_4804", "BCB_4004", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "MIS_3720", "MIS_3787", "MIS_4720", "MIS_4741", "MIS_4084", "OIE_4430", "MKT_3650", "OIE_3460", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "BCB_502", "BCB_503", "MA_540", "MA_541", "MA_543", "DS_502", "MA_542", "MA_554", "MIS_571", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504", "MIS_584", "MIS_587", "MKT_568", "OIE_559"]</t>
+  </si>
+  <si>
+    <t>["CS_CORE"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems super req </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory and Languages super req </t>
+  </si>
+  <si>
+    <t>Design super req</t>
+  </si>
+  <si>
+    <t>["CS_3013", "CS_4513", "CS_4515", "CS_4516", "CS_502", "CS_533", "CS_535"]</t>
+  </si>
+  <si>
+    <t>["CS_3133", "CS_4120", "CS_4123", "CS_4533", "CS_4536", "CS_5003", "CS_5084", "CS_503", "CS_536", "CS_544", "CS_584"]</t>
+  </si>
+  <si>
+    <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
+  </si>
+  <si>
+    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401". "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
+  </si>
+  <si>
+    <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401". "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
+  </si>
+  <si>
+    <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1887,54 +1893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -2108,7 +2066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2219,25 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2247,8 +2187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2263,46 +2203,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2315,7 +2252,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2339,26 +2276,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2379,9 +2325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2419,7 +2365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2525,7 +2471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2667,7 +2613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2678,10 +2624,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2898,21 +2844,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:12" ht="320" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5">
         <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2920,16 +2866,16 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2937,33 +2883,33 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2971,89 +2917,89 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="23">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="23">
-        <v>6</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>
@@ -3062,157 +3008,157 @@
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="5">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="5">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="5">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>82</v>
@@ -3221,230 +3167,239 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="E31" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="30">
+        <v>15</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="5">
         <v>3</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="5">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="9">
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+    </row>
+    <row r="34" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="5">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="26">
         <v>3</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="30">
-        <v>15</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="5">
-        <v>3</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-    </row>
-    <row r="37" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="5">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9">
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="5">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="208" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="5">
-        <v>36</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="26">
+        <v>3</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="5">
+      <c r="G40" s="39"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="26">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>115</v>
+      <c r="D41" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="26">
         <v>3</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="28"/>
@@ -3452,812 +3407,812 @@
     </row>
     <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C43" s="26">
         <v>3</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="26">
+    <row r="44" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="5">
         <v>6</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="26">
+      <c r="D44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="34">
+        <v>6</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="30">
+        <v>45</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="75" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="30">
+        <v>9</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="5">
+        <v>18</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="5">
+        <v>12</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="5">
         <v>3</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="26">
+      <c r="D52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="5">
         <v>3</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="5">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="34">
-        <v>6</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="30">
-        <v>45</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="82" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="30">
-        <v>9</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="5">
-        <v>18</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="5">
-        <v>6</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="88" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="5">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="B54" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C54" s="5">
-        <v>12</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="5">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="88" t="s">
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>159</v>
+      </c>
+      <c r="C56" s="34">
+        <v>12</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C57" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C58" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="34">
-        <v>12</v>
-      </c>
-      <c r="D59" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="89" t="s">
+      <c r="E58" s="81" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="5">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C60" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="E61" s="81" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="88" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="E62" s="81" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E63" s="88" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="88" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" s="88" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C67" s="5">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C68" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="E68" s="81" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C70" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C71" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" s="5">
-        <v>3</v>
-      </c>
-      <c r="D72" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E71" s="83" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="34">
+        <v>6</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C73" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="34">
+        <v>170</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C76" s="5">
         <v>6</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C76" s="5">
-        <v>21</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C77" s="5">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="5">
+      <c r="B80" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="34">
+        <v>45</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="85" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="87">
+        <v>45</v>
+      </c>
+      <c r="D81" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="5">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="5">
         <v>36</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C81" s="5">
+      <c r="D83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="5">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="26">
         <v>3</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="395" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C82" s="5">
-        <v>6</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="34">
-        <v>45</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E83" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="92" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="94">
-        <v>45</v>
-      </c>
-      <c r="D84" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="E84" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="F84" s="92" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="5">
-        <v>9</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="G85" s="39"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B86" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="5">
-        <v>36</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="26">
+        <v>3</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="G86" s="39"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="5">
+        <v>429</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="26">
         <v>6</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>115</v>
+      <c r="D87" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G87" s="39"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G88" s="39"/>
       <c r="H88" s="28"/>
@@ -4265,150 +4220,90 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G89" s="39"/>
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="26">
+        <v>429</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="5">
         <v>6</v>
       </c>
-      <c r="D90" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="26"/>
-    </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="26">
-        <v>3</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="26"/>
-    </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="34">
+        <v>6</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="26">
-        <v>3</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="26"/>
-    </row>
-    <row r="93" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C92" s="5">
+        <v>18</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="5">
-        <v>6</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="34">
-        <v>6</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C95" s="5">
-        <v>18</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="30">
+        <v>429</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="30">
         <v>45</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>466</v>
+      <c r="D93" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4422,15 +4317,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
@@ -4443,67 +4338,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="67" t="s">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="67" t="s">
+      <c r="C2" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="D2" s="65">
+        <v>3</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="F2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="G2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="H2" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="I2" s="72">
+        <v>0</v>
+      </c>
+      <c r="J2" s="63" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="71">
-        <v>3</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="79">
-        <v>0</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4511,95 +4406,95 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>252</v>
-      </c>
       <c r="H3" s="38" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I3" s="37">
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="79">
-        <v>0</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="H4" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="72">
+        <v>0</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="71">
+      <c r="B5" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="65">
         <v>15</v>
       </c>
-      <c r="E5" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="68">
-        <v>0</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>262</v>
+      <c r="E5" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="62">
+        <v>0</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4607,22 +4502,22 @@
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>257</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4631,1346 +4526,1355 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="95">
+        <v>0</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="66">
+        <v>3</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="65">
+        <v>3</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="C12" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="38">
+        <v>3</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="72">
-        <v>3</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="51" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="C13" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69" t="s">
+      <c r="G13" s="39" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="68" t="s">
+      <c r="H13" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="71">
-        <v>3</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="47" t="s">
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="68">
-        <v>0</v>
-      </c>
-      <c r="J8" s="79" t="s">
+      <c r="C14" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="38">
-        <v>3</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0</v>
-      </c>
-      <c r="J9" s="79" t="s">
+      <c r="H14" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="C15" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="65">
+        <v>9</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="38">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="G15" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="H15" s="62">
+        <v>2</v>
+      </c>
+      <c r="I15" s="62">
+        <v>5</v>
+      </c>
+      <c r="J15" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I10" s="37">
-        <v>0</v>
-      </c>
-      <c r="J10" s="68" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="71">
-        <v>9</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="H12" s="68">
-        <v>2</v>
-      </c>
-      <c r="I12" s="68">
-        <v>5</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="38">
-        <v>12</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="37">
-        <v>0</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="38">
-        <v>12</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="38">
-        <v>12</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>295</v>
-      </c>
       <c r="C16" s="37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D16" s="38">
         <v>12</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F16" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="38">
+        <v>12</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="38">
+        <v>12</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="38">
+        <v>12</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="53" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="67">
+        <v>12</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="52" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="53">
-        <v>3</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="52">
-        <v>0</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="59" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="73">
-        <v>12</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I18" s="48">
-        <v>0</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="38">
-        <v>3</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="38">
-        <v>3</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="26">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>311</v>
+      <c r="C22" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="D22" s="38">
         <v>3</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="38">
+        <v>3</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="26">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="53">
-        <v>3</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="H23" s="37" t="str">
-        <f>IF(C23="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I23" s="52">
-        <f>IF(H23=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="38">
-        <v>3</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H24" s="48" t="str">
-        <f>IF(C24="AT LEAST", "1a", "1b")</f>
-        <v>1a</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>258</v>
+      <c r="C25" s="44" t="s">
+        <v>303</v>
       </c>
       <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="49" t="s">
+      <c r="E25" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="47">
+        <v>3</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="37" t="str">
+        <f>IF(C26="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I26" s="46">
+        <f>IF(H26=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="38">
+        <v>3</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="42" t="str">
+        <f>IF(C27="AT LEAST", "1a", "1b")</f>
+        <v>1a</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="38">
+        <v>3</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="38">
+        <v>9</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="44">
+        <v>9</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="37" t="s">
+      <c r="C31" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="38">
+        <v>3</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="38">
+        <v>27</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D37" s="38">
+        <v>3</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="47">
+        <v>3</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" s="46">
+        <v>0</v>
+      </c>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="38">
+        <v>12</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="38">
+        <v>6</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="38">
         <v>9</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="50">
-        <v>9</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="37">
-        <v>0</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="38">
-        <v>0</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I29" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="38">
-        <v>3</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I30" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="38">
-        <v>27</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I32" s="37">
-        <v>0</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F33" s="39" t="s">
+      <c r="E42" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="C43" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="65">
+        <v>4.5</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="37" t="s">
+      <c r="G43" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" s="38">
-        <v>3</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="39" t="s">
+      <c r="H43" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" s="62">
+        <v>0</v>
+      </c>
+      <c r="J43" s="62"/>
+    </row>
+    <row r="44" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="G34" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="37" t="s">
+      <c r="C44" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="38">
-        <v>3</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="52" t="s">
+      <c r="G44" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="53">
-        <v>3</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" s="84" t="s">
+      <c r="C45" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G45" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="H36" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="38">
-        <v>12</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="38">
-        <v>6</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="38">
-        <v>9</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="68" t="s">
+      <c r="C46" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C40" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="71">
-        <v>4.5</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="H40" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" s="68">
-        <v>0</v>
-      </c>
-      <c r="J40" s="68"/>
-    </row>
-    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D43" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D44" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I44" s="26">
-        <v>0</v>
-      </c>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D46" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I46" s="26">
+      <c r="G46" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D47" s="27">
         <v>4.5</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I47" s="26">
         <v>0</v>
       </c>
+      <c r="J47"/>
     </row>
     <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D48" s="27">
         <v>4.5</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I48" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D49" s="27">
         <v>4.5</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I49" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
@@ -5978,760 +5882,757 @@
     </row>
     <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F53" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I55" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" s="91">
+        <v>4.5</v>
+      </c>
+      <c r="E57" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="G57" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="H57" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="92">
+        <v>0</v>
+      </c>
+      <c r="J57" s="63"/>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="5">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G53" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I53" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="96" t="s">
+      <c r="G59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C54" s="97" t="s">
-        <v>332</v>
-      </c>
-      <c r="D54" s="98">
+    </row>
+    <row r="60" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="34">
         <v>4.5</v>
       </c>
-      <c r="E54" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="F54" s="99" t="s">
-        <v>388</v>
-      </c>
-      <c r="G54" s="99" t="s">
-        <v>368</v>
-      </c>
-      <c r="H54" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="I54" s="99">
-        <v>0</v>
-      </c>
-      <c r="J54" s="69"/>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="E60" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D55" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="G60" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I60" s="32">
+        <v>0</v>
+      </c>
+      <c r="J60" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="G55" s="1" t="s">
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4" t="s">
+      <c r="C61" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="73">
+        <v>4.5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="G61" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="5">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="H61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4" t="s">
+      <c r="C62" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A57" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" s="31" t="s">
+      <c r="G62" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I62" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
         <v>396</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="34">
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="74">
         <v>4.5</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="F57" s="31" t="s">
+      <c r="E63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" t="s">
         <v>397</v>
       </c>
-      <c r="G57" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="I57" s="32">
-        <v>0</v>
-      </c>
-      <c r="J57" s="35" t="s">
+      <c r="G63" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="89" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A64" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="63" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C64" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="66">
+        <v>4.5</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="80">
-        <v>4.5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="G64" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="H64" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="63">
+        <v>0</v>
+      </c>
+      <c r="J64" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D59" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I59" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>231</v>
-      </c>
-      <c r="B60" t="s">
-        <v>404</v>
-      </c>
-      <c r="C60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" s="81">
-        <v>4.5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>245</v>
-      </c>
-      <c r="F60" t="s">
-        <v>405</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="H60" t="s">
-        <v>261</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="96" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A61" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="E61" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="G61" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="H61" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="I61" s="69">
-        <v>0</v>
-      </c>
-      <c r="J61" s="69" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="59" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A62" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" s="73">
+    </row>
+    <row r="65" spans="1:10" s="53" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A65" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="67">
         <v>12</v>
       </c>
-      <c r="E62" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>499</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I62" s="48">
-        <v>0</v>
-      </c>
-      <c r="J62" s="48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="38">
-        <v>3</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I63" s="37">
-        <v>0</v>
-      </c>
-      <c r="J63" s="39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="38">
-        <v>3</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I64" s="37">
-        <v>0</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" s="26">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="I65" s="26">
-        <v>0</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="I65" s="42">
+        <v>0</v>
+      </c>
+      <c r="J65" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>311</v>
+        <v>297</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="D66" s="38">
         <v>3</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="37">
+        <v>0</v>
+      </c>
+      <c r="J66" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="38">
+        <v>3</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I67" s="37">
+        <v>0</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="26">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" s="26">
+        <v>0</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="F66" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="I66" s="39">
-        <v>0</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" s="27">
+      <c r="C69" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="38">
         <v>3</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G67" s="101" t="s">
-        <v>317</v>
-      </c>
-      <c r="H67" s="26" t="str">
-        <f>IF(C67="AT LEAST", "1a", "1b")</f>
+      <c r="E69" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" s="39">
+        <v>0</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="27">
+        <v>3</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="H70" s="26" t="str">
+        <f>IF(C70="AT LEAST", "1a", "1b")</f>
         <v>1b</v>
       </c>
-      <c r="I67" s="26">
-        <f>IF(H67=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D68" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I68" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D69" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I69" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I70" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="26">
+        <f>IF(H70=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D71" s="38">
         <v>4.5</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I71" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D72" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I72" s="37">
         <v>0</v>
       </c>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D73" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I73" s="37">
         <v>0</v>
       </c>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D74" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I74" s="37">
         <v>0</v>
       </c>
-      <c r="J74"/>
     </row>
     <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D75" s="38">
         <v>3</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I75" s="37">
         <v>0</v>
@@ -6740,28 +6641,28 @@
     </row>
     <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D76" s="38">
         <v>3</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
@@ -6770,28 +6671,28 @@
     </row>
     <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D77" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
@@ -6800,28 +6701,28 @@
     </row>
     <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D78" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
@@ -6830,28 +6731,28 @@
     </row>
     <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D79" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
@@ -6860,28 +6761,28 @@
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D80" s="38">
         <v>4.5</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
@@ -6890,28 +6791,28 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D81" s="38">
         <v>4.5</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
@@ -6920,28 +6821,28 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D82" s="38">
         <v>4.5</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
@@ -6950,28 +6851,28 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D83" s="38">
         <v>4.5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I83" s="37">
         <v>0</v>
@@ -6980,28 +6881,28 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D84" s="38">
         <v>4.5</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I84" s="37">
         <v>0</v>
@@ -7010,28 +6911,28 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
@@ -7040,28 +6941,28 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
@@ -7070,28 +6971,28 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
@@ -7100,28 +7001,28 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
@@ -7130,28 +7031,28 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
@@ -7160,60 +7061,58 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>464</v>
-      </c>
+      <c r="J90"/>
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
@@ -7221,89 +7120,91 @@
       <c r="J91"/>
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>437</v>
-      </c>
-      <c r="B92" t="s">
-        <v>387</v>
-      </c>
-      <c r="C92" t="s">
-        <v>332</v>
-      </c>
-      <c r="D92" s="81">
+      <c r="A92" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="38">
         <v>4.5</v>
       </c>
-      <c r="E92" t="s">
-        <v>302</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>388</v>
+      <c r="E92" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" s="39" t="s">
+        <v>453</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H92" t="s">
-        <v>248</v>
-      </c>
-      <c r="I92">
+        <v>486</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" s="37">
         <v>0</v>
       </c>
       <c r="J92"/>
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="62" t="s">
-        <v>437</v>
+      <c r="A93" s="28" t="s">
+        <v>429</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
       </c>
-      <c r="J93"/>
+      <c r="J93" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="62" t="s">
-        <v>437</v>
+      <c r="A94" s="28" t="s">
+        <v>429</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
@@ -7311,59 +7212,59 @@
       <c r="J94"/>
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D95" s="38">
+      <c r="A95" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="74">
         <v>4.5</v>
       </c>
-      <c r="E95" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>472</v>
+      <c r="E95" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H95" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I95" s="37">
+        <v>486</v>
+      </c>
+      <c r="H95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
       <c r="J95"/>
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="62" t="s">
-        <v>437</v>
+      <c r="A96" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
@@ -7371,29 +7272,29 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="62" t="s">
-        <v>437</v>
+      <c r="A97" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
@@ -7401,29 +7302,29 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="62" t="s">
-        <v>437</v>
+      <c r="A98" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D98" s="38">
         <v>4.5</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H98" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I98" s="37">
         <v>0</v>
@@ -7431,29 +7332,29 @@
       <c r="J98"/>
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="62" t="s">
-        <v>437</v>
+      <c r="A99" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
@@ -7461,29 +7362,29 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="62" t="s">
-        <v>437</v>
+      <c r="A100" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D100" s="38">
         <v>4.5</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H100" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I100" s="37">
         <v>0</v>
@@ -7491,29 +7392,29 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="62" t="s">
-        <v>437</v>
+      <c r="A101" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
@@ -7521,188 +7422,278 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="62" t="s">
-        <v>437</v>
+      <c r="A102" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F102" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="H102" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I102" s="37">
+        <v>0</v>
+      </c>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B103" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="G102" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I102" s="37">
-        <v>0</v>
-      </c>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>483</v>
-      </c>
       <c r="C103" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="96" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>485</v>
-      </c>
-      <c r="C104" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" s="72">
+    <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="38">
         <v>4.5</v>
       </c>
-      <c r="E104" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="F104" s="51" t="s">
+      <c r="E104" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="G104" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="G104" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="H104" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="I104" s="69">
-        <v>0</v>
-      </c>
+      <c r="H104" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I104" s="37">
+        <v>0</v>
+      </c>
+      <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="62" t="s">
-        <v>437</v>
+      <c r="A105" s="56" t="s">
+        <v>429</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="38"/>
-    </row>
-    <row r="108" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E106" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F106" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="G106" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="H106" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I106" s="37">
+        <v>0</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" s="89" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="B107" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="C107" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="66">
+        <v>4.5</v>
+      </c>
+      <c r="E107" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G107" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="H107" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I107" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="G108" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="H108" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I108" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="38"/>
+    </row>
+    <row r="111" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="125" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J137" s="52"/>
-    </row>
-    <row r="138" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="46"/>
+    </row>
+    <row r="141" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="168" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="169" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E870A-024E-B642-8F66-0F6EADC11C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065C215-8C53-1F4C-A7D3-BC55605AD086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15620" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23300" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -1544,10 +1544,10 @@
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401". "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
   <si>
-    <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401". "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
-  </si>
-  <si>
     <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
+  </si>
+  <si>
+    <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2296,15 +2296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2626,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2857,8 +2848,8 @@
       <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>501</v>
+      <c r="E11" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2909,7 +2900,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4481,7 +4472,7 @@
       <c r="E5" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="41" t="s">
         <v>500</v>
       </c>
       <c r="G5" s="41" t="s">
@@ -4529,35 +4520,35 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="95">
-        <v>0</v>
-      </c>
-      <c r="J7" s="95" t="s">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>494</v>
       </c>
     </row>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065C215-8C53-1F4C-A7D3-BC55605AD086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8B03E-F39C-2F43-AB54-6B50343CC427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23300" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,13 +1541,13 @@
     <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
   </si>
   <si>
-    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401". "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
-  </si>
-  <si>
     <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
   </si>
   <si>
-    <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "MA_3457", "CS_4033", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
+    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
+  </si>
+  <si>
+    <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
 </sst>
 </file>
@@ -2617,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2900,7 +2900,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4473,7 +4473,7 @@
         <v>238</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>252</v>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8B03E-F39C-2F43-AB54-6B50343CC427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE43454-151E-BE46-B82A-F6A8E2EDEAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23300" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="502">
   <si>
     <t>Program Key</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>AT LEAST</t>
-  </si>
-  <si>
-    <t>["CS_SYS", "CS_THRY", "CS_DESIGN", "CS_CORE"]</t>
   </si>
   <si>
     <t>1a</t>
@@ -2617,8 +2614,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,13 +2840,13 @@
         <v>37</v>
       </c>
       <c r="C11" s="5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2900,7 +2897,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3296,7 +3293,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3313,7 +3310,7 @@
         <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3447,7 +3444,7 @@
         <v>129</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -3940,7 +3937,7 @@
         <v>213</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
@@ -3949,7 +3946,7 @@
         <v>170</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,16 +3954,16 @@
         <v>213</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -3974,16 +3971,16 @@
         <v>213</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -3991,16 +3988,16 @@
         <v>213</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -4009,7 +4006,7 @@
         <v>213</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4018,7 +4015,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
@@ -4026,16 +4023,16 @@
         <v>213</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
@@ -4080,7 +4077,7 @@
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>102</v>
@@ -4097,7 +4094,7 @@
     </row>
     <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -4109,12 +4106,12 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>107</v>
@@ -4126,12 +4123,12 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>109</v>
@@ -4151,7 +4148,7 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>112</v>
@@ -4171,7 +4168,7 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>115</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>117</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>122</v>
@@ -4231,7 +4228,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>125</v>
@@ -4248,7 +4245,7 @@
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>128</v>
@@ -4260,29 +4257,29 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>217</v>
@@ -4294,7 +4291,7 @@
         <v>218</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4310,8 +4307,8 @@
   </sheetPr>
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4473,19 +4470,19 @@
         <v>238</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G5" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="I5" s="62">
+        <v>0</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>253</v>
-      </c>
-      <c r="I5" s="62">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,7 +4490,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>251</v>
@@ -4502,13 +4499,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="G6" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>258</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4517,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4537,19 +4534,19 @@
         <v>238</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4569,19 +4566,19 @@
         <v>238</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4601,19 +4598,19 @@
         <v>238</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4621,7 +4618,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>251</v>
@@ -4633,19 +4630,19 @@
         <v>238</v>
       </c>
       <c r="F10" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="H10" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>262</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="63">
-        <v>0</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4653,7 +4650,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>251</v>
@@ -4668,16 +4665,16 @@
         <v>174</v>
       </c>
       <c r="G11" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="72" t="s">
         <v>265</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4685,7 +4682,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>251</v>
@@ -4700,16 +4697,16 @@
         <v>171</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="37">
         <v>0</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4717,7 +4714,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>237</v>
@@ -4729,10 +4726,10 @@
         <v>238</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>270</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>271</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>241</v>
@@ -4741,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4749,7 +4746,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>237</v>
@@ -4761,10 +4758,10 @@
         <v>238</v>
       </c>
       <c r="F14" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>274</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>241</v>
@@ -4773,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
@@ -4781,7 +4778,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>251</v>
@@ -4790,13 +4787,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F15" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>277</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>278</v>
       </c>
       <c r="H15" s="62">
         <v>2</v>
@@ -4805,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4813,7 +4810,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>237</v>
@@ -4825,10 +4822,10 @@
         <v>238</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>241</v>
@@ -4837,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4845,7 +4842,7 @@
         <v>90</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>237</v>
@@ -4857,10 +4854,10 @@
         <v>238</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>241</v>
@@ -4869,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4877,7 +4874,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>237</v>
@@ -4889,10 +4886,10 @@
         <v>238</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>241</v>
@@ -4901,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4909,7 +4906,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>237</v>
@@ -4921,10 +4918,10 @@
         <v>238</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>241</v>
@@ -4933,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4941,7 +4938,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>251</v>
@@ -4953,19 +4950,19 @@
         <v>238</v>
       </c>
       <c r="F20" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="H20" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46" t="s">
         <v>291</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="I20" s="46">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,7 +4970,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>251</v>
@@ -4982,22 +4979,22 @@
         <v>12</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="G21" s="52" t="s">
+      <c r="H21" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>295</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5005,7 +5002,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>251</v>
@@ -5017,19 +5014,19 @@
         <v>238</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G22" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>298</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5037,7 +5034,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>251</v>
@@ -5049,19 +5046,19 @@
         <v>238</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I23" s="37">
         <v>0</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5078,16 +5075,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24" s="26">
         <v>0</v>
@@ -5101,31 +5098,31 @@
         <v>101</v>
       </c>
       <c r="B25" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>302</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>303</v>
       </c>
       <c r="D25" s="38">
         <v>3</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F25" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="H25" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="I25" s="39">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5133,7 +5130,7 @@
         <v>101</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>237</v>
@@ -5142,13 +5139,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>IF(C26="AT LEAST", "1a", "1b")</f>
@@ -5159,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5167,7 +5164,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>251</v>
@@ -5176,13 +5173,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>312</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>313</v>
       </c>
       <c r="H27" s="42" t="str">
         <f>IF(C27="AT LEAST", "1a", "1b")</f>
@@ -5197,7 +5194,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>251</v>
@@ -5206,16 +5203,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I28" s="37">
         <v>0</v>
@@ -5226,25 +5223,25 @@
         <v>130</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D29" s="38">
         <v>9</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F29" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>318</v>
-      </c>
       <c r="H29" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I29" s="37">
         <v>0</v>
@@ -5255,7 +5252,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>251</v>
@@ -5264,22 +5261,22 @@
         <v>9</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="H30" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="s">
         <v>321</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" s="37">
-        <v>0</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5287,22 +5284,22 @@
         <v>130</v>
       </c>
       <c r="B31" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="39" t="s">
+      <c r="G31" s="39" t="s">
         <v>325</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>326</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>241</v>
@@ -5311,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5319,22 +5316,22 @@
         <v>130</v>
       </c>
       <c r="B32" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="38">
-        <v>0</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="69" t="s">
+      <c r="G32" s="39" t="s">
         <v>329</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>330</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>241</v>
@@ -5348,7 +5345,7 @@
         <v>162</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>251</v>
@@ -5357,16 +5354,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>333</v>
-      </c>
       <c r="H33" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I33" s="37">
         <v>0</v>
@@ -5377,22 +5374,22 @@
         <v>162</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="D34" s="38">
-        <v>0</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="39" t="s">
+      <c r="G34" s="39" t="s">
         <v>335</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>336</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>241</v>
@@ -5406,7 +5403,7 @@
         <v>162</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>251</v>
@@ -5415,22 +5412,22 @@
         <v>27</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F35" s="76" t="s">
         <v>168</v>
       </c>
       <c r="G35" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="s">
         <v>338</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,7 +5435,7 @@
         <v>162</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>251</v>
@@ -5447,16 +5444,16 @@
         <v>1.5</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F36" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="G36" s="39" t="s">
-        <v>342</v>
-      </c>
       <c r="H36" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I36" s="37">
         <v>0</v>
@@ -5467,22 +5464,22 @@
         <v>162</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D37" s="38">
         <v>3</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>241</v>
@@ -5496,22 +5493,22 @@
         <v>162</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D38" s="38">
         <v>3</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>189</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>241</v>
@@ -5525,22 +5522,22 @@
         <v>162</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D39" s="47">
         <v>3</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F39" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>347</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>348</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>241</v>
@@ -5555,7 +5552,7 @@
         <v>213</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>251</v>
@@ -5564,16 +5561,16 @@
         <v>12</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="G40" s="39" t="s">
-        <v>415</v>
-      </c>
       <c r="H40" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I40" s="37">
         <v>0</v>
@@ -5584,7 +5581,7 @@
         <v>213</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>251</v>
@@ -5593,16 +5590,16 @@
         <v>6</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I41" s="37">
         <v>0</v>
@@ -5613,7 +5610,7 @@
         <v>213</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>251</v>
@@ -5622,16 +5619,16 @@
         <v>9</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I42" s="37">
         <v>0</v>
@@ -5642,25 +5639,25 @@
         <v>216</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43" s="65">
         <v>4.5</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="G43" s="41" t="s">
-        <v>351</v>
-      </c>
       <c r="H43" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I43" s="62">
         <v>0</v>
@@ -5672,25 +5669,25 @@
         <v>216</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D44" s="38">
         <v>4.5</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I44" s="37">
         <v>0</v>
@@ -5701,25 +5698,25 @@
         <v>216</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D45" s="38">
         <v>4.5</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I45" s="37">
         <v>0</v>
@@ -5730,10 +5727,10 @@
         <v>216</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D46" s="38">
         <v>4.5</v>
@@ -5742,13 +5739,13 @@
         <v>238</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I46" s="37">
         <v>0</v>
@@ -5759,22 +5756,22 @@
         <v>216</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D47" s="27">
         <v>4.5</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F47" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" s="26" t="s">
         <v>359</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>360</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>241</v>
@@ -5789,22 +5786,22 @@
         <v>216</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D48" s="27">
         <v>4.5</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>241</v>
@@ -5818,22 +5815,22 @@
         <v>216</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D49" s="27">
         <v>4.5</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>241</v>
@@ -5847,22 +5844,22 @@
         <v>216</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>241</v>
@@ -5876,22 +5873,22 @@
         <v>216</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>241</v>
@@ -5905,22 +5902,22 @@
         <v>216</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>241</v>
@@ -5934,22 +5931,22 @@
         <v>216</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>241</v>
@@ -5963,22 +5960,22 @@
         <v>216</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>241</v>
@@ -5992,22 +5989,22 @@
         <v>216</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>241</v>
@@ -6021,22 +6018,22 @@
         <v>216</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>241</v>
@@ -6050,22 +6047,22 @@
         <v>216</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D57" s="91">
         <v>4.5</v>
       </c>
       <c r="E57" s="92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" s="92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G57" s="92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H57" s="92" t="s">
         <v>241</v>
@@ -6080,31 +6077,31 @@
         <v>220</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" s="5">
         <v>13.5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -6112,31 +6109,31 @@
         <v>220</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D59" s="5">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -6144,31 +6141,31 @@
         <v>220</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D60" s="34">
         <v>4.5</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F60" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I60" s="32">
+        <v>0</v>
+      </c>
+      <c r="J60" s="35" t="s">
         <v>389</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="I60" s="32">
-        <v>0</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6176,25 +6173,25 @@
         <v>224</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D61" s="73">
         <v>4.5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -6205,25 +6202,25 @@
         <v>224</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="38">
         <v>4.5</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I62" s="37">
         <v>0</v>
@@ -6234,10 +6231,10 @@
         <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D63" s="74">
         <v>4.5</v>
@@ -6246,13 +6243,13 @@
         <v>238</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6263,39 +6260,39 @@
         <v>224</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" s="66">
         <v>4.5</v>
       </c>
       <c r="E64" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F64" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="I64" s="63">
+        <v>0</v>
+      </c>
+      <c r="J64" s="63" t="s">
         <v>399</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="H64" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="I64" s="63">
-        <v>0</v>
-      </c>
-      <c r="J64" s="63" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="53" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A65" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>251</v>
@@ -6304,30 +6301,30 @@
         <v>12</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H65" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I65" s="42">
         <v>0</v>
       </c>
       <c r="J65" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>251</v>
@@ -6339,27 +6336,27 @@
         <v>238</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I66" s="37">
         <v>0</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>251</v>
@@ -6371,24 +6368,24 @@
         <v>238</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I67" s="37">
         <v>0</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>120</v>
@@ -6400,16 +6397,16 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I68" s="26">
         <v>0</v>
@@ -6420,42 +6417,42 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="44" t="s">
         <v>302</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>303</v>
       </c>
       <c r="D69" s="38">
         <v>3</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="H69" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="39">
+        <v>0</v>
+      </c>
+      <c r="J69" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H69" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="I69" s="39">
-        <v>0</v>
-      </c>
-      <c r="J69" s="39" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>237</v>
@@ -6464,13 +6461,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G70" s="94" t="s">
         <v>308</v>
-      </c>
-      <c r="G70" s="94" t="s">
-        <v>309</v>
       </c>
       <c r="H70" s="26" t="str">
         <f>IF(C70="AT LEAST", "1a", "1b")</f>
@@ -6481,33 +6478,33 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D71" s="38">
         <v>4.5</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I71" s="37">
         <v>0</v>
@@ -6515,28 +6512,28 @@
     </row>
     <row r="72" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D72" s="38">
         <v>4.5</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I72" s="37">
         <v>0</v>
@@ -6544,28 +6541,28 @@
     </row>
     <row r="73" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D73" s="38">
         <v>4.5</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I73" s="37">
         <v>0</v>
@@ -6573,13 +6570,13 @@
     </row>
     <row r="74" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D74" s="38">
         <v>4.5</v>
@@ -6588,13 +6585,13 @@
         <v>238</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I74" s="37">
         <v>0</v>
@@ -6602,25 +6599,25 @@
     </row>
     <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D75" s="38">
         <v>3</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H75" s="37" t="s">
         <v>241</v>
@@ -6632,25 +6629,25 @@
     </row>
     <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D76" s="38">
         <v>3</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>241</v>
@@ -6662,25 +6659,25 @@
     </row>
     <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D77" s="38">
         <v>3</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H77" s="37" t="s">
         <v>241</v>
@@ -6692,25 +6689,25 @@
     </row>
     <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D78" s="38">
         <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H78" s="37" t="s">
         <v>241</v>
@@ -6722,25 +6719,25 @@
     </row>
     <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D79" s="38">
         <v>3</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>241</v>
@@ -6752,25 +6749,25 @@
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D80" s="38">
         <v>4.5</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H80" s="37" t="s">
         <v>241</v>
@@ -6782,25 +6779,25 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D81" s="38">
         <v>4.5</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H81" s="37" t="s">
         <v>241</v>
@@ -6812,25 +6809,25 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D82" s="38">
         <v>4.5</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H82" s="37" t="s">
         <v>241</v>
@@ -6842,25 +6839,25 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D83" s="38">
         <v>4.5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H83" s="37" t="s">
         <v>241</v>
@@ -6872,25 +6869,25 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D84" s="38">
         <v>4.5</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>241</v>
@@ -6902,25 +6899,25 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H85" s="37" t="s">
         <v>241</v>
@@ -6932,25 +6929,25 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>241</v>
@@ -6962,25 +6959,25 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>241</v>
@@ -6992,25 +6989,25 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>241</v>
@@ -7022,25 +7019,25 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>241</v>
@@ -7052,25 +7049,25 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H90" s="37" t="s">
         <v>241</v>
@@ -7082,25 +7079,25 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H91" s="37" t="s">
         <v>241</v>
@@ -7112,25 +7109,25 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>241</v>
@@ -7142,25 +7139,25 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>241</v>
@@ -7169,30 +7166,30 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>241</v>
@@ -7204,25 +7201,25 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D95" s="74">
         <v>4.5</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H95" t="s">
         <v>241</v>
@@ -7234,25 +7231,25 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>241</v>
@@ -7264,25 +7261,25 @@
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H97" s="37" t="s">
         <v>241</v>
@@ -7294,25 +7291,25 @@
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" s="38">
         <v>4.5</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H98" s="37" t="s">
         <v>241</v>
@@ -7324,25 +7321,25 @@
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H99" s="37" t="s">
         <v>241</v>
@@ -7354,25 +7351,25 @@
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D100" s="38">
         <v>4.5</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H100" s="37" t="s">
         <v>241</v>
@@ -7384,25 +7381,25 @@
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H101" s="37" t="s">
         <v>241</v>
@@ -7414,25 +7411,25 @@
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H102" s="37" t="s">
         <v>241</v>
@@ -7444,25 +7441,25 @@
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H103" s="37" t="s">
         <v>241</v>
@@ -7474,25 +7471,25 @@
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H104" s="37" t="s">
         <v>241</v>
@@ -7504,25 +7501,25 @@
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H105" s="37" t="s">
         <v>241</v>
@@ -7534,25 +7531,25 @@
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H106" s="37" t="s">
         <v>241</v>
@@ -7564,25 +7561,25 @@
     </row>
     <row r="107" spans="1:10" s="89" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="57" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B107" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C107" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" s="66">
         <v>4.5</v>
       </c>
       <c r="E107" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H107" s="63" t="s">
         <v>241</v>
@@ -7593,10 +7590,10 @@
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>237</v>
@@ -7608,10 +7605,10 @@
         <v>238</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H108" s="37" t="s">
         <v>241</v>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE43454-151E-BE46-B82A-F6A8E2EDEAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC8F5E-D593-2040-A577-B85C08B0EE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="510">
   <si>
     <t>Program Key</t>
   </si>
@@ -1545,6 +1545,30 @@
   </si>
   <si>
     <t>["CS_1101", "CS_1102", "CS_2011", "CS_2022", "MA_2201", "CS_2102", "CS_2103", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
+  </si>
+  <si>
+    <t>CS_1000_REST</t>
+  </si>
+  <si>
+    <t>["CS_1101", "CS_1102"]</t>
+  </si>
+  <si>
+    <t>CS_OBJ_OR_REST</t>
+  </si>
+  <si>
+    <t>["CS_2102", "CS_2103", "CS_210X"]</t>
+  </si>
+  <si>
+    <t>at most 1 object oriented programming 2000 class</t>
+  </si>
+  <si>
+    <t>CS_SYS_REST</t>
+  </si>
+  <si>
+    <t>["CS_2301", "CS_2303"]</t>
+  </si>
+  <si>
+    <t>at most 1 2000 systems class</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2294,6 +2318,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2614,8 +2644,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A11" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4305,10 +4335,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4613,219 +4643,219 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="96">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="96">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="96">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>508</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C13" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D13" s="66">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E13" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G13" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H13" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="63">
-        <v>0</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="I13" s="63">
+        <v>0</v>
+      </c>
+      <c r="J13" s="63" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C14" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D14" s="65">
         <v>3</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E14" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F14" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G14" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H14" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="62">
-        <v>0</v>
-      </c>
-      <c r="J11" s="72" t="s">
+      <c r="I14" s="62">
+        <v>0</v>
+      </c>
+      <c r="J14" s="72" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B15" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D15" s="38">
         <v>3</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E15" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F15" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G15" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H15" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="37">
-        <v>0</v>
-      </c>
-      <c r="J12" s="72" t="s">
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="72" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="37">
-        <v>0</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="65">
-        <v>9</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="62">
-        <v>2</v>
-      </c>
-      <c r="I15" s="62">
-        <v>5</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>237</v>
       </c>
       <c r="D16" s="38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>238</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>241</v>
@@ -4833,31 +4863,31 @@
       <c r="I16" s="37">
         <v>0</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J16" s="62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>237</v>
       </c>
       <c r="D17" s="38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>238</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>241</v>
@@ -4865,48 +4895,48 @@
       <c r="I17" s="37">
         <v>0</v>
       </c>
-      <c r="J17" s="37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="J17" s="62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="38">
-        <v>12</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="39" t="s">
+      <c r="B18" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="65">
+        <v>9</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18" s="62">
+        <v>2</v>
+      </c>
+      <c r="I18" s="62">
+        <v>5</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>237</v>
@@ -4918,7 +4948,7 @@
         <v>238</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>277</v>
@@ -4933,434 +4963,437 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="47">
-        <v>3</v>
-      </c>
-      <c r="E20" s="46" t="s">
+      <c r="B20" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="38">
+        <v>12</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="46">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="53" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="67">
+      <c r="F20" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="38">
         <v>12</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>487</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D22" s="38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>238</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="H22" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="47">
+        <v>3</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="I23" s="46">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="37" t="s">
+      <c r="B24" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="38">
-        <v>3</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="37" t="s">
+      <c r="D24" s="67">
+        <v>12</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="I23" s="37">
-        <v>0</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="I24" s="42">
+        <v>0</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="D24" s="26">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>302</v>
       </c>
       <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>293</v>
+      <c r="E25" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H25" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="37">
         <v>0</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="47">
+      <c r="B26" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="38">
         <v>3</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="H26" s="37" t="str">
-        <f>IF(C26="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I26" s="46">
-        <f>IF(H26=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="26">
         <v>3</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>311</v>
+      <c r="E27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="42" t="str">
-        <f>IF(C27="AT LEAST", "1a", "1b")</f>
-        <v>1a</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>130</v>
+        <v>429</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>251</v>
+        <v>301</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="D28" s="38">
         <v>3</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>314</v>
+      <c r="E28" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="H28" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="47">
+        <v>3</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" s="37" t="str">
+        <f>IF(C29="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I29" s="46">
+        <f>IF(H29=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="38">
-        <v>9</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I29" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>318</v>
+      <c r="B30" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="44">
-        <v>9</v>
+      <c r="D30" s="38">
+        <v>3</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>252</v>
+        <v>312</v>
+      </c>
+      <c r="H30" s="42" t="str">
+        <f>IF(C30="AT LEAST", "1a", "1b")</f>
+        <v>1a</v>
       </c>
       <c r="I30" s="37">
         <v>0</v>
       </c>
-      <c r="J30" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="D31" s="38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>324</v>
+      <c r="F31" s="43" t="s">
+        <v>314</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I31" s="37">
         <v>0</v>
       </c>
-      <c r="J31" s="37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D32" s="38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F32" s="69" t="s">
-        <v>328</v>
+      <c r="F32" s="39" t="s">
+        <v>316</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I32" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>330</v>
+      <c r="A33" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D33" s="38">
-        <v>3</v>
+      <c r="D33" s="44">
+        <v>9</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="76" t="s">
-        <v>331</v>
+      <c r="F33" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>252</v>
@@ -5368,13 +5401,16 @@
       <c r="I33" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>323</v>
@@ -5386,10 +5422,10 @@
         <v>293</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>241</v>
@@ -5397,60 +5433,60 @@
       <c r="I34" s="37">
         <v>0</v>
       </c>
+      <c r="J34" s="37" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
-        <v>162</v>
+      <c r="A35" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="D35" s="38">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E35" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F35" s="76" t="s">
-        <v>168</v>
+      <c r="F35" s="69" t="s">
+        <v>328</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I35" s="37">
         <v>0</v>
       </c>
-      <c r="J35" s="37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>162</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>251</v>
       </c>
       <c r="D36" s="38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>340</v>
+      <c r="F36" s="76" t="s">
+        <v>331</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>252</v>
@@ -5459,27 +5495,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
         <v>162</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>323</v>
       </c>
       <c r="D37" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>241</v>
@@ -5493,198 +5529,200 @@
         <v>162</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="D38" s="38">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>189</v>
+      <c r="F38" s="76" t="s">
+        <v>168</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>337</v>
       </c>
       <c r="H38" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="38">
+        <v>3</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B41" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="38">
+        <v>3</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D42" s="47">
         <v>3</v>
       </c>
-      <c r="E39" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="77" t="s">
+      <c r="E42" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G42" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H42" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="I39" s="46">
-        <v>0</v>
-      </c>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="I42" s="46">
+        <v>0</v>
+      </c>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B43" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C43" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D43" s="38">
         <v>12</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="E43" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G43" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H43" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="I43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C44" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D44" s="38">
         <v>6</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F41" s="39" t="s">
+      <c r="E44" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G44" s="39" t="s">
         <v>420</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="38">
-        <v>9</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="65">
-        <v>4.5</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="I43" s="62">
-        <v>0</v>
-      </c>
-      <c r="J43" s="62"/>
-    </row>
-    <row r="44" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>350</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>252</v>
@@ -5693,27 +5731,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="D45" s="38">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>354</v>
+      <c r="F45" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>252</v>
@@ -5722,120 +5760,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" s="65">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="I46" s="62">
+        <v>0</v>
+      </c>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C49" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D49" s="38">
         <v>4.5</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E49" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F49" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G49" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H49" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="I47" s="26">
-        <v>0</v>
-      </c>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="26">
+      <c r="I49" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5844,7 +5882,7 @@
         <v>216</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>323</v>
@@ -5856,7 +5894,7 @@
         <v>293</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>359</v>
@@ -5867,13 +5905,14 @@
       <c r="I50" s="26">
         <v>0</v>
       </c>
+      <c r="J50"/>
     </row>
     <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>323</v>
@@ -5885,7 +5924,7 @@
         <v>293</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>359</v>
@@ -5897,12 +5936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>323</v>
@@ -5914,7 +5953,7 @@
         <v>293</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>359</v>
@@ -5926,12 +5965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>323</v>
@@ -5943,7 +5982,7 @@
         <v>293</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>359</v>
@@ -5960,7 +5999,7 @@
         <v>216</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>323</v>
@@ -5972,7 +6011,7 @@
         <v>293</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>359</v>
@@ -5984,12 +6023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>323</v>
@@ -6001,7 +6040,7 @@
         <v>293</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>359</v>
@@ -6013,12 +6052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>323</v>
@@ -6030,7 +6069,7 @@
         <v>293</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>359</v>
@@ -6042,153 +6081,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="90" t="s">
+    <row r="57" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I59" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="C57" s="90" t="s">
+      <c r="C60" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="D57" s="91">
+      <c r="D60" s="91">
         <v>4.5</v>
       </c>
-      <c r="E57" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="F57" s="92" t="s">
+      <c r="E60" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="G57" s="92" t="s">
+      <c r="G60" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="H57" s="92" t="s">
+      <c r="H60" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="I57" s="92">
-        <v>0</v>
-      </c>
-      <c r="J57" s="63"/>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="I60" s="92">
+        <v>0</v>
+      </c>
+      <c r="J60" s="63"/>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D61" s="5">
         <v>13.5</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D59" s="5">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A60" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D60" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="I60" s="32">
-        <v>0</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D61" s="73">
-        <v>4.5</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>252</v>
@@ -6196,384 +6226,393 @@
       <c r="I61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
+      <c r="J61" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I63" s="32">
+        <v>0</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B64" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="73">
+        <v>4.5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C65" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D65" s="38">
         <v>4.5</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="39" t="s">
+      <c r="E65" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G65" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H65" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I62" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="I65" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>224</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>395</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>302</v>
       </c>
-      <c r="D63" s="74">
+      <c r="D66" s="74">
         <v>4.5</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E66" t="s">
         <v>238</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F66" t="s">
         <v>396</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G66" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H66" t="s">
         <v>252</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="89" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A64" s="57" t="s">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="89" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A67" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B67" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C67" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="66">
+      <c r="D67" s="66">
         <v>4.5</v>
       </c>
-      <c r="E64" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="F64" s="45" t="s">
+      <c r="E67" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G67" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="H64" s="63" t="s">
+      <c r="H67" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="I64" s="63">
-        <v>0</v>
-      </c>
-      <c r="J64" s="63" t="s">
+      <c r="I67" s="63">
+        <v>0</v>
+      </c>
+      <c r="J67" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="53" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A65" s="93" t="s">
+    <row r="68" spans="1:10" s="53" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A68" s="93" t="s">
         <v>428</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B68" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C68" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="67">
+      <c r="D68" s="67">
         <v>12</v>
       </c>
-      <c r="E65" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="52" t="s">
+      <c r="E68" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G68" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H68" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="I65" s="42">
-        <v>0</v>
-      </c>
-      <c r="J65" s="42" t="s">
+      <c r="I68" s="42">
+        <v>0</v>
+      </c>
+      <c r="J68" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" s="38">
-        <v>3</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I66" s="37">
-        <v>0</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D67" s="38">
-        <v>3</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I67" s="37">
-        <v>0</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="26">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="I68" s="26">
-        <v>0</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="D69" s="38">
         <v>3</v>
       </c>
-      <c r="E69" s="39" t="s">
-        <v>293</v>
+      <c r="E69" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H69" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="H69" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="37">
         <v>0</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="27">
+      <c r="B70" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="38">
         <v>3</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G70" s="94" t="s">
-        <v>308</v>
-      </c>
-      <c r="H70" s="26" t="str">
-        <f>IF(C70="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I70" s="26">
-        <f>IF(H70=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I70" s="37">
+        <v>0</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D71" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>349</v>
+      <c r="B71" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="26">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="H71" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="I71" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="26">
+        <v>0</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C72" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" s="44" t="s">
         <v>302</v>
       </c>
       <c r="D72" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>293</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="H72" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H72" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="I72" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="39">
+        <v>0</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D73" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="H73" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I73" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="27">
+        <v>3</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G73" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="H73" s="26" t="str">
+        <f>IF(C73="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I73" s="26">
+        <f>IF(H73=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>302</v>
@@ -6582,10 +6621,10 @@
         <v>4.5</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>485</v>
@@ -6597,102 +6636,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D75" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>485</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I75" s="37">
         <v>0</v>
       </c>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D76" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>438</v>
+        <v>354</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>485</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
       </c>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D77" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>440</v>
+        <v>356</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>485</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
       </c>
-      <c r="J77"/>
     </row>
     <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>323</v>
@@ -6704,7 +6740,7 @@
         <v>293</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>485</v>
@@ -6722,7 +6758,7 @@
         <v>428</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>323</v>
@@ -6734,7 +6770,7 @@
         <v>293</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>485</v>
@@ -6752,19 +6788,19 @@
         <v>428</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>323</v>
       </c>
       <c r="D80" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="G80" s="39" t="s">
         <v>485</v>
@@ -6782,19 +6818,19 @@
         <v>428</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>323</v>
       </c>
       <c r="D81" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>485</v>
@@ -6812,19 +6848,19 @@
         <v>428</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>362</v>
+        <v>443</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>323</v>
       </c>
       <c r="D82" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>293</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>485</v>
@@ -6842,7 +6878,7 @@
         <v>428</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>323</v>
@@ -6854,7 +6890,7 @@
         <v>293</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>485</v>
@@ -6872,7 +6908,7 @@
         <v>428</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>323</v>
@@ -6884,7 +6920,7 @@
         <v>293</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>485</v>
@@ -6902,7 +6938,7 @@
         <v>428</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>323</v>
@@ -6914,7 +6950,7 @@
         <v>293</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>485</v>
@@ -6932,7 +6968,7 @@
         <v>428</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>323</v>
@@ -6944,7 +6980,7 @@
         <v>293</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>485</v>
@@ -6962,7 +6998,7 @@
         <v>428</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>323</v>
@@ -6974,7 +7010,7 @@
         <v>293</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>485</v>
@@ -6992,7 +7028,7 @@
         <v>428</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>323</v>
@@ -7004,7 +7040,7 @@
         <v>293</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>485</v>
@@ -7022,7 +7058,7 @@
         <v>428</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>323</v>
@@ -7034,7 +7070,7 @@
         <v>293</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>485</v>
@@ -7052,7 +7088,7 @@
         <v>428</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>323</v>
@@ -7064,7 +7100,7 @@
         <v>293</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
       <c r="G90" s="39" t="s">
         <v>485</v>
@@ -7082,7 +7118,7 @@
         <v>428</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>323</v>
@@ -7094,7 +7130,7 @@
         <v>293</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>485</v>
@@ -7112,7 +7148,7 @@
         <v>428</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>323</v>
@@ -7124,7 +7160,7 @@
         <v>293</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G92" s="39" t="s">
         <v>485</v>
@@ -7142,7 +7178,7 @@
         <v>428</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>323</v>
@@ -7154,7 +7190,7 @@
         <v>293</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>485</v>
@@ -7165,16 +7201,14 @@
       <c r="I93" s="37">
         <v>0</v>
       </c>
-      <c r="J93" t="s">
-        <v>455</v>
-      </c>
+      <c r="J93"/>
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>323</v>
@@ -7186,7 +7220,7 @@
         <v>293</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="G94" s="39" t="s">
         <v>485</v>
@@ -7200,41 +7234,41 @@
       <c r="J94"/>
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="B95" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D95" s="74">
+      <c r="D95" s="38">
         <v>4.5</v>
       </c>
-      <c r="E95" t="s">
-        <v>293</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>379</v>
+      <c r="E95" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>452</v>
       </c>
       <c r="G95" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="37">
         <v>0</v>
       </c>
       <c r="J95"/>
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>323</v>
@@ -7246,7 +7280,7 @@
         <v>293</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G96" s="39" t="s">
         <v>485</v>
@@ -7257,14 +7291,16 @@
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96"/>
+      <c r="J96" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="28" t="s">
         <v>428</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>323</v>
@@ -7276,7 +7312,7 @@
         <v>293</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="G97" s="39" t="s">
         <v>485</v>
@@ -7290,31 +7326,31 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="A98" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="C98" s="37" t="s">
+      <c r="B98" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" t="s">
         <v>323</v>
       </c>
-      <c r="D98" s="38">
+      <c r="D98" s="74">
         <v>4.5</v>
       </c>
-      <c r="E98" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>463</v>
+      <c r="E98" t="s">
+        <v>293</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="G98" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="H98" s="37" t="s">
+      <c r="H98" t="s">
         <v>241</v>
       </c>
-      <c r="I98" s="37">
+      <c r="I98">
         <v>0</v>
       </c>
       <c r="J98"/>
@@ -7324,7 +7360,7 @@
         <v>428</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>323</v>
@@ -7336,7 +7372,7 @@
         <v>293</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G99" s="39" t="s">
         <v>485</v>
@@ -7354,7 +7390,7 @@
         <v>428</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>323</v>
@@ -7366,7 +7402,7 @@
         <v>293</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G100" s="39" t="s">
         <v>485</v>
@@ -7384,7 +7420,7 @@
         <v>428</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>323</v>
@@ -7396,7 +7432,7 @@
         <v>293</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G101" s="39" t="s">
         <v>485</v>
@@ -7414,7 +7450,7 @@
         <v>428</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>323</v>
@@ -7426,7 +7462,7 @@
         <v>293</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G102" s="39" t="s">
         <v>485</v>
@@ -7444,7 +7480,7 @@
         <v>428</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>323</v>
@@ -7456,7 +7492,7 @@
         <v>293</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G103" s="39" t="s">
         <v>485</v>
@@ -7474,7 +7510,7 @@
         <v>428</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C104" s="37" t="s">
         <v>323</v>
@@ -7486,7 +7522,7 @@
         <v>293</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G104" s="39" t="s">
         <v>485</v>
@@ -7504,7 +7540,7 @@
         <v>428</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C105" s="37" t="s">
         <v>323</v>
@@ -7516,7 +7552,7 @@
         <v>293</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G105" s="39" t="s">
         <v>485</v>
@@ -7534,7 +7570,7 @@
         <v>428</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>323</v>
@@ -7546,7 +7582,7 @@
         <v>293</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G106" s="39" t="s">
         <v>485</v>
@@ -7559,53 +7595,54 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="89" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="57" t="s">
+    <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="B107" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" s="63" t="s">
+      <c r="B107" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D107" s="66">
+      <c r="D107" s="38">
         <v>4.5</v>
       </c>
-      <c r="E107" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="F107" s="45" t="s">
-        <v>477</v>
+      <c r="E107" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F107" s="39" t="s">
+        <v>471</v>
       </c>
       <c r="G107" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="H107" s="63" t="s">
+      <c r="H107" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="I107" s="63">
-        <v>0</v>
-      </c>
+      <c r="I107" s="37">
+        <v>0</v>
+      </c>
+      <c r="J107"/>
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="s">
         <v>428</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G108" s="39" t="s">
         <v>485</v>
@@ -7616,72 +7653,161 @@
       <c r="I108" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="38"/>
-    </row>
-    <row r="111" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="G109" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="H109" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I109" s="37">
+        <v>0</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" s="89" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="66">
+        <v>4.5</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="G110" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="H110" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I110" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E111" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="G111" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="H111" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I111" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="38"/>
+    </row>
+    <row r="114" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="3:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J140" s="46"/>
-    </row>
-    <row r="141" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="46"/>
+    </row>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD72876-AECF-D847-9C94-BB593CAB32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4FD72876-AECF-D847-9C94-BB593CAB32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAD4BC1-D505-4D2B-844F-084960A76631}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Sreqs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="501">
   <si>
     <t>Program Key</t>
   </si>
@@ -1543,9 +1542,6 @@
   </si>
   <si>
     <t>["CS_2022", "MA_2201", "CS_2301", "CS_2303", "CS_3041", "CS_3043", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4802", "BCB_4002", "CS_4803", "BCB_4003", "CS_4804", "BCB_4004", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "MIS_3720", "MIS_3787", "MIS_4720", "MIS_4741", "MIS_4084", "OIE_4430", "MKT_3650", "OIE_3460", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "BCB_502", "BCB_503", "MA_540", "MA_541", "MA_543", "DS_502", "MA_542", "MA_554", "MIS_571", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504", "MIS_584", "MIS_587", "MKT_568", "OIE_559"]</t>
-  </si>
-  <si>
-    <t>lalalala</t>
   </si>
 </sst>
 </file>
@@ -2383,9 +2379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2423,7 +2419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2529,7 +2525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2671,7 +2667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2688,10 +2684,10 @@
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
@@ -2700,7 +2696,7 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +2717,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2738,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2759,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2784,7 +2780,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2801,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2826,7 +2822,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2843,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2864,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -2902,7 +2898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -2970,7 +2966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>33</v>
       </c>
@@ -3004,7 +3000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>33</v>
       </c>
@@ -3021,7 +3017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -3089,7 +3085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -3106,7 +3102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3123,7 +3119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3157,7 +3153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -3174,7 +3170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3225,7 +3221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3259,7 +3255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3276,7 +3272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3296,7 +3292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
@@ -3313,7 +3309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>97</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
@@ -3349,7 +3345,7 @@
       <c r="N36" s="54"/>
       <c r="O36" s="54"/>
     </row>
-    <row r="37" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
@@ -3366,7 +3362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -3383,7 +3379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3434,7 +3430,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>108</v>
       </c>
@@ -3454,7 +3450,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>108</v>
       </c>
@@ -3474,7 +3470,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>108</v>
       </c>
@@ -3494,7 +3490,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>108</v>
       </c>
@@ -3514,7 +3510,7 @@
       <c r="H45" s="28"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>108</v>
       </c>
@@ -3534,7 +3530,7 @@
       <c r="H46" s="28"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -3551,7 +3547,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="32" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>108</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="82" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="82" t="s">
         <v>223</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="82" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="82" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="82" t="s">
         <v>137</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -3653,7 +3649,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -3690,7 +3686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -3707,7 +3703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -3724,7 +3720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -3741,7 +3737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="32" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>137</v>
       </c>
@@ -3758,7 +3754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>169</v>
       </c>
@@ -3775,7 +3771,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>169</v>
       </c>
@@ -3792,7 +3788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>169</v>
       </c>
@@ -3809,7 +3805,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>169</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -3860,7 +3856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -3877,7 +3873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>169</v>
       </c>
@@ -3894,7 +3890,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>169</v>
       </c>
@@ -3911,7 +3907,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>169</v>
       </c>
@@ -3928,7 +3924,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
@@ -3962,7 +3958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>169</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
@@ -4016,7 +4012,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>169</v>
       </c>
@@ -4036,7 +4032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>220</v>
       </c>
@@ -4053,7 +4049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>220</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -4087,7 +4083,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>220</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4122,7 +4118,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>220</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="395" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>220</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="32" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>227</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="92" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="92" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="92" t="s">
         <v>231</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>437</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>437</v>
       </c>
@@ -4230,7 +4226,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>437</v>
       </c>
@@ -4247,7 +4243,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>437</v>
       </c>
@@ -4267,7 +4263,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>437</v>
       </c>
@@ -4287,7 +4283,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>437</v>
       </c>
@@ -4307,7 +4303,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="26"/>
     </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>437</v>
       </c>
@@ -4327,7 +4323,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>437</v>
       </c>
@@ -4347,7 +4343,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>437</v>
       </c>
@@ -4364,7 +4360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="32" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>437</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>437</v>
       </c>
@@ -4398,7 +4394,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="82" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="82" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>437</v>
       </c>
@@ -4428,25 +4424,25 @@
   </sheetPr>
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="40" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
     <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4506,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
@@ -4542,7 +4538,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>33</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>59</v>
       </c>
@@ -4702,7 +4698,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>59</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>59</v>
       </c>
@@ -4766,7 +4762,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>59</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>97</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +4858,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
         <v>97</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>97</v>
       </c>
@@ -4926,7 +4922,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>97</v>
       </c>
@@ -4958,7 +4954,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>97</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="59" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="59" customFormat="1" ht="129.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>108</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>108</v>
       </c>
@@ -5054,7 +5050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>108</v>
       </c>
@@ -5086,7 +5082,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>108</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>108</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>137</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>137</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>137</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>137</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
         <v>137</v>
       </c>
@@ -5336,7 +5332,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="66" t="s">
         <v>137</v>
       </c>
@@ -5365,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>169</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>169</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>169</v>
       </c>
@@ -5455,7 +5451,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>169</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>169</v>
       </c>
@@ -5513,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
         <v>169</v>
       </c>
@@ -5542,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>169</v>
       </c>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>220</v>
       </c>
@@ -5601,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>220</v>
       </c>
@@ -5630,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>220</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="68" t="s">
         <v>223</v>
       </c>
@@ -5689,7 +5685,7 @@
       </c>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>223</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>223</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>223</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>223</v>
       </c>
@@ -5806,7 +5802,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>223</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>223</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>223</v>
       </c>
@@ -5893,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>223</v>
       </c>
@@ -5922,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>223</v>
       </c>
@@ -5951,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>223</v>
       </c>
@@ -5980,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>223</v>
       </c>
@@ -6009,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>223</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>223</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="97" t="s">
         <v>223</v>
       </c>
@@ -6097,7 +6093,7 @@
       </c>
       <c r="J54" s="69"/>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>227</v>
       </c>
@@ -6129,7 +6125,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>227</v>
       </c>
@@ -6193,7 +6189,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -6222,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
         <v>231</v>
       </c>
@@ -6251,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="96" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="96" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A61" s="63" t="s">
         <v>231</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="59" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="59" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A62" s="100" t="s">
         <v>437</v>
       </c>
@@ -6344,7 +6340,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>437</v>
       </c>
@@ -6376,7 +6372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>437</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>437</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>437</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
         <v>437</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>437</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>437</v>
       </c>
@@ -6564,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>437</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>437</v>
       </c>
@@ -6622,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>437</v>
       </c>
@@ -6652,7 +6648,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>437</v>
       </c>
@@ -6682,7 +6678,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>437</v>
       </c>
@@ -6712,7 +6708,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>437</v>
       </c>
@@ -6742,7 +6738,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>437</v>
       </c>
@@ -6772,7 +6768,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>437</v>
       </c>
@@ -6802,7 +6798,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
         <v>437</v>
       </c>
@@ -6832,7 +6828,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
         <v>437</v>
       </c>
@@ -6862,7 +6858,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
         <v>437</v>
       </c>
@@ -6892,7 +6888,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>437</v>
       </c>
@@ -6922,7 +6918,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
         <v>437</v>
       </c>
@@ -6952,7 +6948,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>437</v>
       </c>
@@ -6982,7 +6978,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>437</v>
       </c>
@@ -7012,7 +7008,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
         <v>437</v>
       </c>
@@ -7042,7 +7038,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
         <v>437</v>
       </c>
@@ -7072,7 +7068,7 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
         <v>437</v>
       </c>
@@ -7102,7 +7098,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
         <v>437</v>
       </c>
@@ -7132,7 +7128,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
         <v>437</v>
       </c>
@@ -7162,7 +7158,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
         <v>437</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
         <v>437</v>
       </c>
@@ -7224,7 +7220,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>437</v>
       </c>
@@ -7254,7 +7250,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="62" t="s">
         <v>437</v>
       </c>
@@ -7284,7 +7280,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="62" t="s">
         <v>437</v>
       </c>
@@ -7314,7 +7310,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="62" t="s">
         <v>437</v>
       </c>
@@ -7344,7 +7340,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="62" t="s">
         <v>437</v>
       </c>
@@ -7374,7 +7370,7 @@
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="62" t="s">
         <v>437</v>
       </c>
@@ -7404,7 +7400,7 @@
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
         <v>437</v>
       </c>
@@ -7434,7 +7430,7 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="62" t="s">
         <v>437</v>
       </c>
@@ -7464,7 +7460,7 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="62" t="s">
         <v>437</v>
       </c>
@@ -7494,7 +7490,7 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="62" t="s">
         <v>437</v>
       </c>
@@ -7524,7 +7520,7 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="62" t="s">
         <v>437</v>
       </c>
@@ -7554,7 +7550,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="62" t="s">
         <v>437</v>
       </c>
@@ -7584,7 +7580,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="96" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="96" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="63" t="s">
         <v>437</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="62" t="s">
         <v>437</v>
       </c>
@@ -7642,93 +7638,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="38"/>
     </row>
-    <row r="108" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="10:10" s="33" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J137" s="52"/>
     </row>
-    <row r="138" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="121.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435225-A42F-2549-869D-EB0CC2DF62CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC8F5E-D593-2040-A577-B85C08B0EE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50540E0B-4745-1F41-ADA2-BD023C7D6CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="516">
   <si>
     <t>Program Key</t>
   </si>
@@ -440,9 +440,6 @@
     <t>Basic Science - Chemistry and Physics</t>
   </si>
   <si>
-    <t>['CH_1010', 'PH_1110', 'PH_1120', 'CH_1020', 'PH_1111', 'PH_1121']</t>
-  </si>
-  <si>
     <t>ME_M</t>
   </si>
   <si>
@@ -458,30 +455,15 @@
     <t>Math and Basic Science</t>
   </si>
   <si>
-    <t xml:space="preserve">['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT'] </t>
-  </si>
-  <si>
     <t>ME_MS</t>
   </si>
   <si>
     <t xml:space="preserve">Mechanical Systems </t>
   </si>
   <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4322', 'ME_4323', 'ME_4324']</t>
-  </si>
-  <si>
     <t>ME_TS</t>
   </si>
   <si>
-    <t>Thermal Systems</t>
-  </si>
-  <si>
-    <t>['ES_3001', 'ES_3003', 'ES_3004', ME_4422, 'ME_4429']</t>
-  </si>
-  <si>
-    <t>*this is another weird social imps case - ES 3001 can be replaced by CH 3510 or PH 2101 - if CH or PH used for thermo, it's a science, and another engineering elective is needed :(</t>
-  </si>
-  <si>
     <t>ME_MAT_SCI</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t xml:space="preserve">Other Courses - ECE </t>
   </si>
   <si>
-    <t>["ES_2010", "ECE_DEPT"]</t>
-  </si>
-  <si>
     <t>ME_EXP</t>
   </si>
   <si>
@@ -524,9 +503,6 @@
     <t>Electives</t>
   </si>
   <si>
-    <t>['ES_DEPT', 'ME_DEPT', "AREN_DEPT", ''CHE_DEPT", "RBE_DEPT",  "CE_DEPT",  "ECE_DEPT", 'AE_DEPT', 'OIE_DEPT', "FP_DEPT"]</t>
-  </si>
-  <si>
     <t>BME_MAJOR</t>
   </si>
   <si>
@@ -974,18 +950,12 @@
     <t>ME_CHEM</t>
   </si>
   <si>
-    <t>['CH_1010', 'CH_1020']</t>
-  </si>
-  <si>
     <t>["ME_BSCAP"]</t>
   </si>
   <si>
     <t>ME_PHY</t>
   </si>
   <si>
-    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
-  </si>
-  <si>
     <t>ME_MS_CORE</t>
   </si>
   <si>
@@ -998,9 +968,6 @@
     <t>ME_TS_CORE</t>
   </si>
   <si>
-    <t>['ES_3001', 'ES_3003', 'ES_3004']</t>
-  </si>
-  <si>
     <t>["ME_TS"]</t>
   </si>
   <si>
@@ -1022,15 +989,6 @@
     <t xml:space="preserve">Can't take ECE 1799 for the ECE req (ECE 2010 preferred) </t>
   </si>
   <si>
-    <t>ME_E_LEVEL_REST</t>
-  </si>
-  <si>
-    <t>["AREN_DEPT_1000_L", ''CHE_DEPT_1000_L", "RBE_DEPT_1000_L",  "CE_DEPT_1000_L",  "ECE_DEPT_1000_L", 'AE_DEPT_1000_L', 'OIE_DEPT_1000_L', 'FP_DEPT_1000_L']</t>
-  </si>
-  <si>
-    <t>["ME_E"]</t>
-  </si>
-  <si>
     <t>BME_BIO_2000_L</t>
   </si>
   <si>
@@ -1569,6 +1527,66 @@
   </si>
   <si>
     <t>at most 1 2000 systems class</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>Thermofluid Systems</t>
+  </si>
+  <si>
+    <t>ME_ES_3001_EQ</t>
+  </si>
+  <si>
+    <t>['ES_3001', 'CH_3510', 'PH_2102']</t>
+  </si>
+  <si>
+    <t>['ES_3003', 'ES_3004']</t>
+  </si>
+  <si>
+    <t>need one of these three for intro to thermo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT', 'PH_2101', 'CH_3510'] </t>
+  </si>
+  <si>
+    <t>['CH_1010', 'PH_1110', 'PH_1120', 'CH_1020', 'PH_1111', 'PH_1121', 'PH_2101', 'CH_3510']</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020', 'CH_3510']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121', 'PH_2101']</t>
+  </si>
+  <si>
+    <t>["ME_BSCAP", "ME_E", "ME_MABS"]</t>
+  </si>
+  <si>
+    <t>not dealing with the level restrictions here really</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this cross restriction not really accounted for either </t>
+  </si>
+  <si>
+    <t>*this is another weird social imps case - ES 3001 can be replaced by CH 3510 or PH 2101 - if CH or PH used for thermo, it's a science, and another engineering elective is needed :( I think I handled it by moving it to electives though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at least one chem </t>
+  </si>
+  <si>
+    <t>at least one physics</t>
+  </si>
+  <si>
+    <t>['ES_3003', 'ES_3004', 'ME_4422', 'ME_4429']</t>
+  </si>
+  <si>
+    <t>mechanical systems core</t>
+  </si>
+  <si>
+    <t>["ECE_2010", "ECE_DEPT"]</t>
+  </si>
+  <si>
+    <t>['ES_3001', 'ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT',  'CE_DEPT',  'ECE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT', 'ECE_2010']</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2215,12 +2233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2234,7 +2246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -2251,9 +2262,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,11 +2327,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2644,8 +2652,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A37" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2876,7 +2884,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2926,8 +2934,8 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="78" t="s">
-        <v>499</v>
+      <c r="E14" s="74" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2943,7 +2951,7 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="74" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2960,7 +2968,7 @@
       <c r="D16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="75" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3323,7 +3331,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,7 +3348,7 @@
         <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3456,7 +3464,7 @@
       <c r="D44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3474,28 +3482,28 @@
         <v>129</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75" t="s">
-        <v>216</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="71" t="s">
+        <v>208</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C46" s="30">
         <v>45</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="75" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="71" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -3504,11 +3512,11 @@
       <c r="C47" s="30">
         <v>9</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="84" t="s">
-        <v>133</v>
+      <c r="E47" s="80" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,16 +3524,16 @@
         <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5">
         <v>18</v>
       </c>
       <c r="D48" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,16 +3541,16 @@
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,16 +3558,16 @@
         <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="5">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>142</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,19 +3575,19 @@
         <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5">
-        <v>12</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>144</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>512</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>146</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3587,16 +3595,16 @@
         <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3604,16 +3612,16 @@
         <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="81" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,33 +3629,36 @@
         <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3655,388 +3666,391 @@
         <v>130</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C56" s="34">
-        <v>12</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="82" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C57" s="5">
         <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="81" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+      <c r="E58" s="77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="81" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="81" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="E60" s="77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="81" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="E61" s="77" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="81" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C67" s="5">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="81" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="E68" s="77" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C70" s="5">
         <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C71" s="5">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="83" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="E71" s="79" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C72" s="34">
         <v>6</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C73" s="5">
         <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4045,69 +4059,69 @@
         <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C80" s="34">
         <v>45</v>
       </c>
       <c r="D80" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="83">
+        <v>45</v>
+      </c>
+      <c r="D81" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="85" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" s="87">
-        <v>45</v>
-      </c>
-      <c r="D81" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="85" t="s">
-        <v>227</v>
+      <c r="F81" s="81" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>102</v>
@@ -4124,7 +4138,7 @@
     </row>
     <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -4136,12 +4150,12 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>107</v>
@@ -4153,12 +4167,12 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>109</v>
@@ -4178,7 +4192,7 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>112</v>
@@ -4198,7 +4212,7 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>115</v>
@@ -4218,7 +4232,7 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>117</v>
@@ -4238,7 +4252,7 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>122</v>
@@ -4258,7 +4272,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>125</v>
@@ -4269,13 +4283,13 @@
       <c r="D90" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="80" t="s">
+      <c r="E90" s="76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>128</v>
@@ -4287,41 +4301,41 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="75" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C93" s="30">
         <v>45</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4337,13 +4351,13 @@
   </sheetPr>
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
@@ -4356,67 +4370,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C2" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="D2" s="62">
+        <v>3</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G2" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H2" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I2" s="68">
+        <v>0</v>
+      </c>
+      <c r="J2" s="60" t="s">
         <v>234</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="65">
-        <v>3</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="I2" s="72">
-        <v>0</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,95 +4438,95 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="72">
-        <v>0</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="65">
+      <c r="B5" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="62">
         <v>15</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>238</v>
+      <c r="E5" s="59" t="s">
+        <v>230</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="I5" s="62">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>253</v>
+        <v>478</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4520,22 +4534,22 @@
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>248</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4544,7 +4558,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4555,28 +4569,28 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4587,28 +4601,28 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4619,444 +4633,444 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="91">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="91">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="91">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="63">
+        <v>3</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="96">
+      <c r="G13" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="62">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>504</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="96">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>505</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="96">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="66">
-        <v>3</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="I13" s="63">
-        <v>0</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="E14" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="65">
-        <v>3</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" s="62">
-        <v>0</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>52</v>
-      </c>
       <c r="B15" s="37" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D15" s="38">
         <v>3</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="H15" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="72" t="s">
+      <c r="C17" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="C18" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="62">
+        <v>9</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="G18" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="H18" s="59">
+        <v>2</v>
+      </c>
+      <c r="I18" s="59">
+        <v>5</v>
+      </c>
+      <c r="J18" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="62" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="65">
-        <v>9</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="62">
-        <v>2</v>
-      </c>
-      <c r="I18" s="62">
-        <v>5</v>
-      </c>
-      <c r="J18" s="62" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>279</v>
-      </c>
       <c r="C19" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D19" s="38">
         <v>12</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I19" s="37">
         <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D20" s="38">
         <v>12</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I20" s="37">
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D21" s="38">
         <v>12</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I21" s="37">
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D22" s="38">
         <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I22" s="37">
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5064,127 +5078,127 @@
         <v>90</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D23" s="47">
         <v>3</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I23" s="46">
         <v>0</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="53" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="67">
+        <v>243</v>
+      </c>
+      <c r="D24" s="64">
         <v>12</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>487</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>294</v>
+        <v>285</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>286</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I24" s="42">
         <v>0</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>101</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D25" s="38">
         <v>3</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I25" s="37">
         <v>0</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I26" s="37">
         <v>0</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5195,22 +5209,22 @@
         <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D27" s="26">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I27" s="26">
         <v>0</v>
@@ -5224,54 +5238,54 @@
         <v>101</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D28" s="38">
         <v>3</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I28" s="39">
         <v>0</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="57" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D29" s="47">
         <v>3</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>IF(C29="AT LEAST", "1a", "1b")</f>
@@ -5282,30 +5296,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D30" s="38">
         <v>3</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H30" s="42" t="str">
         <f>IF(C30="AT LEAST", "1a", "1b")</f>
@@ -5314,63 +5328,72 @@
       <c r="I30" s="37">
         <v>0</v>
       </c>
+      <c r="J30" s="37" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="54" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>314</v>
+        <v>505</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I31" s="37">
         <v>0</v>
       </c>
+      <c r="J31" s="37" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="54" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D32" s="38">
         <v>9</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I32" s="37">
         <v>0</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5378,295 +5401,299 @@
         <v>130</v>
       </c>
       <c r="B33" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="44">
+        <v>6</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="62">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="44">
-        <v>9</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F33" s="39" t="s">
+      <c r="H36" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" s="59">
+        <v>0</v>
+      </c>
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="C37" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-      <c r="J33" s="37" t="s">
+      <c r="G37" s="39" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="37" t="s">
+      <c r="H37" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="38">
-        <v>0</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I34" s="37">
-        <v>0</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>328</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="38">
-        <v>3</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="C38" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D38" s="38">
         <v>27</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>168</v>
+        <v>285</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>160</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I38" s="37">
         <v>0</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
-        <v>162</v>
+      <c r="A39" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D39" s="38">
         <v>1.5</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I39" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
-        <v>162</v>
+      <c r="A40" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D40" s="38">
         <v>3</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I40" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
-        <v>162</v>
+      <c r="A41" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D41" s="38">
         <v>3</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I41" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>162</v>
+      <c r="A42" s="57" t="s">
+        <v>154</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D42" s="47">
         <v>3</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="77" t="s">
-        <v>346</v>
+        <v>285</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>332</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I42" s="46">
         <v>0</v>
@@ -5675,28 +5702,28 @@
     </row>
     <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D43" s="38">
         <v>12</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I43" s="37">
         <v>0</v>
@@ -5704,28 +5731,28 @@
     </row>
     <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D44" s="38">
         <v>6</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I44" s="37">
         <v>0</v>
@@ -5733,87 +5760,87 @@
     </row>
     <row r="45" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D45" s="38">
         <v>9</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I45" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="D46" s="65">
+      <c r="A46" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="62">
         <v>4.5</v>
       </c>
-      <c r="E46" s="62" t="s">
-        <v>293</v>
+      <c r="E46" s="59" t="s">
+        <v>285</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="I46" s="62">
-        <v>0</v>
-      </c>
-      <c r="J46" s="62"/>
+        <v>336</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="I46" s="59">
+        <v>0</v>
+      </c>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D47" s="38">
         <v>4.5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I47" s="37">
         <v>0</v>
@@ -5821,28 +5848,28 @@
     </row>
     <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D48" s="38">
         <v>4.5</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I48" s="37">
         <v>0</v>
@@ -5850,28 +5877,28 @@
     </row>
     <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D49" s="38">
         <v>4.5</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I49" s="37">
         <v>0</v>
@@ -5879,28 +5906,28 @@
     </row>
     <row r="50" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
@@ -5909,28 +5936,28 @@
     </row>
     <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
@@ -5938,28 +5965,28 @@
     </row>
     <row r="52" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
@@ -5967,28 +5994,28 @@
     </row>
     <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I53" s="26">
         <v>0</v>
@@ -5996,28 +6023,28 @@
     </row>
     <row r="54" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I54" s="26">
         <v>0</v>
@@ -6025,28 +6052,28 @@
     </row>
     <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I55" s="26">
         <v>0</v>
@@ -6054,28 +6081,28 @@
     </row>
     <row r="56" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I56" s="26">
         <v>0</v>
@@ -6083,28 +6110,28 @@
     </row>
     <row r="57" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D57" s="27">
         <v>4.5</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I57" s="26">
         <v>0</v>
@@ -6112,28 +6139,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D58" s="27">
         <v>4.5</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I58" s="26">
         <v>0</v>
@@ -6141,212 +6168,212 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D59" s="27">
         <v>4.5</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I59" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="89" t="s">
-        <v>378</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="D60" s="91">
+    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="87">
         <v>4.5</v>
       </c>
-      <c r="E60" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="F60" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="H60" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="I60" s="92">
-        <v>0</v>
-      </c>
-      <c r="J60" s="63"/>
+      <c r="E60" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H60" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="I60" s="88">
+        <v>0</v>
+      </c>
+      <c r="J60" s="60"/>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D61" s="5">
         <v>13.5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D62" s="5">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D63" s="34">
         <v>4.5</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I63" s="32">
         <v>0</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D64" s="73">
+        <v>294</v>
+      </c>
+      <c r="D64" s="69">
         <v>4.5</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
-        <v>224</v>
+      <c r="A65" s="54" t="s">
+        <v>216</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D65" s="38">
         <v>4.5</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I65" s="37">
         <v>0</v>
@@ -6354,185 +6381,185 @@
     </row>
     <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="74">
+        <v>294</v>
+      </c>
+      <c r="D66" s="70">
         <v>4.5</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="89" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A67" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="D67" s="66">
+    <row r="67" spans="1:10" s="85" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A67" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="63">
         <v>4.5</v>
       </c>
-      <c r="E67" s="63" t="s">
-        <v>293</v>
+      <c r="E67" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="H67" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="I67" s="63">
-        <v>0</v>
-      </c>
-      <c r="J67" s="63" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="53" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A68" s="93" t="s">
-        <v>428</v>
+        <v>378</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I67" s="60">
+        <v>0</v>
+      </c>
+      <c r="J67" s="60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A68" s="89" t="s">
+        <v>414</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="67">
+        <v>243</v>
+      </c>
+      <c r="D68" s="64">
         <v>12</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="G68" s="52" t="s">
-        <v>432</v>
+        <v>285</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>418</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I68" s="42">
         <v>0</v>
       </c>
       <c r="J68" s="42" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D69" s="38">
         <v>3</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I69" s="37">
         <v>0</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D70" s="38">
         <v>3</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I70" s="37">
         <v>0</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>120</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D71" s="26">
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I71" s="26">
         <v>0</v>
@@ -6543,57 +6570,57 @@
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D72" s="38">
         <v>3</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I72" s="39">
         <v>0</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D73" s="27">
         <v>3</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G73" s="94" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+      <c r="G73" s="90" t="s">
+        <v>300</v>
       </c>
       <c r="H73" s="26" t="str">
         <f>IF(C73="AT LEAST", "1a", "1b")</f>
@@ -6604,33 +6631,33 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D74" s="38">
         <v>4.5</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I74" s="37">
         <v>0</v>
@@ -6638,28 +6665,28 @@
     </row>
     <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D75" s="38">
         <v>4.5</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I75" s="37">
         <v>0</v>
@@ -6667,28 +6694,28 @@
     </row>
     <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D76" s="38">
         <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
@@ -6696,28 +6723,28 @@
     </row>
     <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D77" s="38">
         <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
@@ -6725,28 +6752,28 @@
     </row>
     <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D78" s="38">
         <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
@@ -6755,28 +6782,28 @@
     </row>
     <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D79" s="38">
         <v>3</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
@@ -6785,28 +6812,28 @@
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D80" s="38">
         <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
@@ -6815,28 +6842,28 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D81" s="38">
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
@@ -6845,28 +6872,28 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
@@ -6875,28 +6902,28 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D83" s="38">
         <v>4.5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I83" s="37">
         <v>0</v>
@@ -6905,28 +6932,28 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D84" s="38">
         <v>4.5</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I84" s="37">
         <v>0</v>
@@ -6935,28 +6962,28 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
@@ -6965,28 +6992,28 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
@@ -6995,28 +7022,28 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
@@ -7025,28 +7052,28 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
@@ -7055,28 +7082,28 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
@@ -7085,28 +7112,28 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
@@ -7115,28 +7142,28 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
@@ -7145,28 +7172,28 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I92" s="37">
         <v>0</v>
@@ -7175,28 +7202,28 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
@@ -7205,28 +7232,28 @@
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
@@ -7235,28 +7262,28 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D95" s="38">
         <v>4.5</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I95" s="37">
         <v>0</v>
@@ -7265,60 +7292,60 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
@@ -7327,28 +7354,28 @@
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
-      </c>
-      <c r="D98" s="74">
+        <v>312</v>
+      </c>
+      <c r="D98" s="70">
         <v>4.5</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H98" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7356,29 +7383,29 @@
       <c r="J98"/>
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
-        <v>428</v>
+      <c r="A99" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
@@ -7386,29 +7413,29 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="56" t="s">
-        <v>428</v>
+      <c r="A100" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D100" s="38">
         <v>4.5</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H100" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I100" s="37">
         <v>0</v>
@@ -7416,29 +7443,29 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
-        <v>428</v>
+      <c r="A101" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
@@ -7446,29 +7473,29 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="s">
-        <v>428</v>
+      <c r="A102" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I102" s="37">
         <v>0</v>
@@ -7476,29 +7503,29 @@
       <c r="J102"/>
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
-        <v>428</v>
+      <c r="A103" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
@@ -7506,29 +7533,29 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="s">
-        <v>428</v>
+      <c r="A104" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I104" s="37">
         <v>0</v>
@@ -7536,29 +7563,29 @@
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
-        <v>428</v>
+      <c r="A105" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
@@ -7566,29 +7593,29 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="s">
-        <v>428</v>
+      <c r="A106" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I106" s="37">
         <v>0</v>
@@ -7596,29 +7623,29 @@
       <c r="J106"/>
     </row>
     <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="56" t="s">
-        <v>428</v>
+      <c r="A107" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D107" s="38">
         <v>4.5</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F107" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="G107" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G107" s="39" t="s">
-        <v>485</v>
-      </c>
       <c r="H107" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I107" s="37">
         <v>0</v>
@@ -7626,29 +7653,29 @@
       <c r="J107"/>
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="56" t="s">
-        <v>428</v>
+      <c r="A108" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I108" s="37">
         <v>0</v>
@@ -7656,88 +7683,88 @@
       <c r="J108"/>
     </row>
     <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="56" t="s">
-        <v>428</v>
+      <c r="A109" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D109" s="38">
         <v>4.5</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I109" s="37">
         <v>0</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="89" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="B110" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="C110" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="66">
+    <row r="110" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B110" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="63">
         <v>4.5</v>
       </c>
-      <c r="E110" s="63" t="s">
-        <v>293</v>
+      <c r="E110" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="H110" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="I110" s="63">
+        <v>471</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="I110" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
-        <v>428</v>
+      <c r="A111" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I111" s="37">
         <v>0</v>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50540E0B-4745-1F41-ADA2-BD023C7D6CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE4B42-73B8-A040-8258-8A531D71F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14640" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -1229,12 +1229,6 @@
     <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
   </si>
   <si>
-    <t>ECE_CORE</t>
-  </si>
-  <si>
-    <t>["ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ES_3011", "ECE_2029", "ECE_2049", "ECE_3829", "ECE_4801"]</t>
-  </si>
-  <si>
     <t>ECE_MATH_CORE</t>
   </si>
   <si>
@@ -1256,9 +1250,6 @@
     <t>ECE Electives</t>
   </si>
   <si>
-    <t>["ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ES_3011", "ECE_2029", "ECE_2049", "ECE_3829", "ECE_4801", "BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2311", "ECE_2799", "ECE_3501", "ECE_4902"]</t>
-  </si>
-  <si>
     <t>["ECE_ELECTIVES"]</t>
   </si>
   <si>
@@ -1587,6 +1578,15 @@
   </si>
   <si>
     <t>['ES_3001', 'ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT',  'CE_DEPT',  'ECE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT', 'ECE_2010']</t>
+  </si>
+  <si>
+    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2029", "ECE_2049", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2311", "ECE_2312", "ECE_2799", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_3501", "ECE_3829", "ECE_3849", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4801", "ECE_4902", "ECE_4904", "ES_3011"]</t>
+  </si>
+  <si>
+    <t>ECE_ELEC_ENG</t>
+  </si>
+  <si>
+    <t>["ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ECE_4904", "ES_3011"]</t>
   </si>
 </sst>
 </file>
@@ -2652,8 +2652,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A76" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2884,7 +2884,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,7 +3482,7 @@
         <v>129</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
         <v>132</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>137</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,13 +3581,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,7 +3658,7 @@
         <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3675,10 +3675,10 @@
         <v>153</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>205</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>205</v>
       </c>
@@ -4032,16 +4032,16 @@
         <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>405</v>
+        <v>513</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -4050,7 +4050,7 @@
         <v>205</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4059,7 +4059,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
@@ -4067,16 +4067,16 @@
         <v>205</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>102</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -4150,12 +4150,12 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>107</v>
@@ -4167,12 +4167,12 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>109</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>112</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>115</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>117</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>122</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>125</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>128</v>
@@ -4301,29 +4301,29 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>209</v>
@@ -4335,7 +4335,7 @@
         <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4351,8 +4351,8 @@
   </sheetPr>
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4514,10 +4514,10 @@
         <v>230</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>244</v>
@@ -4578,10 +4578,10 @@
         <v>230</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>244</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4610,10 +4610,10 @@
         <v>230</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>244</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4642,10 +4642,10 @@
         <v>230</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>244</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>229</v>
@@ -4674,10 +4674,10 @@
         <v>285</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>233</v>
@@ -4694,7 +4694,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>312</v>
@@ -4706,10 +4706,10 @@
         <v>285</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>233</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>312</v>
@@ -4738,10 +4738,10 @@
         <v>285</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>233</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5122,7 +5122,7 @@
         <v>285</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>286</v>
@@ -5154,7 +5154,7 @@
         <v>230</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>289</v>
@@ -5186,7 +5186,7 @@
         <v>230</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>289</v>
@@ -5221,7 +5221,7 @@
         <v>387</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>244</v>
@@ -5316,7 +5316,7 @@
         <v>285</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>303</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,7 +5349,7 @@
         <v>285</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>303</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5413,7 +5413,7 @@
         <v>285</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>309</v>
@@ -5433,7 +5433,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>243</v>
@@ -5445,10 +5445,10 @@
         <v>285</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>244</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>243</v>
@@ -5717,10 +5717,10 @@
         <v>285</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>244</v>
@@ -5734,7 +5734,7 @@
         <v>205</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>243</v>
@@ -5746,10 +5746,10 @@
         <v>285</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>244</v>
@@ -5758,12 +5758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>396</v>
+        <v>514</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>243</v>
@@ -5775,10 +5775,10 @@
         <v>285</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>244</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="68" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A68" s="89" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B68" s="42" t="s">
         <v>284</v>
@@ -6457,10 +6457,10 @@
         <v>285</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H68" s="42" t="s">
         <v>244</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B69" s="37" t="s">
         <v>288</v>
@@ -6489,10 +6489,10 @@
         <v>230</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H69" s="37" t="s">
         <v>244</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B70" s="37" t="s">
         <v>291</v>
@@ -6521,10 +6521,10 @@
         <v>230</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H70" s="37" t="s">
         <v>244</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>120</v>
@@ -6556,7 +6556,7 @@
         <v>387</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H71" s="28" t="s">
         <v>244</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B72" s="37" t="s">
         <v>293</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>298</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B74" s="37" t="s">
         <v>334</v>
@@ -6654,7 +6654,7 @@
         <v>335</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H74" s="37" t="s">
         <v>244</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B75" s="37" t="s">
         <v>337</v>
@@ -6683,7 +6683,7 @@
         <v>338</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H75" s="37" t="s">
         <v>244</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>339</v>
@@ -6712,7 +6712,7 @@
         <v>340</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>244</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B77" s="37" t="s">
         <v>341</v>
@@ -6741,7 +6741,7 @@
         <v>342</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H77" s="37" t="s">
         <v>244</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>312</v>
@@ -6767,10 +6767,10 @@
         <v>285</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H78" s="37" t="s">
         <v>233</v>
@@ -6782,10 +6782,10 @@
     </row>
     <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>312</v>
@@ -6797,10 +6797,10 @@
         <v>285</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>233</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>312</v>
@@ -6827,10 +6827,10 @@
         <v>285</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H80" s="37" t="s">
         <v>233</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>312</v>
@@ -6857,10 +6857,10 @@
         <v>285</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H81" s="37" t="s">
         <v>233</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>312</v>
@@ -6887,10 +6887,10 @@
         <v>285</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H82" s="37" t="s">
         <v>233</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>343</v>
@@ -6920,7 +6920,7 @@
         <v>344</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H83" s="37" t="s">
         <v>233</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B84" s="37" t="s">
         <v>346</v>
@@ -6950,7 +6950,7 @@
         <v>347</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>233</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B85" s="37" t="s">
         <v>348</v>
@@ -6980,7 +6980,7 @@
         <v>349</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H85" s="37" t="s">
         <v>233</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B86" s="37" t="s">
         <v>350</v>
@@ -7010,7 +7010,7 @@
         <v>351</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>233</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B87" s="37" t="s">
         <v>352</v>
@@ -7040,7 +7040,7 @@
         <v>353</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>233</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B88" s="37" t="s">
         <v>354</v>
@@ -7070,7 +7070,7 @@
         <v>355</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>233</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B89" s="37" t="s">
         <v>356</v>
@@ -7100,7 +7100,7 @@
         <v>357</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>233</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B90" s="37" t="s">
         <v>358</v>
@@ -7130,7 +7130,7 @@
         <v>359</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H90" s="37" t="s">
         <v>233</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B91" s="37" t="s">
         <v>360</v>
@@ -7160,7 +7160,7 @@
         <v>361</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H91" s="37" t="s">
         <v>233</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>312</v>
@@ -7187,10 +7187,10 @@
         <v>285</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>233</v>
@@ -7202,10 +7202,10 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>312</v>
@@ -7217,10 +7217,10 @@
         <v>285</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>233</v>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>312</v>
@@ -7247,10 +7247,10 @@
         <v>285</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>233</v>
@@ -7262,10 +7262,10 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>312</v>
@@ -7277,10 +7277,10 @@
         <v>285</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H95" s="37" t="s">
         <v>233</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>312</v>
@@ -7307,10 +7307,10 @@
         <v>285</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>233</v>
@@ -7319,12 +7319,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B97" s="37" t="s">
         <v>362</v>
@@ -7342,7 +7342,7 @@
         <v>363</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H97" s="37" t="s">
         <v>233</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B98" t="s">
         <v>364</v>
@@ -7372,7 +7372,7 @@
         <v>365</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H98" t="s">
         <v>233</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>312</v>
@@ -7399,10 +7399,10 @@
         <v>285</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H99" s="37" t="s">
         <v>233</v>
@@ -7414,10 +7414,10 @@
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>312</v>
@@ -7429,10 +7429,10 @@
         <v>285</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H100" s="37" t="s">
         <v>233</v>
@@ -7444,10 +7444,10 @@
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>312</v>
@@ -7459,10 +7459,10 @@
         <v>285</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H101" s="37" t="s">
         <v>233</v>
@@ -7474,10 +7474,10 @@
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>312</v>
@@ -7489,10 +7489,10 @@
         <v>285</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H102" s="37" t="s">
         <v>233</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>312</v>
@@ -7519,10 +7519,10 @@
         <v>285</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H103" s="37" t="s">
         <v>233</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C104" s="37" t="s">
         <v>312</v>
@@ -7549,10 +7549,10 @@
         <v>285</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H104" s="37" t="s">
         <v>233</v>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C105" s="37" t="s">
         <v>312</v>
@@ -7579,10 +7579,10 @@
         <v>285</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H105" s="37" t="s">
         <v>233</v>
@@ -7594,10 +7594,10 @@
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>312</v>
@@ -7609,10 +7609,10 @@
         <v>285</v>
       </c>
       <c r="F106" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="G106" s="39" t="s">
         <v>468</v>
-      </c>
-      <c r="G106" s="39" t="s">
-        <v>471</v>
       </c>
       <c r="H106" s="37" t="s">
         <v>233</v>
@@ -7624,10 +7624,10 @@
     </row>
     <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>312</v>
@@ -7639,10 +7639,10 @@
         <v>285</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H107" s="37" t="s">
         <v>233</v>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>312</v>
@@ -7669,10 +7669,10 @@
         <v>285</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H108" s="37" t="s">
         <v>233</v>
@@ -7684,10 +7684,10 @@
     </row>
     <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>312</v>
@@ -7699,10 +7699,10 @@
         <v>285</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H109" s="37" t="s">
         <v>233</v>
@@ -7714,10 +7714,10 @@
     </row>
     <row r="110" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C110" s="60" t="s">
         <v>312</v>
@@ -7729,10 +7729,10 @@
         <v>285</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H110" s="60" t="s">
         <v>233</v>
@@ -7743,10 +7743,10 @@
     </row>
     <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C111" s="37" t="s">
         <v>229</v>
@@ -7758,10 +7758,10 @@
         <v>230</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H111" s="37" t="s">
         <v>233</v>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE4B42-73B8-A040-8258-8A531D71F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294F4C1-7245-9446-A6E0-A0E449222A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14640" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24980" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="526">
   <si>
     <t>Program Key</t>
   </si>
@@ -689,15 +689,6 @@
     <t>the electives range from 3-9 depending on thesis vs capstone; AND it just says at the 500 level or above in Science, Engineering, or Business (THATS SO VAGUE?!?) (like what do I do with that?)</t>
   </si>
   <si>
-    <t>CS_MS</t>
-  </si>
-  <si>
-    <t>CS_MS_TOTAL CREDITS</t>
-  </si>
-  <si>
-    <t>["BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_537", "CS_578", "ECE_578", "CS_582", "BCB_502", "CS_583", "BCB_503", "CS_584", "CS_585", "DS_504", "CS_587", "ECE_588", "CS_588", "CS_598", "CS_599", "CS_673", "ECE_673", "SEME_565", "CS_565", "SEME_567", "CS_567", "SEME_568", "CS_568"]</t>
-  </si>
-  <si>
     <t>Also says can take 2 classes outside of CS with advisor approval, but choosing to ignore that for simplicity</t>
   </si>
   <si>
@@ -1587,6 +1578,45 @@
   </si>
   <si>
     <t>["ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ECE_4904", "ES_3011"]</t>
+  </si>
+  <si>
+    <t>CS_THESIS_CAP</t>
+  </si>
+  <si>
+    <t>["CS_599"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory  </t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either systems or networks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th breadth course </t>
+  </si>
+  <si>
+    <t>CS_MASTER</t>
+  </si>
+  <si>
+    <t>["CS_509", "CS_546", "CS_562", "CS_536", "CS_544", "CS_543", "CS_545", "ECE_545", "RBE_549", "CS_549", "CS_563", "CS_573", "CS_534", "CS_538", "CS_539", "CS_540", "DS_541", "CS_541", "DS_547", "CS_547", "CS_548", "CS_566", "SEME_566", "CS_542", "CS_561", "CS_585", "DS_503", "CS_586", "DS_504", "CS_557", "CS_558", "CS_564", "CS_571", "CS_578", "ECE_578", "CS_673", "ECE_673", "RBE_526", "CS_526", "SEME_565", "CS_565", "SEME_567", "CS_567", "SEME_568", "CS_568", "CS_582", "BCB_502", "CS_583", "BCB_503"]</t>
+  </si>
+  <si>
+    <t>["BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_537", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_587", "ECE_588", "CS_588", "CS_598", "CS_599", "CS_673", "ECE_673", "CS_5003", "CS_5007", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "SEME_565", "CS_565", "SEME_566", "CS_566", "SEME_567", "CS_567", "SEME_568", "CS_568"]</t>
+  </si>
+  <si>
+    <t>CS_MS_TOTAL_CREDITS</t>
+  </si>
+  <si>
+    <t>CS_THESIS_DISP_CAP</t>
+  </si>
+  <si>
+    <t>trying to force output to display thesis</t>
+  </si>
+  <si>
+    <t>["CS_5007", "CS_5008", "CS_598"]</t>
   </si>
 </sst>
 </file>
@@ -2652,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A80" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2664,7 +2694,8 @@
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
-    <col min="7" max="15" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
+    <col min="8" max="15" width="8.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2884,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2935,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3331,7 +3362,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,7 +3379,7 @@
         <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,7 +3513,7 @@
         <v>129</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3547,7 @@
         <v>132</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,7 +3581,7 @@
         <v>137</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,7 +3598,7 @@
         <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,13 +3612,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,7 +3652,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,7 +3689,7 @@
         <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3675,10 +3706,10 @@
         <v>153</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3981,7 +4012,7 @@
         <v>205</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
@@ -3990,7 +4021,7 @@
         <v>162</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,16 +4029,16 @@
         <v>205</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -4015,16 +4046,16 @@
         <v>205</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -4032,16 +4063,16 @@
         <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -4050,7 +4081,7 @@
         <v>205</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4059,7 +4090,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
@@ -4067,16 +4098,16 @@
         <v>205</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
@@ -4101,10 +4132,10 @@
     </row>
     <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="81" t="s">
-        <v>216</v>
+        <v>519</v>
       </c>
       <c r="B81" s="82" t="s">
-        <v>217</v>
+        <v>522</v>
       </c>
       <c r="C81" s="83">
         <v>45</v>
@@ -4113,15 +4144,18 @@
         <v>210</v>
       </c>
       <c r="E81" s="82" t="s">
-        <v>218</v>
+        <v>521</v>
       </c>
       <c r="F81" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>102</v>
@@ -4138,7 +4172,7 @@
     </row>
     <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -4150,12 +4184,12 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>107</v>
@@ -4167,12 +4201,12 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>109</v>
@@ -4192,7 +4226,7 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>112</v>
@@ -4212,7 +4246,7 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>115</v>
@@ -4232,7 +4266,7 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>117</v>
@@ -4252,7 +4286,7 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>122</v>
@@ -4272,7 +4306,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>125</v>
@@ -4289,7 +4323,7 @@
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>128</v>
@@ -4301,29 +4335,29 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>209</v>
@@ -4335,7 +4369,7 @@
         <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -4349,10 +4383,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4374,31 +4408,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="I1" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="J1" s="67" t="s">
         <v>224</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4406,31 +4440,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" s="62">
         <v>3</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="I2" s="68">
+        <v>0</v>
+      </c>
+      <c r="J2" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,31 +4472,31 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>233</v>
-      </c>
       <c r="I3" s="37">
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4470,31 +4504,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I4" s="68">
         <v>0</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -4502,31 +4536,31 @@
         <v>33</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D5" s="62">
         <v>15</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I5" s="59">
         <v>0</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4534,22 +4568,22 @@
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4558,7 +4592,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4569,28 +4603,28 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4601,28 +4635,28 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4633,28 +4667,28 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4662,31 +4696,31 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="91">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4694,31 +4728,31 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D11" s="91">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4726,31 +4760,31 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D12" s="91">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,31 +4792,31 @@
         <v>33</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D13" s="63">
         <v>3</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I13" s="60">
         <v>0</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4790,31 +4824,31 @@
         <v>52</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D14" s="62">
         <v>3</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>166</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I14" s="59">
         <v>0</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4822,31 +4856,31 @@
         <v>52</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" s="38">
         <v>3</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>163</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68" t="s">
         <v>256</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4854,31 +4888,31 @@
         <v>52</v>
       </c>
       <c r="B16" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="59" t="s">
         <v>260</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,31 +4920,31 @@
         <v>52</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D17" s="38">
         <v>0</v>
       </c>
       <c r="E17" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="I17" s="37">
         <v>0</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
@@ -4918,22 +4952,22 @@
         <v>90</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D18" s="62">
         <v>9</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H18" s="59">
         <v>2</v>
@@ -4942,7 +4976,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4950,31 +4984,31 @@
         <v>90</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D19" s="38">
         <v>12</v>
       </c>
       <c r="E19" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="I19" s="37">
         <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4982,31 +5016,31 @@
         <v>90</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D20" s="38">
         <v>12</v>
       </c>
       <c r="E20" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="I20" s="37">
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5014,31 +5048,31 @@
         <v>90</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D21" s="38">
         <v>12</v>
       </c>
       <c r="E21" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="I21" s="37">
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5046,31 +5080,31 @@
         <v>90</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D22" s="38">
         <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="I22" s="37">
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5078,31 +5112,31 @@
         <v>90</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D23" s="47">
         <v>3</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I23" s="46">
         <v>0</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="51" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5110,31 +5144,31 @@
         <v>101</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D24" s="64">
         <v>12</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I24" s="42">
         <v>0</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5142,31 +5176,31 @@
         <v>101</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D25" s="38">
         <v>3</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I25" s="37">
         <v>0</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5174,31 +5208,31 @@
         <v>101</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G26" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37" t="s">
         <v>289</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5209,22 +5243,22 @@
         <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D27" s="26">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I27" s="26">
         <v>0</v>
@@ -5238,31 +5272,31 @@
         <v>101</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D28" s="38">
         <v>3</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I28" s="39">
         <v>0</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5270,22 +5304,22 @@
         <v>101</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D29" s="47">
         <v>3</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>IF(C29="AT LEAST", "1a", "1b")</f>
@@ -5296,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5304,22 +5338,22 @@
         <v>130</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D30" s="38">
         <v>3</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H30" s="42" t="str">
         <f>IF(C30="AT LEAST", "1a", "1b")</f>
@@ -5329,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5337,31 +5371,31 @@
         <v>130</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I31" s="37">
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5369,31 +5403,31 @@
         <v>130</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D32" s="38">
         <v>9</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I32" s="37">
         <v>0</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5401,31 +5435,31 @@
         <v>130</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D33" s="44">
         <v>6</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I33" s="37">
         <v>0</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5433,31 +5467,31 @@
         <v>130</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5465,31 +5499,31 @@
         <v>130</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="H35" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5497,25 +5531,25 @@
         <v>154</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D36" s="62">
         <v>3</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F36" s="92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I36" s="59">
         <v>0</v>
@@ -5527,25 +5561,25 @@
         <v>154</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D37" s="38">
         <v>0</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I37" s="37">
         <v>0</v>
@@ -5556,31 +5590,31 @@
         <v>154</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D38" s="38">
         <v>27</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F38" s="72" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I38" s="37">
         <v>0</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5588,25 +5622,25 @@
         <v>154</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D39" s="38">
         <v>1.5</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I39" s="37">
         <v>0</v>
@@ -5617,25 +5651,25 @@
         <v>154</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D40" s="38">
         <v>3</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I40" s="37">
         <v>0</v>
@@ -5646,25 +5680,25 @@
         <v>154</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D41" s="38">
         <v>3</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>181</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I41" s="37">
         <v>0</v>
@@ -5675,25 +5709,25 @@
         <v>154</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D42" s="47">
         <v>3</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I42" s="46">
         <v>0</v>
@@ -5705,25 +5739,25 @@
         <v>205</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D43" s="38">
         <v>12</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I43" s="37">
         <v>0</v>
@@ -5734,25 +5768,25 @@
         <v>205</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D44" s="38">
         <v>6</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F44" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="G44" s="39" t="s">
-        <v>403</v>
-      </c>
       <c r="H44" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I44" s="37">
         <v>0</v>
@@ -5763,25 +5797,25 @@
         <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D45" s="38">
         <v>9</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I45" s="37">
         <v>0</v>
@@ -5792,25 +5826,25 @@
         <v>208</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D46" s="62">
         <v>4.5</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H46" s="59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I46" s="59">
         <v>0</v>
@@ -5822,25 +5856,25 @@
         <v>208</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D47" s="38">
         <v>4.5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I47" s="37">
         <v>0</v>
@@ -5851,25 +5885,25 @@
         <v>208</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D48" s="38">
         <v>4.5</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I48" s="37">
         <v>0</v>
@@ -5880,25 +5914,25 @@
         <v>208</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D49" s="38">
         <v>4.5</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I49" s="37">
         <v>0</v>
@@ -5909,25 +5943,25 @@
         <v>208</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
@@ -5939,25 +5973,25 @@
         <v>208</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
@@ -5968,25 +6002,25 @@
         <v>208</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
@@ -5997,25 +6031,25 @@
         <v>208</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I53" s="26">
         <v>0</v>
@@ -6026,25 +6060,25 @@
         <v>208</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I54" s="26">
         <v>0</v>
@@ -6055,25 +6089,25 @@
         <v>208</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I55" s="26">
         <v>0</v>
@@ -6084,25 +6118,25 @@
         <v>208</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I56" s="26">
         <v>0</v>
@@ -6113,25 +6147,25 @@
         <v>208</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D57" s="27">
         <v>4.5</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I57" s="26">
         <v>0</v>
@@ -6142,25 +6176,25 @@
         <v>208</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D58" s="27">
         <v>4.5</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I58" s="26">
         <v>0</v>
@@ -6171,25 +6205,25 @@
         <v>208</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D59" s="27">
         <v>4.5</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I59" s="26">
         <v>0</v>
@@ -6200,25 +6234,25 @@
         <v>208</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D60" s="87">
         <v>4.5</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G60" s="88" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I60" s="88">
         <v>0</v>
@@ -6230,31 +6264,31 @@
         <v>212</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D61" s="5">
         <v>13.5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -6262,31 +6296,31 @@
         <v>212</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D62" s="5">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -6294,546 +6328,559 @@
         <v>212</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D63" s="34">
         <v>4.5</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I63" s="32">
         <v>0</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>216</v>
+        <v>519</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D64" s="69">
         <v>4.5</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>216</v>
+        <v>519</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D65" s="38">
         <v>4.5</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I65" s="37">
         <v>0</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>519</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D66" s="70">
         <v>4.5</v>
       </c>
       <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="70">
+        <v>13.5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="70">
+        <v>13.5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="85" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A69" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="E69" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="I69" s="60">
+        <v>0</v>
+      </c>
+      <c r="J69" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="G66" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H66" t="s">
-        <v>244</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="85" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A67" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="D67" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="E67" s="60" t="s">
+    </row>
+    <row r="70" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A70" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="64">
+        <v>12</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="I70" s="42">
+        <v>0</v>
+      </c>
+      <c r="J70" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="F67" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="I67" s="60">
-        <v>0</v>
-      </c>
-      <c r="J67" s="60" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A68" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="64">
-        <v>12</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="42">
-        <v>0</v>
-      </c>
-      <c r="J68" s="42" t="s">
+      <c r="C71" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="38">
+        <v>3</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I71" s="37">
+        <v>0</v>
+      </c>
+      <c r="J71" s="39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B69" s="37" t="s">
+    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B72" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="38">
-        <v>3</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I69" s="37">
-        <v>0</v>
-      </c>
-      <c r="J69" s="39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="38">
-        <v>3</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I70" s="37">
-        <v>0</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" s="26">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="I71" s="26">
-        <v>0</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>294</v>
+      <c r="C72" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="D72" s="38">
         <v>3</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>285</v>
+      <c r="E72" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="F72" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="37">
+        <v>0</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="26">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="I73" s="26">
+        <v>0</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="38">
+        <v>3</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I74" s="39">
+        <v>0</v>
+      </c>
+      <c r="J74" s="39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="39" t="s">
+      <c r="C75" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="27">
+        <v>3</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H72" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="I72" s="39">
-        <v>0</v>
-      </c>
-      <c r="J72" s="39" t="s">
+      <c r="G75" s="90" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B73" s="26" t="s">
+      <c r="H75" s="26" t="str">
+        <f>IF(C75="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I75" s="26">
+        <f>IF(H75=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
         <v>298</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="27">
-        <v>3</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G73" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="H73" s="26" t="str">
-        <f>IF(C73="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I73" s="26">
-        <f>IF(H73=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I74" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="I75" s="37">
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D76" s="38">
         <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D77" s="38">
         <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D78" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
       </c>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D79" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
       </c>
-      <c r="J79"/>
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D80" s="38">
         <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
@@ -6842,28 +6889,28 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D81" s="38">
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
@@ -6872,28 +6919,28 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
@@ -6902,28 +6949,28 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D83" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I83" s="37">
         <v>0</v>
@@ -6932,28 +6979,28 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D84" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I84" s="37">
         <v>0</v>
@@ -6962,28 +7009,28 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
@@ -6992,28 +7039,28 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
@@ -7022,28 +7069,28 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
@@ -7052,28 +7099,28 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
@@ -7082,28 +7129,28 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
@@ -7112,28 +7159,28 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
@@ -7142,28 +7189,28 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
@@ -7172,28 +7219,28 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I92" s="37">
         <v>0</v>
@@ -7202,28 +7249,28 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
@@ -7232,28 +7279,28 @@
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
@@ -7262,28 +7309,28 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D95" s="38">
         <v>4.5</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I95" s="37">
         <v>0</v>
@@ -7292,60 +7339,58 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>438</v>
-      </c>
+      <c r="J96"/>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
@@ -7353,59 +7398,61 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>411</v>
-      </c>
-      <c r="B98" t="s">
-        <v>364</v>
-      </c>
-      <c r="C98" t="s">
-        <v>312</v>
-      </c>
-      <c r="D98" s="70">
+      <c r="A98" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="38">
         <v>4.5</v>
       </c>
-      <c r="E98" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>365</v>
+      <c r="E98" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H98" t="s">
-        <v>233</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98"/>
+        <v>465</v>
+      </c>
+      <c r="H98" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98" s="37">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
-        <v>411</v>
+      <c r="A99" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
@@ -7413,59 +7460,59 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" s="38">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="70">
         <v>4.5</v>
       </c>
-      <c r="E100" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F100" s="39" t="s">
-        <v>444</v>
+      <c r="E100" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H100" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I100" s="37">
+        <v>465</v>
+      </c>
+      <c r="H100" t="s">
+        <v>230</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
@@ -7474,28 +7521,28 @@
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I102" s="37">
         <v>0</v>
@@ -7504,28 +7551,28 @@
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
@@ -7534,28 +7581,28 @@
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I104" s="37">
         <v>0</v>
@@ -7564,28 +7611,28 @@
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
@@ -7594,28 +7641,28 @@
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F106" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G106" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="G106" s="39" t="s">
-        <v>468</v>
-      </c>
       <c r="H106" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I106" s="37">
         <v>0</v>
@@ -7624,28 +7671,28 @@
     </row>
     <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D107" s="38">
         <v>4.5</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I107" s="37">
         <v>0</v>
@@ -7654,28 +7701,28 @@
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I108" s="37">
         <v>0</v>
@@ -7684,157 +7731,217 @@
     </row>
     <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D109" s="38">
         <v>4.5</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I109" s="37">
         <v>0</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" s="63">
+    <row r="110" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="38">
         <v>4.5</v>
       </c>
-      <c r="E110" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>460</v>
+      <c r="E110" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" s="39" t="s">
+        <v>453</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="I110" s="60">
-        <v>0</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="H110" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I110" s="37">
+        <v>0</v>
+      </c>
+      <c r="J110"/>
     </row>
     <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G111" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="H111" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F111" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="G111" s="39" t="s">
+      <c r="I111" s="37">
+        <v>0</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I112" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="H111" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I111" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="38"/>
-    </row>
-    <row r="114" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="3:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J143" s="46"/>
-    </row>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C113" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="G113" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="H113" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I113" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="38"/>
+    </row>
+    <row r="116" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="46"/>
+    </row>
+    <row r="146" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="10:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE4B42-73B8-A040-8258-8A531D71F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ECCE4B42-73B8-A040-8258-8A531D71F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8884EDD9-8CD0-442B-9CB8-859F83ED5235}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14640" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -1361,9 +1361,6 @@
     <t>["CS_1004", "CS_1101", "CS_1102", "CS_2102", "CS_2103", "CS_2301", "CS_2303", "CS_2119", "CS_3041", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4804", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504"]</t>
   </si>
   <si>
-    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
-  </si>
-  <si>
     <t>UGG_REST_AI</t>
   </si>
   <si>
@@ -1587,6 +1584,9 @@
   </si>
   <si>
     <t>["ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ECE_4904", "ES_3011"]</t>
+  </si>
+  <si>
+    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501", "CS_568", "SEME_568"]</t>
   </si>
 </sst>
 </file>
@@ -2652,14 +2652,14 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A92" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
@@ -2668,7 +2668,7 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="320" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2884,10 +2884,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -2935,10 +2935,10 @@
         <v>46</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>33</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>90</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
     </row>
-    <row r="34" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>90</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>90</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -3331,10 +3331,10 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>101</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>101</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>101</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="H41" s="28"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>101</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>101</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>101</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>208</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="71" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="71" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>130</v>
       </c>
@@ -3516,10 +3516,10 @@
         <v>132</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>130</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -3550,10 +3550,10 @@
         <v>137</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -3567,10 +3567,10 @@
         <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>130</v>
       </c>
@@ -3581,16 +3581,16 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -3621,10 +3621,10 @@
         <v>145</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
@@ -3658,10 +3658,10 @@
         <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>130</v>
       </c>
@@ -3675,13 +3675,13 @@
         <v>153</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>154</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>154</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>154</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>154</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>154</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>154</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>154</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>154</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>154</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>154</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>205</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="181.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>205</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>205</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>205</v>
       </c>
@@ -4041,11 +4041,11 @@
         <v>402</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>205</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="32" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>212</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="81" t="s">
         <v>216</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>411</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>411</v>
       </c>
@@ -4150,10 +4150,10 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>411</v>
       </c>
@@ -4167,10 +4167,10 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>411</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="H85" s="28"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>411</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="H86" s="28"/>
       <c r="I86" s="26"/>
     </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>411</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="H87" s="28"/>
       <c r="I87" s="26"/>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>411</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>411</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>411</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="32" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>411</v>
       </c>
@@ -4301,10 +4301,10 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>411</v>
       </c>
@@ -4318,10 +4318,10 @@
         <v>414</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>411</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4351,25 +4351,25 @@
   </sheetPr>
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="40" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
     <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>33</v>
       </c>
@@ -4514,10 +4514,10 @@
         <v>230</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>244</v>
@@ -4529,7 +4529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -4578,10 +4578,10 @@
         <v>230</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>244</v>
@@ -4590,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
@@ -4610,10 +4610,10 @@
         <v>230</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>244</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -4642,10 +4642,10 @@
         <v>230</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>244</v>
@@ -4654,15 +4654,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>229</v>
@@ -4674,10 +4674,10 @@
         <v>285</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>233</v>
@@ -4689,12 +4689,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>312</v>
@@ -4706,10 +4706,10 @@
         <v>285</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>233</v>
@@ -4718,15 +4718,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>312</v>
@@ -4738,10 +4738,10 @@
         <v>285</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>233</v>
@@ -4750,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>33</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>52</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>52</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>52</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>52</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>90</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>90</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="54" t="s">
         <v>90</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
         <v>90</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
         <v>90</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>90</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>101</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>285</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>286</v>
@@ -5137,7 +5137,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
         <v>101</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="54" t="s">
         <v>101</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>101</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>101</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
         <v>130</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>285</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>303</v>
@@ -5329,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
         <v>130</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>285</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>303</v>
@@ -5361,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="54" t="s">
         <v>130</v>
       </c>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>130</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>285</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>309</v>
@@ -5428,12 +5428,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>243</v>
@@ -5445,10 +5445,10 @@
         <v>285</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>244</v>
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>130</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
         <v>154</v>
       </c>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="J36" s="59"/>
     </row>
-    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>154</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
         <v>154</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="54" t="s">
         <v>154</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
         <v>154</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>154</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="57" t="s">
         <v>154</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="J42" s="46"/>
     </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>205</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>205</v>
       </c>
@@ -5758,12 +5758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>243</v>
@@ -5775,7 +5775,7 @@
         <v>285</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>403</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59" t="s">
         <v>208</v>
       </c>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="J46" s="59"/>
     </row>
-    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>208</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>208</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>208</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>208</v>
       </c>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>208</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>208</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>208</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>208</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>208</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>208</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>208</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>208</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>208</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
         <v>208</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="J60" s="60"/>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>212</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>212</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>216</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="54" t="s">
         <v>216</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="85" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="85" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>216</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="51" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A68" s="89" t="s">
         <v>411</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>285</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G68" s="50" t="s">
         <v>415</v>
@@ -6472,7 +6472,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>411</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>411</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>411</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>411</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>411</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>411</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>335</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H74" s="37" t="s">
         <v>244</v>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>411</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>338</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H75" s="37" t="s">
         <v>244</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>411</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>340</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>244</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>411</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>342</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H77" s="37" t="s">
         <v>244</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
         <v>411</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>419</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H78" s="37" t="s">
         <v>233</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
         <v>411</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>421</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>233</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
         <v>411</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>423</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H80" s="37" t="s">
         <v>233</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>411</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>425</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H81" s="37" t="s">
         <v>233</v>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
         <v>411</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>427</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H82" s="37" t="s">
         <v>233</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>411</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>344</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H83" s="37" t="s">
         <v>233</v>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>411</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>347</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>233</v>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
         <v>411</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>349</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H85" s="37" t="s">
         <v>233</v>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
         <v>411</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>351</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>233</v>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
         <v>411</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>353</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>233</v>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
         <v>411</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>355</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>233</v>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
         <v>411</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>357</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>233</v>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
         <v>411</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>359</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H90" s="37" t="s">
         <v>233</v>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
         <v>411</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>361</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H91" s="37" t="s">
         <v>233</v>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
         <v>411</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>429</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>233</v>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
         <v>411</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>431</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>233</v>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
         <v>411</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>433</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>233</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
         <v>411</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>435</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H95" s="37" t="s">
         <v>233</v>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
         <v>411</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>437</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>233</v>
@@ -7322,7 +7322,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
         <v>411</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>363</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H97" s="37" t="s">
         <v>233</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>411</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>365</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H98" t="s">
         <v>233</v>
@@ -7382,12 +7382,12 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>312</v>
@@ -7399,10 +7399,10 @@
         <v>285</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H99" s="37" t="s">
         <v>233</v>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>312</v>
@@ -7429,10 +7429,10 @@
         <v>285</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H100" s="37" t="s">
         <v>233</v>
@@ -7442,12 +7442,12 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>312</v>
@@ -7459,10 +7459,10 @@
         <v>285</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H101" s="37" t="s">
         <v>233</v>
@@ -7472,12 +7472,12 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>312</v>
@@ -7489,10 +7489,10 @@
         <v>285</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H102" s="37" t="s">
         <v>233</v>
@@ -7502,12 +7502,12 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>312</v>
@@ -7519,10 +7519,10 @@
         <v>285</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H103" s="37" t="s">
         <v>233</v>
@@ -7532,12 +7532,12 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" s="37" t="s">
         <v>312</v>
@@ -7549,10 +7549,10 @@
         <v>285</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H104" s="37" t="s">
         <v>233</v>
@@ -7562,12 +7562,12 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C105" s="37" t="s">
         <v>312</v>
@@ -7579,10 +7579,10 @@
         <v>285</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H105" s="37" t="s">
         <v>233</v>
@@ -7592,12 +7592,12 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>312</v>
@@ -7609,10 +7609,10 @@
         <v>285</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H106" s="37" t="s">
         <v>233</v>
@@ -7622,12 +7622,12 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>312</v>
@@ -7639,10 +7639,10 @@
         <v>285</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H107" s="37" t="s">
         <v>233</v>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>312</v>
@@ -7669,10 +7669,10 @@
         <v>285</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H108" s="37" t="s">
         <v>233</v>
@@ -7682,12 +7682,12 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>312</v>
@@ -7699,10 +7699,10 @@
         <v>285</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H109" s="37" t="s">
         <v>233</v>
@@ -7712,12 +7712,12 @@
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="85" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>411</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C110" s="60" t="s">
         <v>312</v>
@@ -7729,10 +7729,10 @@
         <v>285</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H110" s="60" t="s">
         <v>233</v>
@@ -7741,12 +7741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="54" t="s">
         <v>411</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C111" s="37" t="s">
         <v>229</v>
@@ -7758,10 +7758,10 @@
         <v>230</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H111" s="37" t="s">
         <v>233</v>
@@ -7770,71 +7770,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="38"/>
     </row>
-    <row r="114" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="3:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="3:3" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="3:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="3:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="3:3" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="3:3" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="3:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="3:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="3:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="3:3" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="10:10" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J143" s="46"/>
     </row>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294F4C1-7245-9446-A6E0-A0E449222A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A7159-E847-F641-B090-E892A34964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24980" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24980" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -1352,9 +1352,6 @@
     <t>["CS_1004", "CS_1101", "CS_1102", "CS_2102", "CS_2103", "CS_2301", "CS_2303", "CS_2119", "CS_3041", "CS_3133", "CS_3431", "CS_3733", "CS_4120", "CS_4233", "CS_4241", "CS_4341", "CS_4342", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4804", "CS_534", "CS_539", "CS_542", "CS_548", "CS_528", "CS_582", "CS_583", "CS_561", "CS_585", "DS_503", "DS_541", "CS_541", "CS_586", "DS_504"]</t>
   </si>
   <si>
-    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
-  </si>
-  <si>
     <t>UGG_REST_AI</t>
   </si>
   <si>
@@ -1617,6 +1614,9 @@
   </si>
   <si>
     <t>["CS_5007", "CS_5008", "CS_598"]</t>
+  </si>
+  <si>
+    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
   </si>
 </sst>
 </file>
@@ -2381,9 +2381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2421,7 +2421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2527,7 +2527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2669,7 +2669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2682,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3362,7 +3362,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,7 +3547,7 @@
         <v>132</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,7 +3581,7 @@
         <v>137</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3612,13 +3612,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,10 +3706,10 @@
         <v>153</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>399</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B81" s="82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C81" s="83">
         <v>45</v>
@@ -4144,7 +4144,7 @@
         <v>210</v>
       </c>
       <c r="E81" s="82" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F81" s="81" t="s">
         <v>216</v>
@@ -4184,7 +4184,7 @@
         <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -4201,7 +4201,7 @@
         <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
         <v>411</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
         <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>437</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4385,8 +4385,8 @@
   </sheetPr>
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A48" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4548,10 +4548,10 @@
         <v>227</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>241</v>
@@ -4612,10 +4612,10 @@
         <v>227</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>241</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4644,10 +4644,10 @@
         <v>227</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>241</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4676,10 +4676,10 @@
         <v>227</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>241</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4696,7 +4696,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>226</v>
@@ -4708,10 +4708,10 @@
         <v>282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>230</v>
@@ -4728,7 +4728,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>309</v>
@@ -4740,10 +4740,10 @@
         <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>230</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>309</v>
@@ -4772,10 +4772,10 @@
         <v>282</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>230</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
         <v>282</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>283</v>
@@ -5350,7 +5350,7 @@
         <v>282</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>300</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>282</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>300</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>282</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>306</v>
@@ -5467,7 +5467,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>240</v>
@@ -5479,10 +5479,10 @@
         <v>282</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>241</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5797,7 +5797,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>240</v>
@@ -5809,7 +5809,7 @@
         <v>282</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>400</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>373</v>
@@ -6384,12 +6384,12 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>376</v>
@@ -6416,12 +6416,12 @@
         <v>0</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B66" t="s">
         <v>378</v>
@@ -6448,15 +6448,15 @@
         <v>0</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C67" t="s">
         <v>309</v>
@@ -6468,7 +6468,7 @@
         <v>282</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G67" s="39" t="s">
         <v>375</v>
@@ -6480,15 +6480,15 @@
         <v>0</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C68" t="s">
         <v>226</v>
@@ -6500,7 +6500,7 @@
         <v>282</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G68" s="39" t="s">
         <v>375</v>
@@ -6512,12 +6512,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="85" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A69" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B69" s="60" t="s">
         <v>380</v>
@@ -6532,7 +6532,7 @@
         <v>282</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>375</v>
@@ -6564,7 +6564,7 @@
         <v>282</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G70" s="50" t="s">
         <v>412</v>
@@ -6761,7 +6761,7 @@
         <v>332</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>241</v>
@@ -6790,7 +6790,7 @@
         <v>335</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H77" s="37" t="s">
         <v>241</v>
@@ -6819,7 +6819,7 @@
         <v>337</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H78" s="37" t="s">
         <v>241</v>
@@ -6848,7 +6848,7 @@
         <v>339</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H79" s="37" t="s">
         <v>241</v>
@@ -6877,7 +6877,7 @@
         <v>416</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H80" s="37" t="s">
         <v>230</v>
@@ -6907,7 +6907,7 @@
         <v>418</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H81" s="37" t="s">
         <v>230</v>
@@ -6937,7 +6937,7 @@
         <v>420</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H82" s="37" t="s">
         <v>230</v>
@@ -6967,7 +6967,7 @@
         <v>422</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H83" s="37" t="s">
         <v>230</v>
@@ -6997,7 +6997,7 @@
         <v>424</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>230</v>
@@ -7027,7 +7027,7 @@
         <v>341</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H85" s="37" t="s">
         <v>230</v>
@@ -7057,7 +7057,7 @@
         <v>344</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>230</v>
@@ -7087,7 +7087,7 @@
         <v>346</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>230</v>
@@ -7117,7 +7117,7 @@
         <v>348</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>230</v>
@@ -7147,7 +7147,7 @@
         <v>350</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>230</v>
@@ -7177,7 +7177,7 @@
         <v>352</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H90" s="37" t="s">
         <v>230</v>
@@ -7207,7 +7207,7 @@
         <v>354</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H91" s="37" t="s">
         <v>230</v>
@@ -7237,7 +7237,7 @@
         <v>356</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>230</v>
@@ -7267,7 +7267,7 @@
         <v>358</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>230</v>
@@ -7297,7 +7297,7 @@
         <v>426</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>230</v>
@@ -7327,7 +7327,7 @@
         <v>428</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H95" s="37" t="s">
         <v>230</v>
@@ -7357,7 +7357,7 @@
         <v>430</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>230</v>
@@ -7387,7 +7387,7 @@
         <v>432</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H97" s="37" t="s">
         <v>230</v>
@@ -7417,7 +7417,7 @@
         <v>434</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H98" s="37" t="s">
         <v>230</v>
@@ -7449,7 +7449,7 @@
         <v>360</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H99" s="37" t="s">
         <v>230</v>
@@ -7479,7 +7479,7 @@
         <v>362</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H100" t="s">
         <v>230</v>
@@ -7494,7 +7494,7 @@
         <v>408</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>309</v>
@@ -7506,10 +7506,10 @@
         <v>282</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H101" s="37" t="s">
         <v>230</v>
@@ -7524,7 +7524,7 @@
         <v>408</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>309</v>
@@ -7536,10 +7536,10 @@
         <v>282</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H102" s="37" t="s">
         <v>230</v>
@@ -7554,7 +7554,7 @@
         <v>408</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>309</v>
@@ -7566,10 +7566,10 @@
         <v>282</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H103" s="37" t="s">
         <v>230</v>
@@ -7584,7 +7584,7 @@
         <v>408</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C104" s="37" t="s">
         <v>309</v>
@@ -7596,10 +7596,10 @@
         <v>282</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H104" s="37" t="s">
         <v>230</v>
@@ -7614,7 +7614,7 @@
         <v>408</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C105" s="37" t="s">
         <v>309</v>
@@ -7626,10 +7626,10 @@
         <v>282</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H105" s="37" t="s">
         <v>230</v>
@@ -7644,7 +7644,7 @@
         <v>408</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>309</v>
@@ -7656,10 +7656,10 @@
         <v>282</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H106" s="37" t="s">
         <v>230</v>
@@ -7674,7 +7674,7 @@
         <v>408</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>309</v>
@@ -7686,10 +7686,10 @@
         <v>282</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H107" s="37" t="s">
         <v>230</v>
@@ -7704,7 +7704,7 @@
         <v>408</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>309</v>
@@ -7716,10 +7716,10 @@
         <v>282</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H108" s="37" t="s">
         <v>230</v>
@@ -7734,7 +7734,7 @@
         <v>408</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>309</v>
@@ -7746,10 +7746,10 @@
         <v>282</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H109" s="37" t="s">
         <v>230</v>
@@ -7764,7 +7764,7 @@
         <v>408</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C110" s="37" t="s">
         <v>309</v>
@@ -7776,10 +7776,10 @@
         <v>282</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H110" s="37" t="s">
         <v>230</v>
@@ -7794,7 +7794,7 @@
         <v>408</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C111" s="37" t="s">
         <v>309</v>
@@ -7806,10 +7806,10 @@
         <v>282</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H111" s="37" t="s">
         <v>230</v>
@@ -7824,7 +7824,7 @@
         <v>408</v>
       </c>
       <c r="B112" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C112" s="60" t="s">
         <v>309</v>
@@ -7836,10 +7836,10 @@
         <v>282</v>
       </c>
       <c r="F112" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>230</v>
@@ -7853,7 +7853,7 @@
         <v>408</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="37" t="s">
         <v>226</v>
@@ -7865,10 +7865,10 @@
         <v>227</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H113" s="37" t="s">
         <v>230</v>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A7159-E847-F641-B090-E892A34964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC30411-6DC8-D24B-AE17-5C950F4A9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24980" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="575">
   <si>
     <t>Program Key</t>
   </si>
@@ -183,16 +183,10 @@
     <t>CS_GEN_SCI</t>
   </si>
   <si>
-    <t>["PH_DEPT", "CH_DEPT", "BB_DEPT", "GE_DEPT"]</t>
-  </si>
-  <si>
     <t>CS_SCI_ENG</t>
   </si>
   <si>
     <t>Science/Engineering Electives</t>
-  </si>
-  <si>
-    <t>["BB_DEPT", "BME_DEPT", "CE_DEPT", "CH_DEPT", "CHE_DEPT", "ECE_DEPT", "ES_DEPT", "GE_DEPT", "ME_DEPT", "PH_DEPT", "RBE_DEPT"]</t>
   </si>
   <si>
     <t>OIE_MAJOR</t>
@@ -320,9 +314,6 @@
     <t>Humanities</t>
   </si>
   <si>
-    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
-  </si>
-  <si>
     <t>HUA_PROJ</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Social Science</t>
   </si>
   <si>
-    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313"]</t>
-  </si>
-  <si>
     <t>DS_MAJOR</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t xml:space="preserve">Mathematics </t>
   </si>
   <si>
-    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
-  </si>
-  <si>
     <t>ME_MABS</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>Other Courses - Programming</t>
   </si>
   <si>
-    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
-  </si>
-  <si>
     <t>ME_E</t>
   </si>
   <si>
@@ -521,9 +503,6 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>["BME_DEPT"]</t>
-  </si>
-  <si>
     <t>BME_P</t>
   </si>
   <si>
@@ -548,9 +527,6 @@
     <t>Supplementary Science</t>
   </si>
   <si>
-    <t>["BB_DEPT", "CH_DEPT", "PH_DEPT", "MA_DEPT", "CS_DEPT", "FY_DEPT"]</t>
-  </si>
-  <si>
     <t>BME_CP</t>
   </si>
   <si>
@@ -605,15 +581,9 @@
     <t>["BME_2211", "ME_3901"]</t>
   </si>
   <si>
-    <t>BME_2000_L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Engineering 2000+ </t>
   </si>
   <si>
-    <t>["BME_DEPT", "ES_DEPT_2000_L", "CE_DEPT_2000_L", "CHE_DEPT_2000_L", "ECE_DEPT_2000_L", "RBE_DEPT_2000_L", "ME_DEPT_2000_L", "ES_DEPT_3000_L", "CE_DEPT_3000_L", "CHE_DEPT_3000_L", "ECE_DEPT_3000_L", "RBE_DEPT_3000_L", "ME_DEPT_3000_L", "ES_DEPT_4000_L", "CE_DEPT_4000_L", "CHE_DEPT_4000_L", "ECE_DEPT_4000_L", "RBE_DEPT_4000_L", "ME_DEPT_4000_L"]</t>
-  </si>
-  <si>
     <t>BME_ED</t>
   </si>
   <si>
@@ -629,30 +599,12 @@
     <t>Labs</t>
   </si>
   <si>
-    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3605", "BME_3811", "BME_3813"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*these are 1/6 unit each though - how do we capture that? </t>
-  </si>
-  <si>
-    <t>BME_3000_L</t>
-  </si>
-  <si>
     <t>Engineering 3000+</t>
   </si>
   <si>
-    <t>["BME_DEPT", "ES_3???", "AE_3???", "AREN_3???", "CE_3???", "CHE_3???", "ECE_3???", "RBE_3???", "ME_3???"]</t>
-  </si>
-  <si>
-    <t>BME_4000_L</t>
-  </si>
-  <si>
     <t>BME 4000 depth</t>
   </si>
   <si>
-    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
-  </si>
-  <si>
     <t>*one can be grad level but one must be at 4000 level for some reason</t>
   </si>
   <si>
@@ -662,9 +614,6 @@
     <t>ECE_MATH</t>
   </si>
   <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
-  </si>
-  <si>
     <t>DS_MASTER</t>
   </si>
   <si>
@@ -776,9 +725,6 @@
     <t>ONE OF</t>
   </si>
   <si>
-    <t>[["PH_DEPT"], ["CH_DEPT"], ["BB_DEPT"], ["GE_DEPT"]]</t>
-  </si>
-  <si>
     <t>["CS_GEN_SCI"]</t>
   </si>
   <si>
@@ -788,9 +734,6 @@
     <t>CS_SOC_IMPS</t>
   </si>
   <si>
-    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "RBE_3100"]</t>
-  </si>
-  <si>
     <t>["CS_CORE", "SOC_SCI_REQ"]</t>
   </si>
   <si>
@@ -836,9 +779,6 @@
     <t>HUA_DEPTH</t>
   </si>
   <si>
-    <t>[["AR_DEPT", "TH_DEPT", "MUS_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
-  </si>
-  <si>
     <t>["HUA_CORE"]</t>
   </si>
   <si>
@@ -848,9 +788,6 @@
     <t>HUA_ART_MAX</t>
   </si>
   <si>
-    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT"]</t>
-  </si>
-  <si>
     <t>Breadth requirement</t>
   </si>
   <si>
@@ -965,45 +902,12 @@
     <t xml:space="preserve">currently not including the ES 3001 replacements because they cause things to move categories (like GOV for social imps) </t>
   </si>
   <si>
-    <t>ME_OTHER_ECE</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT MOST </t>
   </si>
   <si>
-    <t>["ECE_1799"]</t>
-  </si>
-  <si>
-    <t>["ME_ECE"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't take ECE 1799 for the ECE req (ECE 2010 preferred) </t>
-  </si>
-  <si>
-    <t>BME_BIO_2000_L</t>
-  </si>
-  <si>
-    <t>["BME_DEPT_2000_L"]</t>
-  </si>
-  <si>
-    <t>["BME_B"]</t>
-  </si>
-  <si>
-    <t>BME_ENGR_REST</t>
-  </si>
-  <si>
-    <t>["BME_1001", "BME_1004", "BME_3110", "RBE_3100", "CE_3022"]</t>
-  </si>
-  <si>
-    <t>["BME_2000_L", "BME_3000_L"]</t>
-  </si>
-  <si>
     <t>BME_BME</t>
   </si>
   <si>
-    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L", "BME_ED", "BME_L", "BME_3000_L", "BME_4000_L"]</t>
-  </si>
-  <si>
     <t>at least 27 credits of actual biomedical engineering classes within the engineering requirements</t>
   </si>
   <si>
@@ -1013,9 +917,6 @@
     <t>["BME_3012", "BME_3111", "BME_3503", "BME_3813"]</t>
   </si>
   <si>
-    <t>["BME_BME"]</t>
-  </si>
-  <si>
     <t>BME_STRESS_REST</t>
   </si>
   <si>
@@ -1025,15 +926,6 @@
     <t>BME_MAT_REST</t>
   </si>
   <si>
-    <t>BME_4000_4000</t>
-  </si>
-  <si>
-    <t>["BME_DEPT_500_L"]</t>
-  </si>
-  <si>
-    <t>["BME_4000_L"]</t>
-  </si>
-  <si>
     <t>DS_M_MATH_ANALYTICS</t>
   </si>
   <si>
@@ -1208,27 +1100,18 @@
     <t>Chem or Bio</t>
   </si>
   <si>
-    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
-  </si>
-  <si>
     <t>ECE_MATH_SCI_ELECT</t>
   </si>
   <si>
     <t>Math or Basic Science Electives</t>
   </si>
   <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
-  </si>
-  <si>
     <t>ECE_MATH_CORE</t>
   </si>
   <si>
     <t>["MA_1021", "MA_1022", "MA_2051", "MA_2621"]</t>
   </si>
   <si>
-    <t>["ECE_MATH"]</t>
-  </si>
-  <si>
     <t>ECE_COMP_ENG</t>
   </si>
   <si>
@@ -1253,9 +1136,6 @@
     <t xml:space="preserve">Engineering Electives </t>
   </si>
   <si>
-    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ES_3011", "ECE_2029", "ECE_2049", "ECE_3829", "ECE_4801", "BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2311", "ECE_2799", "ECE_3501", "ECE_4902", "AE_DEPT_2000_L", "AE_DEPT_3000_L", "AE_DEPT_4000_L", "AE_DEPT_5000_L", "AREN_DEPT_2000_L", "AREN_DEPT_3000_L", "AREN_DEPT_4000_L", "AREN_DEPT_500_L", "BME_DEPT_2000_L", "BME_DEPT_3000_L", "BME_DEPT_4000_L", "BME_DEPT_500_L", "CE_DEPT_2000_L", "CE_DEPT_3000_L", "CE_DEPT_4000_L", "CE_DEPT_500_L", "CHE_DEPT_2000_L", "CHE_DEPT_3000_L", "CHE_DEPT_4000_L", "CHE_DEPT_500_L", "ES_DEPT_2000_L", "ES_DEPT_3000_L", "ES_DEPT_4000_L", "ES_DEPT_500_L", "FP_DEPT_2000_L", "FP_DEPT_3000_L", "FP_DEPT_4000_L", "FP_DEPT_500_L", "ME_DEPT_2000_L", "ME_DEPT_3000_L", "ME_DEPT_4000_L", "ME_DEPT_500_L", "ME_DEPT_5000_L", "RBE_DEPT_2000_L", "RBE_DEPT_3000_L", "RBE_DEPT_4000_L", "RBE_DEPT_500_L", "RBE_DEPT_5000_L"]</t>
-  </si>
-  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804"]</t>
   </si>
   <si>
@@ -1472,12 +1352,6 @@
     <t>["CS_3133", "CS_4120", "CS_4123", "CS_4533", "CS_4536", "CS_5003", "CS_5084", "CS_503", "CS_536", "CS_544", "CS_584"]</t>
   </si>
   <si>
-    <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
-  </si>
-  <si>
-    <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
-  </si>
-  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
   <si>
@@ -1508,42 +1382,24 @@
     <t>at most 1 2000 systems class</t>
   </si>
   <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
-  </si>
-  <si>
     <t>Thermofluid Systems</t>
   </si>
   <si>
     <t>ME_ES_3001_EQ</t>
   </si>
   <si>
-    <t>['ES_3001', 'CH_3510', 'PH_2102']</t>
-  </si>
-  <si>
     <t>['ES_3003', 'ES_3004']</t>
   </si>
   <si>
     <t>need one of these three for intro to thermo</t>
   </si>
   <si>
-    <t xml:space="preserve">['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT', 'PH_2101', 'CH_3510'] </t>
-  </si>
-  <si>
-    <t>['CH_1010', 'PH_1110', 'PH_1120', 'CH_1020', 'PH_1111', 'PH_1121', 'PH_2101', 'CH_3510']</t>
-  </si>
-  <si>
     <t>['CH_1010', 'CH_1020', 'CH_3510']</t>
   </si>
   <si>
-    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121', 'PH_2101']</t>
-  </si>
-  <si>
     <t>["ME_BSCAP", "ME_E", "ME_MABS"]</t>
   </si>
   <si>
-    <t>not dealing with the level restrictions here really</t>
-  </si>
-  <si>
     <t xml:space="preserve">this cross restriction not really accounted for either </t>
   </si>
   <si>
@@ -1562,12 +1418,6 @@
     <t>mechanical systems core</t>
   </si>
   <si>
-    <t>["ECE_2010", "ECE_DEPT"]</t>
-  </si>
-  <si>
-    <t>['ES_3001', 'ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT',  'CE_DEPT',  'ECE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT', 'ECE_2010']</t>
-  </si>
-  <si>
     <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2029", "ECE_2049", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2311", "ECE_2312", "ECE_2799", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_3501", "ECE_3829", "ECE_3849", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4801", "ECE_4902", "ECE_4904", "ES_3011"]</t>
   </si>
   <si>
@@ -1617,6 +1467,303 @@
   </si>
   <si>
     <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
+  </si>
+  <si>
+    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
+  </si>
+  <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
+  </si>
+  <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
+  </si>
+  <si>
+    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
+  </si>
+  <si>
+    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT"]</t>
+  </si>
+  <si>
+    <t>[["AR_DEPT", "TH_DEPT", "MU_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023',  'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'CHE_2301', 'ME_2301', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2051', 'MA_2071']</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020', 'PH_1110', 'PH_1120']</t>
+  </si>
+  <si>
+    <t>['BME_1004', 'CS_1004', 'CS_1101', 'ME_2312', 'ME_4512']</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4322', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>['ES_3001', 'CH_3510', 'PH_2101']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_2101']</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1020", "MA_1120", "MA_1033", "MA_1034", "MA_1801", "MA_1971"]</t>
+  </si>
+  <si>
+    <t>["CS_GEN_MATH"]</t>
+  </si>
+  <si>
+    <t>CS_MATH_1000L_REST</t>
+  </si>
+  <si>
+    <t>at most 4 1000 level math classes</t>
+  </si>
+  <si>
+    <t>[['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201'], ['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520'], ['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120',  'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900'], ['GE_2341']]</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CHE_1011', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'ME_1520', 'ME_1800', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815', 'RBE_1001']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>also includes the first year courses like GPS (FY_1100 and FY_1101) and FY_1800 but I think different GPS projects apply different places so I'll leave it as a course substitution with the IS form</t>
+  </si>
+  <si>
+    <t>RBE_MAJOR</t>
+  </si>
+  <si>
+    <t>RBE_MATH</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_2051", "MA_2071", "MA_2621", "MA_2631"]</t>
+  </si>
+  <si>
+    <t>RBE_PHYS</t>
+  </si>
+  <si>
+    <t>["PH_1110", "PH_1111", "PH_1120", "PH_1121"]</t>
+  </si>
+  <si>
+    <t>RBE_SCI</t>
+  </si>
+  <si>
+    <t>Other Science</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>RBE_ETR</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>["ETR_1100", "ETR_3600"]</t>
+  </si>
+  <si>
+    <t>Should I put the other ETR classes in here? catalog unspecific, tracking sheet says /other</t>
+  </si>
+  <si>
+    <t>RBE_ROBO</t>
+  </si>
+  <si>
+    <t>Robotics Engineering</t>
+  </si>
+  <si>
+    <t>["RBE_1001", "RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002", "RBE_4322", "ME_4322", "RBE_4540", "RBE_4815"]</t>
+  </si>
+  <si>
+    <t>RBE_CS</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>["RBE_MATH"]</t>
+  </si>
+  <si>
+    <t>RBE_DIFF_EQS_LIN_ALG</t>
+  </si>
+  <si>
+    <t>["MA_2051", "MA_2071"]</t>
+  </si>
+  <si>
+    <t>RBE_CALC</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024"]</t>
+  </si>
+  <si>
+    <t>RBE_PROB</t>
+  </si>
+  <si>
+    <t>RBE_RBE_CORE</t>
+  </si>
+  <si>
+    <t>["RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002"]</t>
+  </si>
+  <si>
+    <t>["RBE_ROBO"]</t>
+  </si>
+  <si>
+    <t>there's some weird "or equivalent stuff going on here too"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suppose you could hypothetically substitute the theoretical calc III/IV and semester calc 1 and 2, but it's not specific </t>
+  </si>
+  <si>
+    <t>RBE_OBJ_OR</t>
+  </si>
+  <si>
+    <t>["CS_2102"]</t>
+  </si>
+  <si>
+    <t>does this mean you could take CS_4233 - obj-oriented analysis and design? it's so unspecific</t>
+  </si>
+  <si>
+    <t>["RBE_CS"]</t>
+  </si>
+  <si>
+    <t>RBE_SOFT_ENG</t>
+  </si>
+  <si>
+    <t>["CS_3733"]</t>
+  </si>
+  <si>
+    <t>RBE_ECE</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799']</t>
+  </si>
+  <si>
+    <t>RBE_EMB_SYS</t>
+  </si>
+  <si>
+    <t>["ECE_2049"]</t>
+  </si>
+  <si>
+    <t>["RBE_ECE"]</t>
+  </si>
+  <si>
+    <t>RBE_ES_STATICS</t>
+  </si>
+  <si>
+    <t>Engineering Science - Statics</t>
+  </si>
+  <si>
+    <t>["ES_2501"]</t>
+  </si>
+  <si>
+    <t>RBE_ES_CONTROLS</t>
+  </si>
+  <si>
+    <t>Engineering Science - Controls</t>
+  </si>
+  <si>
+    <t>["ES_3011", "ES_3012", "ME_3703", "AE_2310"]</t>
+  </si>
+  <si>
+    <t>again differing courses on tracking sheet and catalog</t>
+  </si>
+  <si>
+    <t>RBE_ENG_ELECT</t>
+  </si>
+  <si>
+    <t>Engineering Science and Design Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what even goes here? is it any engineering elective? everything in this major is so unclear for no reason </t>
+  </si>
+  <si>
+    <t>RBE_4000</t>
+  </si>
+  <si>
+    <t>["RBE_ENG_ELECT"]</t>
+  </si>
+  <si>
+    <t>["CS_3041", "CS_3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
+  </si>
+  <si>
+    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313", "ID_2314"]</t>
+  </si>
+  <si>
+    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "IMGD_2001", "RBE_3100"]</t>
+  </si>
+  <si>
+    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815', ]</t>
+  </si>
+  <si>
+    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3506", "BME_3605", "BME_3811", "BME_3813"]</t>
+  </si>
+  <si>
+    <t>1/6 unit each</t>
+  </si>
+  <si>
+    <t>['BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_4322', 'ME_4322', 'RBE_3001', 'RBE_3002', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4300", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
+  </si>
+  <si>
+    <t>tracking sheet says + AE, AREN, but catalog does not include these?</t>
+  </si>
+  <si>
+    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004']</t>
+  </si>
+  <si>
+    <t>["BME_520", "RBE_520", "BME_523", "BME_330", "ME_5359", "MTE_559", "BME_531", "BME_532", "BME_533", "ME_5503", "BME_535", "BME_553", "BME_555", "BME_560", "BME_562", "BME_564", "BME_580", "RBE_580", "ME_5205", "BME_581", "BME_583", "BME_591", "BME_592", "BME_593", "BME_594", "BME_595", "BME_596", "BME_597", "BME_598", "BME_599", "BME_698"]</t>
+  </si>
+  <si>
+    <t>BME_GRAD_REST</t>
+  </si>
+  <si>
+    <t>BME_2000_L_ENG</t>
+  </si>
+  <si>
+    <t>BME_3000_L_ENG</t>
+  </si>
+  <si>
+    <t>BME_4000_L_BME</t>
+  </si>
+  <si>
+    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L_ENG", "BME_ED", "BME_L", "BME_3000_L_ENG", "BME_4000_L_BME"]</t>
+  </si>
+  <si>
+    <t>["BME_4000_L_BME", "BME_2000_L_ENG", "BME_3000_L_ENG"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2135,7 +2282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,9 +2410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2308,28 +2452,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2360,7 +2489,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2381,9 +2516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2421,7 +2556,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2527,7 +2662,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2669,7 +2804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2680,10 +2815,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2692,7 +2828,7 @@
     <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.6640625" style="1" customWidth="1"/>
@@ -2901,7 +3037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="320" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2915,7 +3051,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2952,7 +3088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -2965,11 +3101,11 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="74" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -2982,118 +3118,119 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="205" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="23">
         <v>6</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -3102,15 +3239,15 @@
         <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -3119,284 +3256,284 @@
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5">
         <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="30">
         <v>15</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>93</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
     </row>
     <row r="34" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="9">
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>100</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C37" s="5">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="5">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="26">
         <v>3</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="28"/>
@@ -3404,19 +3541,19 @@
     </row>
     <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="26">
         <v>3</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="28"/>
@@ -3424,16 +3561,16 @@
     </row>
     <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C41" s="26">
         <v>6</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>44</v>
@@ -3444,19 +3581,19 @@
     </row>
     <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="26">
         <v>3</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="28"/>
@@ -3464,19 +3601,19 @@
     </row>
     <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="26">
         <v>3</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="28"/>
@@ -3484,741 +3621,744 @@
     </row>
     <row r="44" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" s="5">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45" s="34">
         <v>6</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71" t="s">
-        <v>208</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70" t="s">
+        <v>191</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C46" s="30">
         <v>45</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="71" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
-        <v>130</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="70" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70" t="s">
+        <v>126</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C47" s="30">
         <v>9</v>
       </c>
-      <c r="D47" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>496</v>
+      <c r="D47" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5">
         <v>18</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="354" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="77" t="s">
-        <v>495</v>
+        <v>132</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C51" s="5">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>507</v>
+        <v>140</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C56" s="34">
         <v>15</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>508</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>500</v>
+        <v>147</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C57" s="5">
         <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="275" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C67" s="5">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>569</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="77" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C70" s="5">
         <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>196</v>
+        <v>561</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="253" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
       <c r="C71" s="5">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="79" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>201</v>
+        <v>571</v>
       </c>
       <c r="C72" s="34">
         <v>6</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>203</v>
+        <v>564</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C73" s="5">
         <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="395" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C80" s="34">
         <v>45</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="78" t="s">
-        <v>214</v>
+        <v>193</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>197</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="B81" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" s="83">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="75" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="75" t="s">
+        <v>468</v>
+      </c>
+      <c r="B81" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="C81" s="77">
         <v>45</v>
       </c>
-      <c r="D81" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="82" t="s">
-        <v>520</v>
-      </c>
-      <c r="F81" s="81" t="s">
-        <v>216</v>
+      <c r="D81" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>199</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C82" s="5">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C83" s="5">
         <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C84" s="5">
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C85" s="26">
         <v>3</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G85" s="39"/>
       <c r="H85" s="28"/>
@@ -4226,19 +4366,19 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C86" s="26">
         <v>3</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G86" s="39"/>
       <c r="H86" s="28"/>
@@ -4246,16 +4386,16 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C87" s="26">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>44</v>
@@ -4266,19 +4406,19 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G88" s="39"/>
       <c r="H88" s="28"/>
@@ -4286,19 +4426,19 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G89" s="39"/>
       <c r="H89" s="28"/>
@@ -4306,70 +4446,246 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" s="5">
         <v>6</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="76" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C91" s="34">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="71" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C93" s="30">
         <v>45</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>525</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="70" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C94" s="30">
+        <v>21</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C96" s="5">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C97" s="5">
+        <v>3</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="5">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C99" s="5">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C100" s="5">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" s="5">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4383,15 +4699,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
@@ -4400,71 +4717,71 @@
     <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
-    <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="48.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="61" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>224</v>
+      <c r="E1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="62">
+      <c r="B2" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="61">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>227</v>
+      <c r="E2" s="58" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>231</v>
+        <v>212</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="67">
+        <v>0</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,118 +4789,118 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I3" s="37">
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="68">
-        <v>0</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>238</v>
+        <v>220</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="67">
+        <v>0</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="62">
+      <c r="B5" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="61">
         <v>15</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>227</v>
+      <c r="E5" s="58" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="59">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>245</v>
+        <v>227</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>497</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4592,7 +4909,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4603,28 +4920,28 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4635,28 +4952,28 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4667,28 +4984,28 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4696,31 +5013,31 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="91">
+        <v>209</v>
+      </c>
+      <c r="D10" s="85">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4728,31 +5045,31 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="91">
+        <v>287</v>
+      </c>
+      <c r="D11" s="85">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4760,1267 +5077,1266 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" s="91">
+        <v>287</v>
+      </c>
+      <c r="D12" s="85">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="85">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="63">
-        <v>3</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="60">
-        <v>0</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>252</v>
-      </c>
       <c r="C14" s="59" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D14" s="62">
         <v>3</v>
       </c>
       <c r="E14" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="61">
+        <v>3</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="61">
+        <v>9</v>
+      </c>
+      <c r="E19" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="38">
-        <v>3</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="62">
-        <v>9</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="59">
+      <c r="F19" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="58">
         <v>2</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I19" s="58">
         <v>5</v>
       </c>
-      <c r="J18" s="59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="38">
-        <v>12</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
-        <v>90</v>
+      <c r="J19" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D20" s="38">
         <v>12</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I20" s="37">
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D21" s="38">
         <v>12</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I21" s="37">
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D22" s="38">
         <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I22" s="37">
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="47">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="38">
+        <v>12</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="47">
         <v>3</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="46">
-        <v>0</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="64">
+      <c r="E24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" s="46">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="50" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="63">
         <v>12</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="38">
-        <v>3</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
-        <v>101</v>
+      <c r="E25" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="42">
+        <v>0</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I26" s="37">
         <v>0</v>
       </c>
-      <c r="J26" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="J26" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="38">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>384</v>
+      <c r="E27" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="26">
-        <v>0</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="38">
+        <v>265</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="26">
         <v>3</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>292</v>
+      <c r="E28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" s="39">
-        <v>0</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="47">
+        <v>369</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="38">
         <v>3</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29" s="37" t="str">
-        <f>IF(C29="AT LEAST", "1a", "1b")</f>
+      <c r="E29" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="47">
+        <v>3</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="37" t="str">
+        <f>IF(C30="AT LEAST", "1a", "1b")</f>
         <v>1b</v>
       </c>
-      <c r="I29" s="46">
-        <f>IF(H29=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="38">
-        <v>3</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="H30" s="42" t="str">
-        <f>IF(C30="AT LEAST", "1a", "1b")</f>
-        <v>1a</v>
-      </c>
-      <c r="I30" s="37">
-        <v>0</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>130</v>
+      <c r="I30" s="46">
+        <f>IF(H30=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="42" t="str">
+        <f>IF(C31="AT LEAST", "1a", "1b")</f>
+        <v>1a</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="38">
+        <v>3</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="38">
+        <v>9</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="G31" s="39" t="s">
+      <c r="G33" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="44">
+        <v>6</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="37">
+        <v>0</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="61">
+        <v>27</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="58">
+        <v>0</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="38">
+        <v>3</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="47">
+        <v>3</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="46">
+        <v>0</v>
+      </c>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="38">
+        <v>12</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="38">
+        <v>6</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="38">
+        <v>9</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="58">
+        <v>0</v>
+      </c>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I31" s="37">
-        <v>0</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="37" t="s">
+      <c r="C46" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="38">
-        <v>9</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" s="37">
-        <v>0</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="44">
-        <v>6</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="62">
-        <v>3</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I36" s="59">
-        <v>0</v>
-      </c>
-      <c r="J36" s="59"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="38">
-        <v>27</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D40" s="38">
-        <v>3</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I40" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D41" s="38">
-        <v>3</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" s="47">
-        <v>3</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I42" s="46">
-        <v>0</v>
-      </c>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="38">
-        <v>12</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="38">
-        <v>6</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I44" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="38">
-        <v>9</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I45" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I46" s="59">
-        <v>0</v>
-      </c>
-      <c r="J46" s="59"/>
-    </row>
-    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>334</v>
-      </c>
       <c r="C47" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D47" s="38">
         <v>4.5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I47" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D48" s="38">
+    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" s="27">
         <v>4.5</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" s="37">
-        <v>0</v>
-      </c>
+      <c r="E48" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="26">
+        <v>0</v>
+      </c>
+      <c r="J48"/>
     </row>
     <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="38">
+      <c r="A49" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="27">
         <v>4.5</v>
       </c>
-      <c r="E49" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
       </c>
-      <c r="J50"/>
     </row>
     <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
@@ -6028,57 +6344,57 @@
     </row>
     <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I53" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I54" s="26">
         <v>0</v>
@@ -6086,801 +6402,803 @@
     </row>
     <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I55" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I56" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D57" s="27">
         <v>4.5</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G57" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="81">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="82">
+        <v>0</v>
+      </c>
+      <c r="J58" s="59"/>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="5">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="32">
+        <v>0</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="68">
+        <v>4.5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" s="37">
+        <v>0</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" t="s">
         <v>342</v>
       </c>
-      <c r="H57" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I57" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I58" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I59" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="C60" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="D60" s="87">
-        <v>4.5</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="H60" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="I60" s="88">
-        <v>0</v>
-      </c>
-      <c r="J60" s="60"/>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D62" s="5">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A63" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="I63" s="32">
-        <v>0</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>291</v>
+      <c r="C64" t="s">
+        <v>270</v>
       </c>
       <c r="D64" s="69">
         <v>4.5</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>343</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="69">
+        <v>13.5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="69">
+        <v>13.5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="79" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" s="59">
+        <v>0</v>
+      </c>
+      <c r="J67" s="59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A68" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="63">
+        <v>12</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I68" s="42">
+        <v>0</v>
+      </c>
+      <c r="J68" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="38">
+        <v>3</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="37">
+        <v>0</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="38">
+        <v>3</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="37">
+        <v>0</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="26">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G71" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I65" s="37">
-        <v>0</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>518</v>
-      </c>
-      <c r="B66" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="70">
-        <v>4.5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>227</v>
-      </c>
-      <c r="F66" t="s">
-        <v>379</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H66" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C67" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="70">
-        <v>13.5</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" s="70">
-        <v>13.5</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="85" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>519</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="I69" s="60">
-        <v>0</v>
-      </c>
-      <c r="J69" s="60" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="51" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A70" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="64">
-        <v>12</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="G70" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I70" s="42">
-        <v>0</v>
-      </c>
-      <c r="J70" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="38">
-        <v>3</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I71" s="37">
-        <v>0</v>
-      </c>
-      <c r="J71" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="H71" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I71" s="26">
+        <v>0</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>240</v>
+        <v>269</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>270</v>
       </c>
       <c r="D72" s="38">
         <v>3</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>227</v>
+      <c r="E72" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" s="37">
-        <v>0</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" s="39">
+        <v>0</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="26">
+        <v>368</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="27">
         <v>3</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>282</v>
+      <c r="E73" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>241</v>
+        <v>275</v>
+      </c>
+      <c r="G73" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="26" t="str">
+        <f>IF(C73="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
       </c>
       <c r="I73" s="26">
-        <v>0</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(H73=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="D74" s="38">
-        <v>3</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>282</v>
+        <v>4.5</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I74" s="39">
-        <v>0</v>
-      </c>
-      <c r="J74" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I74" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="27">
-        <v>3</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G75" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="H75" s="26" t="str">
-        <f>IF(C75="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I75" s="26">
-        <f>IF(H75=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="37" t="s">
         <v>298</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I75" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D76" s="38">
         <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D77" s="38">
         <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D78" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D79" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
       </c>
+      <c r="J79"/>
     </row>
     <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D80" s="38">
         <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
@@ -6889,28 +7207,28 @@
     </row>
     <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D81" s="38">
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
@@ -6919,28 +7237,28 @@
     </row>
     <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
@@ -6949,28 +7267,28 @@
     </row>
     <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D83" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I83" s="37">
         <v>0</v>
@@ -6979,28 +7297,28 @@
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>423</v>
+        <v>307</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D84" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F84" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="G84" s="39" t="s">
-        <v>464</v>
-      </c>
       <c r="H84" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I84" s="37">
         <v>0</v>
@@ -7009,28 +7327,28 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
@@ -7039,28 +7357,28 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
@@ -7069,28 +7387,28 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
@@ -7099,28 +7417,28 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
@@ -7129,28 +7447,28 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
@@ -7159,28 +7477,28 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
@@ -7189,28 +7507,28 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
@@ -7219,28 +7537,28 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I92" s="37">
         <v>0</v>
@@ -7249,28 +7567,28 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
@@ -7279,28 +7597,28 @@
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
@@ -7309,28 +7627,28 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D95" s="38">
         <v>4.5</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I95" s="37">
         <v>0</v>
@@ -7339,58 +7657,60 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96"/>
+      <c r="J96" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
@@ -7398,61 +7718,59 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" s="38">
+      <c r="A98" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="69">
         <v>4.5</v>
       </c>
-      <c r="E98" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>434</v>
+      <c r="E98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H98" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I98" s="37">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>435</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="H98" t="s">
+        <v>213</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98"/>
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="28" t="s">
-        <v>408</v>
+      <c r="A99" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
@@ -7460,59 +7778,59 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>408</v>
-      </c>
-      <c r="B100" t="s">
-        <v>361</v>
-      </c>
-      <c r="C100" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="70">
+      <c r="A100" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="38">
         <v>4.5</v>
       </c>
-      <c r="E100" t="s">
-        <v>282</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>362</v>
+      <c r="E100" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>400</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H100" t="s">
-        <v>230</v>
-      </c>
-      <c r="I100">
+        <v>424</v>
+      </c>
+      <c r="H100" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="37">
         <v>0</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
-        <v>408</v>
+      <c r="A101" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
@@ -7520,29 +7838,29 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
-        <v>408</v>
+      <c r="A102" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I102" s="37">
         <v>0</v>
@@ -7550,29 +7868,29 @@
       <c r="J102"/>
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="54" t="s">
-        <v>408</v>
+      <c r="A103" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
@@ -7580,29 +7898,29 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="54" t="s">
-        <v>408</v>
+      <c r="A104" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I104" s="37">
         <v>0</v>
@@ -7610,29 +7928,29 @@
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="B105" s="37" t="s">
-        <v>445</v>
-      </c>
       <c r="C105" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
@@ -7640,29 +7958,29 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="54" t="s">
-        <v>408</v>
+      <c r="A106" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I106" s="37">
         <v>0</v>
@@ -7670,29 +7988,29 @@
       <c r="J106"/>
     </row>
     <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="54" t="s">
-        <v>408</v>
+      <c r="A107" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D107" s="38">
         <v>4.5</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I107" s="37">
         <v>0</v>
@@ -7700,29 +8018,29 @@
       <c r="J107"/>
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="54" t="s">
-        <v>408</v>
+      <c r="A108" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I108" s="37">
         <v>0</v>
@@ -7730,218 +8048,391 @@
       <c r="J108"/>
     </row>
     <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="54" t="s">
-        <v>408</v>
+      <c r="A109" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D109" s="38">
         <v>4.5</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I109" s="37">
         <v>0</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="38">
+        <v>368</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="62">
         <v>4.5</v>
       </c>
-      <c r="E110" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F110" s="39" t="s">
-        <v>452</v>
+      <c r="E110" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>416</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H110" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I110" s="37">
-        <v>0</v>
-      </c>
-      <c r="J110"/>
+        <v>424</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I110" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
-        <v>408</v>
+      <c r="A111" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I111" s="37">
         <v>0</v>
       </c>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="B112" s="60" t="s">
-        <v>455</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="D112" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="E112" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="F112" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="G112" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H112" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="I112" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
-        <v>408</v>
+    </row>
+    <row r="112" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="10">
+        <v>12</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="H112" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I112" s="58">
+        <v>0</v>
+      </c>
+      <c r="J112" s="58" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="53" t="s">
+        <v>505</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>226</v>
+        <v>527</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="D113" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>468</v>
+        <v>41</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I113" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="38"/>
-    </row>
-    <row r="116" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J145" s="46"/>
-    </row>
-    <row r="146" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="10:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="10:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="61">
+        <v>6</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H114" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I114" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D115" s="38">
+        <v>12</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F115" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="G115" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="H115" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I115" s="37">
+        <v>0</v>
+      </c>
+      <c r="J115" s="37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" s="38">
+        <v>3</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H116" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I116" s="37">
+        <v>0</v>
+      </c>
+      <c r="J116" s="37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="38">
+        <v>3</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I117" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="38">
+        <v>3</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G118" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="H118" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I118" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" s="38">
+        <v>6</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="H119" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I119" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="46"/>
+    </row>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC30411-6DC8-D24B-AE17-5C950F4A9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0294F4C1-7245-9446-A6E0-A0E449222A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB63386-4DF0-45C8-A369-D35F81CC0712}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="526">
   <si>
     <t>Program Key</t>
   </si>
@@ -183,10 +183,16 @@
     <t>CS_GEN_SCI</t>
   </si>
   <si>
+    <t>["PH_DEPT", "CH_DEPT", "BB_DEPT", "GE_DEPT"]</t>
+  </si>
+  <si>
     <t>CS_SCI_ENG</t>
   </si>
   <si>
     <t>Science/Engineering Electives</t>
+  </si>
+  <si>
+    <t>["BB_DEPT", "BME_DEPT", "CE_DEPT", "CH_DEPT", "CHE_DEPT", "ECE_DEPT", "ES_DEPT", "GE_DEPT", "ME_DEPT", "PH_DEPT", "RBE_DEPT"]</t>
   </si>
   <si>
     <t>OIE_MAJOR</t>
@@ -314,6 +320,9 @@
     <t>Humanities</t>
   </si>
   <si>
+    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
+  </si>
+  <si>
     <t>HUA_PROJ</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
     <t>Social Science</t>
   </si>
   <si>
+    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313"]</t>
+  </si>
+  <si>
     <t>DS_MAJOR</t>
   </si>
   <si>
@@ -434,6 +446,9 @@
     <t xml:space="preserve">Mathematics </t>
   </si>
   <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
+  </si>
+  <si>
     <t>ME_MABS</t>
   </si>
   <si>
@@ -479,6 +494,9 @@
     <t>Other Courses - Programming</t>
   </si>
   <si>
+    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
+  </si>
+  <si>
     <t>ME_E</t>
   </si>
   <si>
@@ -503,6 +521,9 @@
     <t>Biology</t>
   </si>
   <si>
+    <t>["BME_DEPT"]</t>
+  </si>
+  <si>
     <t>BME_P</t>
   </si>
   <si>
@@ -527,6 +548,9 @@
     <t>Supplementary Science</t>
   </si>
   <si>
+    <t>["BB_DEPT", "CH_DEPT", "PH_DEPT", "MA_DEPT", "CS_DEPT", "FY_DEPT"]</t>
+  </si>
+  <si>
     <t>BME_CP</t>
   </si>
   <si>
@@ -581,9 +605,15 @@
     <t>["BME_2211", "ME_3901"]</t>
   </si>
   <si>
+    <t>BME_2000_L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engineering 2000+ </t>
   </si>
   <si>
+    <t>["BME_DEPT", "ES_DEPT_2000_L", "CE_DEPT_2000_L", "CHE_DEPT_2000_L", "ECE_DEPT_2000_L", "RBE_DEPT_2000_L", "ME_DEPT_2000_L", "ES_DEPT_3000_L", "CE_DEPT_3000_L", "CHE_DEPT_3000_L", "ECE_DEPT_3000_L", "RBE_DEPT_3000_L", "ME_DEPT_3000_L", "ES_DEPT_4000_L", "CE_DEPT_4000_L", "CHE_DEPT_4000_L", "ECE_DEPT_4000_L", "RBE_DEPT_4000_L", "ME_DEPT_4000_L"]</t>
+  </si>
+  <si>
     <t>BME_ED</t>
   </si>
   <si>
@@ -599,12 +629,30 @@
     <t>Labs</t>
   </si>
   <si>
+    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3605", "BME_3811", "BME_3813"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*these are 1/6 unit each though - how do we capture that? </t>
+  </si>
+  <si>
+    <t>BME_3000_L</t>
+  </si>
+  <si>
     <t>Engineering 3000+</t>
   </si>
   <si>
+    <t>["BME_DEPT", "ES_3???", "AE_3???", "AREN_3???", "CE_3???", "CHE_3???", "ECE_3???", "RBE_3???", "ME_3???"]</t>
+  </si>
+  <si>
+    <t>BME_4000_L</t>
+  </si>
+  <si>
     <t>BME 4000 depth</t>
   </si>
   <si>
+    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
+  </si>
+  <si>
     <t>*one can be grad level but one must be at 4000 level for some reason</t>
   </si>
   <si>
@@ -614,6 +662,9 @@
     <t>ECE_MATH</t>
   </si>
   <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
+  </si>
+  <si>
     <t>DS_MASTER</t>
   </si>
   <si>
@@ -725,6 +776,9 @@
     <t>ONE OF</t>
   </si>
   <si>
+    <t>[["PH_DEPT"], ["CH_DEPT"], ["BB_DEPT"], ["GE_DEPT"]]</t>
+  </si>
+  <si>
     <t>["CS_GEN_SCI"]</t>
   </si>
   <si>
@@ -734,6 +788,9 @@
     <t>CS_SOC_IMPS</t>
   </si>
   <si>
+    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "RBE_3100"]</t>
+  </si>
+  <si>
     <t>["CS_CORE", "SOC_SCI_REQ"]</t>
   </si>
   <si>
@@ -779,6 +836,9 @@
     <t>HUA_DEPTH</t>
   </si>
   <si>
+    <t>[["AR_DEPT", "TH_DEPT", "MUS_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
+  </si>
+  <si>
     <t>["HUA_CORE"]</t>
   </si>
   <si>
@@ -788,6 +848,9 @@
     <t>HUA_ART_MAX</t>
   </si>
   <si>
+    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT"]</t>
+  </si>
+  <si>
     <t>Breadth requirement</t>
   </si>
   <si>
@@ -902,12 +965,45 @@
     <t xml:space="preserve">currently not including the ES 3001 replacements because they cause things to move categories (like GOV for social imps) </t>
   </si>
   <si>
+    <t>ME_OTHER_ECE</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT MOST </t>
   </si>
   <si>
+    <t>["ECE_1799"]</t>
+  </si>
+  <si>
+    <t>["ME_ECE"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't take ECE 1799 for the ECE req (ECE 2010 preferred) </t>
+  </si>
+  <si>
+    <t>BME_BIO_2000_L</t>
+  </si>
+  <si>
+    <t>["BME_DEPT_2000_L"]</t>
+  </si>
+  <si>
+    <t>["BME_B"]</t>
+  </si>
+  <si>
+    <t>BME_ENGR_REST</t>
+  </si>
+  <si>
+    <t>["BME_1001", "BME_1004", "BME_3110", "RBE_3100", "CE_3022"]</t>
+  </si>
+  <si>
+    <t>["BME_2000_L", "BME_3000_L"]</t>
+  </si>
+  <si>
     <t>BME_BME</t>
   </si>
   <si>
+    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L", "BME_ED", "BME_L", "BME_3000_L", "BME_4000_L"]</t>
+  </si>
+  <si>
     <t>at least 27 credits of actual biomedical engineering classes within the engineering requirements</t>
   </si>
   <si>
@@ -917,6 +1013,9 @@
     <t>["BME_3012", "BME_3111", "BME_3503", "BME_3813"]</t>
   </si>
   <si>
+    <t>["BME_BME"]</t>
+  </si>
+  <si>
     <t>BME_STRESS_REST</t>
   </si>
   <si>
@@ -926,6 +1025,15 @@
     <t>BME_MAT_REST</t>
   </si>
   <si>
+    <t>BME_4000_4000</t>
+  </si>
+  <si>
+    <t>["BME_DEPT_500_L"]</t>
+  </si>
+  <si>
+    <t>["BME_4000_L"]</t>
+  </si>
+  <si>
     <t>DS_M_MATH_ANALYTICS</t>
   </si>
   <si>
@@ -1100,18 +1208,27 @@
     <t>Chem or Bio</t>
   </si>
   <si>
+    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
+  </si>
+  <si>
     <t>ECE_MATH_SCI_ELECT</t>
   </si>
   <si>
     <t>Math or Basic Science Electives</t>
   </si>
   <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
+  </si>
+  <si>
     <t>ECE_MATH_CORE</t>
   </si>
   <si>
     <t>["MA_1021", "MA_1022", "MA_2051", "MA_2621"]</t>
   </si>
   <si>
+    <t>["ECE_MATH"]</t>
+  </si>
+  <si>
     <t>ECE_COMP_ENG</t>
   </si>
   <si>
@@ -1136,6 +1253,9 @@
     <t xml:space="preserve">Engineering Electives </t>
   </si>
   <si>
+    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ES_3011", "ECE_2029", "ECE_2049", "ECE_3829", "ECE_4801", "BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2311", "ECE_2799", "ECE_3501", "ECE_4902", "AE_DEPT_2000_L", "AE_DEPT_3000_L", "AE_DEPT_4000_L", "AE_DEPT_5000_L", "AREN_DEPT_2000_L", "AREN_DEPT_3000_L", "AREN_DEPT_4000_L", "AREN_DEPT_500_L", "BME_DEPT_2000_L", "BME_DEPT_3000_L", "BME_DEPT_4000_L", "BME_DEPT_500_L", "CE_DEPT_2000_L", "CE_DEPT_3000_L", "CE_DEPT_4000_L", "CE_DEPT_500_L", "CHE_DEPT_2000_L", "CHE_DEPT_3000_L", "CHE_DEPT_4000_L", "CHE_DEPT_500_L", "ES_DEPT_2000_L", "ES_DEPT_3000_L", "ES_DEPT_4000_L", "ES_DEPT_500_L", "FP_DEPT_2000_L", "FP_DEPT_3000_L", "FP_DEPT_4000_L", "FP_DEPT_500_L", "ME_DEPT_2000_L", "ME_DEPT_3000_L", "ME_DEPT_4000_L", "ME_DEPT_500_L", "ME_DEPT_5000_L", "RBE_DEPT_2000_L", "RBE_DEPT_3000_L", "RBE_DEPT_4000_L", "RBE_DEPT_500_L", "RBE_DEPT_5000_L"]</t>
+  </si>
+  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804"]</t>
   </si>
   <si>
@@ -1352,6 +1472,12 @@
     <t>["CS_3133", "CS_4120", "CS_4123", "CS_4533", "CS_4536", "CS_5003", "CS_5084", "CS_503", "CS_536", "CS_544", "CS_584"]</t>
   </si>
   <si>
+    <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
+  </si>
+  <si>
+    <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
+  </si>
+  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
   <si>
@@ -1382,24 +1508,42 @@
     <t>at most 1 2000 systems class</t>
   </si>
   <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
+  </si>
+  <si>
     <t>Thermofluid Systems</t>
   </si>
   <si>
     <t>ME_ES_3001_EQ</t>
   </si>
   <si>
+    <t>['ES_3001', 'CH_3510', 'PH_2102']</t>
+  </si>
+  <si>
     <t>['ES_3003', 'ES_3004']</t>
   </si>
   <si>
     <t>need one of these three for intro to thermo</t>
   </si>
   <si>
+    <t xml:space="preserve">['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT', 'PH_2101', 'CH_3510'] </t>
+  </si>
+  <si>
+    <t>['CH_1010', 'PH_1110', 'PH_1120', 'CH_1020', 'PH_1111', 'PH_1121', 'PH_2101', 'CH_3510']</t>
+  </si>
+  <si>
     <t>['CH_1010', 'CH_1020', 'CH_3510']</t>
   </si>
   <si>
+    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121', 'PH_2101']</t>
+  </si>
+  <si>
     <t>["ME_BSCAP", "ME_E", "ME_MABS"]</t>
   </si>
   <si>
+    <t>not dealing with the level restrictions here really</t>
+  </si>
+  <si>
     <t xml:space="preserve">this cross restriction not really accounted for either </t>
   </si>
   <si>
@@ -1418,6 +1562,12 @@
     <t>mechanical systems core</t>
   </si>
   <si>
+    <t>["ECE_2010", "ECE_DEPT"]</t>
+  </si>
+  <si>
+    <t>['ES_3001', 'ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT',  'CE_DEPT',  'ECE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT', 'ECE_2010']</t>
+  </si>
+  <si>
     <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2029", "ECE_2049", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2311", "ECE_2312", "ECE_2799", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_3501", "ECE_3829", "ECE_3849", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4801", "ECE_4902", "ECE_4904", "ES_3011"]</t>
   </si>
   <si>
@@ -1466,304 +1616,7 @@
     <t>["CS_5007", "CS_5008", "CS_598"]</t>
   </si>
   <si>
-    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
-  </si>
-  <si>
-    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
-  </si>
-  <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
-  </si>
-  <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
-  </si>
-  <si>
-    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
-  </si>
-  <si>
-    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT"]</t>
-  </si>
-  <si>
-    <t>[["AR_DEPT", "TH_DEPT", "MU_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
-  </si>
-  <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023',  'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'CHE_2301', 'ME_2301', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
-  </si>
-  <si>
-    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
-  </si>
-  <si>
-    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2051', 'MA_2071']</t>
-  </si>
-  <si>
-    <t>['CH_1010', 'CH_1020', 'PH_1110', 'PH_1120']</t>
-  </si>
-  <si>
-    <t>['BME_1004', 'CS_1004', 'CS_1101', 'ME_2312', 'ME_4512']</t>
-  </si>
-  <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4322', 'RBE_4322']</t>
-  </si>
-  <si>
-    <t>['ES_3001', 'CH_3510', 'PH_2101']</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
-  </si>
-  <si>
-    <t>['PH_1110', 'PH_1120', 'PH_2101']</t>
-  </si>
-  <si>
-    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815']</t>
-  </si>
-  <si>
-    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
-  </si>
-  <si>
-    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1020", "MA_1120", "MA_1033", "MA_1034", "MA_1801", "MA_1971"]</t>
-  </si>
-  <si>
-    <t>["CS_GEN_MATH"]</t>
-  </si>
-  <si>
-    <t>CS_MATH_1000L_REST</t>
-  </si>
-  <si>
-    <t>at most 4 1000 level math classes</t>
-  </si>
-  <si>
-    <t>[['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201'], ['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520'], ['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120',  'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900'], ['GE_2341']]</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CHE_1011', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'ME_1520', 'ME_1800', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815', 'RBE_1001']</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
-  </si>
-  <si>
-    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
-  </si>
-  <si>
-    <t>['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
-  </si>
-  <si>
-    <t>also includes the first year courses like GPS (FY_1100 and FY_1101) and FY_1800 but I think different GPS projects apply different places so I'll leave it as a course substitution with the IS form</t>
-  </si>
-  <si>
-    <t>RBE_MAJOR</t>
-  </si>
-  <si>
-    <t>RBE_MATH</t>
-  </si>
-  <si>
-    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_2051", "MA_2071", "MA_2621", "MA_2631"]</t>
-  </si>
-  <si>
-    <t>RBE_PHYS</t>
-  </si>
-  <si>
-    <t>["PH_1110", "PH_1111", "PH_1120", "PH_1121"]</t>
-  </si>
-  <si>
-    <t>RBE_SCI</t>
-  </si>
-  <si>
-    <t>Other Science</t>
-  </si>
-  <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
-  </si>
-  <si>
-    <t>RBE_ETR</t>
-  </si>
-  <si>
-    <t>Entrepreneurship</t>
-  </si>
-  <si>
-    <t>["ETR_1100", "ETR_3600"]</t>
-  </si>
-  <si>
-    <t>Should I put the other ETR classes in here? catalog unspecific, tracking sheet says /other</t>
-  </si>
-  <si>
-    <t>RBE_ROBO</t>
-  </si>
-  <si>
-    <t>Robotics Engineering</t>
-  </si>
-  <si>
-    <t>["RBE_1001", "RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002", "RBE_4322", "ME_4322", "RBE_4540", "RBE_4815"]</t>
-  </si>
-  <si>
-    <t>RBE_CS</t>
-  </si>
-  <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
-  </si>
-  <si>
-    <t>["RBE_MATH"]</t>
-  </si>
-  <si>
-    <t>RBE_DIFF_EQS_LIN_ALG</t>
-  </si>
-  <si>
-    <t>["MA_2051", "MA_2071"]</t>
-  </si>
-  <si>
-    <t>RBE_CALC</t>
-  </si>
-  <si>
-    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024"]</t>
-  </si>
-  <si>
-    <t>RBE_PROB</t>
-  </si>
-  <si>
-    <t>RBE_RBE_CORE</t>
-  </si>
-  <si>
-    <t>["RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002"]</t>
-  </si>
-  <si>
-    <t>["RBE_ROBO"]</t>
-  </si>
-  <si>
-    <t>there's some weird "or equivalent stuff going on here too"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I suppose you could hypothetically substitute the theoretical calc III/IV and semester calc 1 and 2, but it's not specific </t>
-  </si>
-  <si>
-    <t>RBE_OBJ_OR</t>
-  </si>
-  <si>
-    <t>["CS_2102"]</t>
-  </si>
-  <si>
-    <t>does this mean you could take CS_4233 - obj-oriented analysis and design? it's so unspecific</t>
-  </si>
-  <si>
-    <t>["RBE_CS"]</t>
-  </si>
-  <si>
-    <t>RBE_SOFT_ENG</t>
-  </si>
-  <si>
-    <t>["CS_3733"]</t>
-  </si>
-  <si>
-    <t>RBE_ECE</t>
-  </si>
-  <si>
-    <t>Electrical and Computer Engineering</t>
-  </si>
-  <si>
-    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799']</t>
-  </si>
-  <si>
-    <t>RBE_EMB_SYS</t>
-  </si>
-  <si>
-    <t>["ECE_2049"]</t>
-  </si>
-  <si>
-    <t>["RBE_ECE"]</t>
-  </si>
-  <si>
-    <t>RBE_ES_STATICS</t>
-  </si>
-  <si>
-    <t>Engineering Science - Statics</t>
-  </si>
-  <si>
-    <t>["ES_2501"]</t>
-  </si>
-  <si>
-    <t>RBE_ES_CONTROLS</t>
-  </si>
-  <si>
-    <t>Engineering Science - Controls</t>
-  </si>
-  <si>
-    <t>["ES_3011", "ES_3012", "ME_3703", "AE_2310"]</t>
-  </si>
-  <si>
-    <t>again differing courses on tracking sheet and catalog</t>
-  </si>
-  <si>
-    <t>RBE_ENG_ELECT</t>
-  </si>
-  <si>
-    <t>Engineering Science and Design Electives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what even goes here? is it any engineering elective? everything in this major is so unclear for no reason </t>
-  </si>
-  <si>
-    <t>RBE_4000</t>
-  </si>
-  <si>
-    <t>["RBE_ENG_ELECT"]</t>
-  </si>
-  <si>
-    <t>["CS_3041", "CS_3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
-  </si>
-  <si>
-    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313", "ID_2314"]</t>
-  </si>
-  <si>
-    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "IMGD_2001", "RBE_3100"]</t>
-  </si>
-  <si>
-    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815', ]</t>
-  </si>
-  <si>
-    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3506", "BME_3605", "BME_3811", "BME_3813"]</t>
-  </si>
-  <si>
-    <t>1/6 unit each</t>
-  </si>
-  <si>
-    <t>['BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_4322', 'ME_4322', 'RBE_3001', 'RBE_3002', 'RBE_4540', 'RBE_4815']</t>
-  </si>
-  <si>
-    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4300", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
-  </si>
-  <si>
-    <t>tracking sheet says + AE, AREN, but catalog does not include these?</t>
-  </si>
-  <si>
-    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004']</t>
-  </si>
-  <si>
-    <t>["BME_520", "RBE_520", "BME_523", "BME_330", "ME_5359", "MTE_559", "BME_531", "BME_532", "BME_533", "ME_5503", "BME_535", "BME_553", "BME_555", "BME_560", "BME_562", "BME_564", "BME_580", "RBE_580", "ME_5205", "BME_581", "BME_583", "BME_591", "BME_592", "BME_593", "BME_594", "BME_595", "BME_596", "BME_597", "BME_598", "BME_599", "BME_698"]</t>
-  </si>
-  <si>
-    <t>BME_GRAD_REST</t>
-  </si>
-  <si>
-    <t>BME_2000_L_ENG</t>
-  </si>
-  <si>
-    <t>BME_3000_L_ENG</t>
-  </si>
-  <si>
-    <t>BME_4000_L_BME</t>
-  </si>
-  <si>
-    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L_ENG", "BME_ED", "BME_L", "BME_3000_L_ENG", "BME_4000_L_BME"]</t>
-  </si>
-  <si>
-    <t>["BME_4000_L_BME", "BME_2000_L_ENG", "BME_3000_L_ENG"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501", "CS_568", "SEME_568"]</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1648,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2282,7 +2135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2410,6 +2263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2452,13 +2308,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2489,13 +2360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2815,27 +2680,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A11" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2720,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -2877,7 +2741,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2762,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +2783,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2804,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2825,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2982,7 +2846,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +2867,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +2884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -3037,7 +2901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -3051,10 +2915,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
@@ -3071,7 +2935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -3088,7 +2952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -3101,11 +2965,11 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -3118,119 +2982,118 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="205" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="23">
         <v>6</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16" s="86"/>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -3239,15 +3102,15 @@
         <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -3256,321 +3119,321 @@
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5">
         <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" s="30">
         <v>15</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
     </row>
-    <row r="34" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C35" s="9">
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C36" s="5">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C37" s="5">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C38" s="5">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C39" s="26">
         <v>3</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="28"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C40" s="26">
         <v>3</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="28"/>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C41" s="26">
         <v>6</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>44</v>
@@ -3579,823 +3442,820 @@
       <c r="H41" s="28"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C42" s="26">
         <v>3</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="28"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C43" s="26">
         <v>3</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C44" s="5">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C45" s="34">
         <v>6</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
-        <v>191</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71" t="s">
+        <v>208</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C46" s="30">
         <v>45</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="70" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
-        <v>126</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="71" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="71" t="s">
+        <v>130</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C47" s="30">
         <v>9</v>
       </c>
-      <c r="D47" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5">
         <v>18</v>
       </c>
       <c r="D48" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="354" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C50" s="5">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>486</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C56" s="34">
         <v>15</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C57" s="5">
         <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="E58" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="275" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="E60" s="77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E61" s="77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C67" s="5">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>569</v>
+        <v>188</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="E68" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C70" s="5">
         <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>561</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="253" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>570</v>
+        <v>198</v>
       </c>
       <c r="C71" s="5">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="87" t="s">
-        <v>563</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E71" s="79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>571</v>
+        <v>201</v>
       </c>
       <c r="C72" s="34">
         <v>6</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>564</v>
+        <v>203</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C73" s="5">
         <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="181.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="32" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C80" s="34">
         <v>45</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>197</v>
+        <v>210</v>
+      </c>
+      <c r="E80" s="78" t="s">
+        <v>214</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="75" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="B81" s="76" t="s">
-        <v>471</v>
-      </c>
-      <c r="C81" s="77">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="B81" s="82" t="s">
+        <v>521</v>
+      </c>
+      <c r="C81" s="83">
         <v>45</v>
       </c>
-      <c r="D81" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="F81" s="75" t="s">
-        <v>199</v>
+      <c r="D81" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="82" t="s">
+        <v>520</v>
+      </c>
+      <c r="F81" s="81" t="s">
+        <v>216</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C82" s="5">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C83" s="5">
         <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C84" s="5">
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C85" s="26">
         <v>3</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G85" s="39"/>
       <c r="H85" s="28"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C86" s="26">
         <v>3</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G86" s="39"/>
       <c r="H86" s="28"/>
       <c r="I86" s="26"/>
     </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C87" s="26">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>44</v>
@@ -4404,288 +4264,112 @@
       <c r="H87" s="28"/>
       <c r="I87" s="26"/>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G88" s="39"/>
       <c r="H88" s="28"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G89" s="39"/>
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C90" s="5">
         <v>6</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="E90" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="32" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C91" s="34">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C93" s="30">
         <v>45</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="70" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="70" t="s">
-        <v>505</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C94" s="30">
-        <v>21</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C95" s="5">
-        <v>6</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C96" s="5">
-        <v>6</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C97" s="5">
-        <v>3</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C98" s="5">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C99" s="5">
-        <v>9</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C100" s="5">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C101" s="5">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C102" s="5">
-        <v>3</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C103" s="5">
-        <v>3</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4699,208 +4383,207 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="40" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
-    <col min="10" max="10" width="48.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="E1" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="61">
+      <c r="B2" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="62">
         <v>3</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>210</v>
+      <c r="E2" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="67">
-        <v>0</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="68">
+        <v>0</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I3" s="37">
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="67">
-        <v>0</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="61">
+      <c r="B5" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="62">
         <v>15</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>210</v>
+      <c r="E5" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="58">
-        <v>0</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>497</v>
+        <v>244</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4909,10 +4592,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -4920,31 +4603,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
@@ -4952,31 +4635,31 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -4984,3455 +4667,3281 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="85">
+        <v>226</v>
+      </c>
+      <c r="D10" s="91">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="85">
+        <v>309</v>
+      </c>
+      <c r="D11" s="91">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="85">
+        <v>309</v>
+      </c>
+      <c r="D12" s="91">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="85">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
-        <v>33</v>
+      <c r="B13" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="63">
+        <v>3</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D14" s="62">
         <v>3</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>241</v>
       </c>
       <c r="I14" s="59">
         <v>0</v>
       </c>
-      <c r="J14" s="59" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="61">
+      <c r="J14" s="68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="38">
         <v>3</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="58">
-        <v>0</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>50</v>
+      <c r="E15" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D16" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I16" s="37">
         <v>0</v>
       </c>
-      <c r="J16" s="67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>50</v>
+      <c r="J16" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D17" s="38">
         <v>0</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G17" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="39" t="s">
+      <c r="D18" s="62">
+        <v>9</v>
+      </c>
+      <c r="E18" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="61">
-        <v>9</v>
-      </c>
-      <c r="E19" s="58" t="s">
+      <c r="F18" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="59">
+        <v>2</v>
+      </c>
+      <c r="I18" s="59">
+        <v>5</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="38">
+        <v>12</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" s="58">
-        <v>2</v>
-      </c>
-      <c r="I19" s="58">
-        <v>5</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
-        <v>88</v>
+      <c r="F19" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D20" s="38">
         <v>12</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I20" s="37">
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
-        <v>88</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D21" s="38">
         <v>12</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I21" s="37">
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>88</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D22" s="38">
         <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I22" s="37">
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="47">
+        <v>3</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="46">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="64">
         <v>12</v>
       </c>
-      <c r="E23" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="37">
-        <v>0</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="47">
+      <c r="E24" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="I24" s="46">
-        <v>0</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="50" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="63">
-        <v>12</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>426</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
-        <v>97</v>
+      <c r="E25" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I26" s="37">
         <v>0</v>
       </c>
-      <c r="J26" s="39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="38">
+      <c r="J26" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="26">
         <v>3</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>367</v>
+      <c r="E27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="26">
+        <v>409</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="38">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>348</v>
+      <c r="E28" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I28" s="26">
-        <v>0</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D29" s="38">
+        <v>293</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="47">
         <v>3</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="39">
-        <v>0</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="47">
+      <c r="E29" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="H29" s="37" t="str">
+        <f>IF(C29="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I29" s="46">
+        <f>IF(H29=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="38">
         <v>3</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="37" t="str">
+      <c r="E30" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" s="42" t="str">
         <f>IF(C30="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I30" s="46">
-        <f>IF(H30=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
-        <v>126</v>
+        <v>1a</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>451</v>
+        <v>282</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>498</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="H31" s="42" t="str">
-        <f>IF(C31="AT LEAST", "1a", "1b")</f>
-        <v>1a</v>
+        <v>300</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="I31" s="37">
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
-        <v>126</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="D32" s="38">
+        <v>9</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="44">
+        <v>6</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="5">
         <v>3</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" s="37">
-        <v>0</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="38">
+      <c r="E34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="62">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="59">
+        <v>0</v>
+      </c>
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="38">
+        <v>27</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" s="38">
+        <v>3</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="38">
+        <v>3</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="47">
+        <v>3</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42" s="46">
+        <v>0</v>
+      </c>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="38">
+        <v>12</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="38">
+        <v>6</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="38">
         <v>9</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="44">
-        <v>6</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="37">
-        <v>0</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="61">
-        <v>27</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>566</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="58">
-        <v>0</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="39" t="s">
+      <c r="E45" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="G37" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="38">
-        <v>3</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="38">
-        <v>3</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>568</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="47">
-        <v>3</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>567</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>573</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="46">
-        <v>0</v>
-      </c>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="38">
-        <v>12</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="38">
-        <v>6</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="38">
-        <v>9</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="61">
+      <c r="D46" s="62">
         <v>4.5</v>
       </c>
-      <c r="E44" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" s="58">
-        <v>0</v>
-      </c>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I45" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D46" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="59">
+        <v>0</v>
+      </c>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D47" s="38">
         <v>4.5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I47" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="27">
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="38">
         <v>4.5</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="27">
+      <c r="E48" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="38">
         <v>4.5</v>
       </c>
-      <c r="E49" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>287</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I53" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I54" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I55" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I56" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D57" s="27">
         <v>4.5</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I57" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="81">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="27">
         <v>4.5</v>
       </c>
-      <c r="E58" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="F58" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="H58" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="I58" s="82">
-        <v>0</v>
-      </c>
-      <c r="J58" s="59"/>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="E58" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I59" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H60" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" s="88">
+        <v>0</v>
+      </c>
+      <c r="J60" s="60"/>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="5">
         <v>13.5</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="E61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="5">
         <v>9</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A61" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="34">
+      <c r="E62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="34">
         <v>4.5</v>
       </c>
-      <c r="E61" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I61" s="32">
-        <v>0</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="68">
-        <v>4.5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I63" s="37">
-        <v>0</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>468</v>
-      </c>
-      <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64" t="s">
-        <v>270</v>
+      <c r="E63" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="32">
+        <v>0</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="D64" s="69">
         <v>4.5</v>
       </c>
-      <c r="E64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" t="s">
-        <v>343</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H64" t="s">
-        <v>224</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="E64" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" s="37">
+        <v>0</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="70">
+        <v>4.5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="70">
+        <v>13.5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="70">
+        <v>13.5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="85" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="E69" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="I69" s="60">
+        <v>0</v>
+      </c>
+      <c r="J69" s="60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="51" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="64">
+        <v>12</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="I70" s="42">
+        <v>0</v>
+      </c>
+      <c r="J70" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="38">
+        <v>3</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I71" s="37">
+        <v>0</v>
+      </c>
+      <c r="J71" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="69">
-        <v>13.5</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="69">
-        <v>13.5</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="79" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D67" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="H67" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="I67" s="59">
-        <v>0</v>
-      </c>
-      <c r="J67" s="59" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A68" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="63">
-        <v>12</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="G68" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I68" s="42">
-        <v>0</v>
-      </c>
-      <c r="J68" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="38">
-        <v>3</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I69" s="37">
-        <v>0</v>
-      </c>
-      <c r="J69" s="39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="38">
-        <v>3</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I70" s="37">
-        <v>0</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="26">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I71" s="26">
-        <v>0</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>270</v>
+        <v>288</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="D72" s="38">
         <v>3</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>261</v>
+      <c r="E72" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>271</v>
+        <v>407</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I72" s="39">
-        <v>0</v>
-      </c>
-      <c r="J72" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="37">
+        <v>0</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="27">
+        <v>408</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="26">
         <v>3</v>
       </c>
-      <c r="E73" s="26" t="s">
-        <v>261</v>
+      <c r="E73" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="26" t="str">
-        <f>IF(C73="AT LEAST", "1a", "1b")</f>
+        <v>384</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="I73" s="26">
+        <v>0</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="38">
+        <v>3</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I74" s="39">
+        <v>0</v>
+      </c>
+      <c r="J74" s="39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="27">
+        <v>3</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="26" t="str">
+        <f>IF(C75="AT LEAST", "1a", "1b")</f>
         <v>1b</v>
       </c>
-      <c r="I73" s="26">
-        <f>IF(H73=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I74" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B75" s="37" t="s">
+      <c r="I75" s="26">
+        <f>IF(H75=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I75" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D76" s="38">
         <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D77" s="38">
         <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D78" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
       </c>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D79" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
       </c>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D80" s="38">
         <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D81" s="38">
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="G82" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I82" s="37">
+        <v>0</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="38">
+        <v>3</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="37">
+        <v>0</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="38">
+        <v>3</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="H82" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I82" s="37">
-        <v>0</v>
-      </c>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D83" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H83" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I83" s="37">
-        <v>0</v>
-      </c>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>308</v>
-      </c>
       <c r="G84" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I84" s="37">
         <v>0</v>
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B85" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>309</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>287</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I92" s="37">
         <v>0</v>
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D95" s="38">
         <v>4.5</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I95" s="37">
         <v>0</v>
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" t="s">
-        <v>325</v>
-      </c>
-      <c r="C98" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" s="69">
+    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="38">
         <v>4.5</v>
       </c>
-      <c r="E98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>326</v>
+      <c r="E98" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H98" t="s">
-        <v>213</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="53" t="s">
-        <v>368</v>
+        <v>464</v>
+      </c>
+      <c r="H98" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98" s="37">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" s="38">
+    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="70">
         <v>4.5</v>
       </c>
-      <c r="E100" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" s="39" t="s">
-        <v>400</v>
+      <c r="E100" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H100" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I100" s="37">
+        <v>464</v>
+      </c>
+      <c r="H100" t="s">
+        <v>230</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="53" t="s">
-        <v>368</v>
+    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="53" t="s">
-        <v>368</v>
+    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I102" s="37">
         <v>0</v>
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
-        <v>368</v>
+    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="53" t="s">
-        <v>368</v>
+    <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I104" s="37">
         <v>0</v>
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="53" t="s">
-        <v>368</v>
+    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="53" t="s">
-        <v>368</v>
+    <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I106" s="37">
         <v>0</v>
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="53" t="s">
-        <v>368</v>
+    <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D107" s="38">
         <v>4.5</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I107" s="37">
         <v>0</v>
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="53" t="s">
-        <v>368</v>
+    <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I108" s="37">
         <v>0</v>
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="53" t="s">
-        <v>368</v>
+    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D109" s="38">
         <v>4.5</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I109" s="37">
         <v>0</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="C110" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="D110" s="62">
+        <v>408</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="38">
         <v>4.5</v>
       </c>
-      <c r="E110" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>416</v>
+      <c r="E110" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" s="39" t="s">
+        <v>452</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H110" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="I110" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
-        <v>368</v>
+        <v>464</v>
+      </c>
+      <c r="H110" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I110" s="37">
+        <v>0</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I111" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D112" s="10">
-        <v>12</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="H112" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I112" s="58">
-        <v>0</v>
-      </c>
-      <c r="J112" s="58" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53" t="s">
-        <v>505</v>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" s="85" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I112" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>270</v>
+        <v>467</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="D113" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I113" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B114" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="61">
-        <v>6</v>
-      </c>
-      <c r="E114" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F114" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="G114" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="H114" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I114" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D115" s="38">
-        <v>12</v>
-      </c>
-      <c r="E115" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F115" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="H115" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I115" s="37">
-        <v>0</v>
-      </c>
-      <c r="J115" s="37" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" s="38">
-        <v>3</v>
-      </c>
-      <c r="E116" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="H116" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I116" s="37">
-        <v>0</v>
-      </c>
-      <c r="J116" s="37" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D117" s="38">
-        <v>3</v>
-      </c>
-      <c r="E117" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F117" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="H117" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I117" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="38">
-        <v>3</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F118" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="H118" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I118" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D119" s="38">
-        <v>6</v>
-      </c>
-      <c r="E119" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="G119" s="39" t="s">
-        <v>556</v>
-      </c>
-      <c r="H119" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I119" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J143" s="46"/>
-    </row>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="38"/>
+    </row>
+    <row r="116" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="10:10" s="33" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J145" s="46"/>
+    </row>
+    <row r="146" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="10:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0294F4C1-7245-9446-A6E0-A0E449222A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB63386-4DF0-45C8-A369-D35F81CC0712}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC30411-6DC8-D24B-AE17-5C950F4A9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="575">
   <si>
     <t>Program Key</t>
   </si>
@@ -183,16 +183,10 @@
     <t>CS_GEN_SCI</t>
   </si>
   <si>
-    <t>["PH_DEPT", "CH_DEPT", "BB_DEPT", "GE_DEPT"]</t>
-  </si>
-  <si>
     <t>CS_SCI_ENG</t>
   </si>
   <si>
     <t>Science/Engineering Electives</t>
-  </si>
-  <si>
-    <t>["BB_DEPT", "BME_DEPT", "CE_DEPT", "CH_DEPT", "CHE_DEPT", "ECE_DEPT", "ES_DEPT", "GE_DEPT", "ME_DEPT", "PH_DEPT", "RBE_DEPT"]</t>
   </si>
   <si>
     <t>OIE_MAJOR</t>
@@ -320,9 +314,6 @@
     <t>Humanities</t>
   </si>
   <si>
-    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
-  </si>
-  <si>
     <t>HUA_PROJ</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Social Science</t>
   </si>
   <si>
-    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313"]</t>
-  </si>
-  <si>
     <t>DS_MAJOR</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t xml:space="preserve">Mathematics </t>
   </si>
   <si>
-    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
-  </si>
-  <si>
     <t>ME_MABS</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>Other Courses - Programming</t>
   </si>
   <si>
-    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
-  </si>
-  <si>
     <t>ME_E</t>
   </si>
   <si>
@@ -521,9 +503,6 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>["BME_DEPT"]</t>
-  </si>
-  <si>
     <t>BME_P</t>
   </si>
   <si>
@@ -548,9 +527,6 @@
     <t>Supplementary Science</t>
   </si>
   <si>
-    <t>["BB_DEPT", "CH_DEPT", "PH_DEPT", "MA_DEPT", "CS_DEPT", "FY_DEPT"]</t>
-  </si>
-  <si>
     <t>BME_CP</t>
   </si>
   <si>
@@ -605,15 +581,9 @@
     <t>["BME_2211", "ME_3901"]</t>
   </si>
   <si>
-    <t>BME_2000_L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Engineering 2000+ </t>
   </si>
   <si>
-    <t>["BME_DEPT", "ES_DEPT_2000_L", "CE_DEPT_2000_L", "CHE_DEPT_2000_L", "ECE_DEPT_2000_L", "RBE_DEPT_2000_L", "ME_DEPT_2000_L", "ES_DEPT_3000_L", "CE_DEPT_3000_L", "CHE_DEPT_3000_L", "ECE_DEPT_3000_L", "RBE_DEPT_3000_L", "ME_DEPT_3000_L", "ES_DEPT_4000_L", "CE_DEPT_4000_L", "CHE_DEPT_4000_L", "ECE_DEPT_4000_L", "RBE_DEPT_4000_L", "ME_DEPT_4000_L"]</t>
-  </si>
-  <si>
     <t>BME_ED</t>
   </si>
   <si>
@@ -629,30 +599,12 @@
     <t>Labs</t>
   </si>
   <si>
-    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3605", "BME_3811", "BME_3813"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*these are 1/6 unit each though - how do we capture that? </t>
-  </si>
-  <si>
-    <t>BME_3000_L</t>
-  </si>
-  <si>
     <t>Engineering 3000+</t>
   </si>
   <si>
-    <t>["BME_DEPT", "ES_3???", "AE_3???", "AREN_3???", "CE_3???", "CHE_3???", "ECE_3???", "RBE_3???", "ME_3???"]</t>
-  </si>
-  <si>
-    <t>BME_4000_L</t>
-  </si>
-  <si>
     <t>BME 4000 depth</t>
   </si>
   <si>
-    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
-  </si>
-  <si>
     <t>*one can be grad level but one must be at 4000 level for some reason</t>
   </si>
   <si>
@@ -662,9 +614,6 @@
     <t>ECE_MATH</t>
   </si>
   <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
-  </si>
-  <si>
     <t>DS_MASTER</t>
   </si>
   <si>
@@ -776,9 +725,6 @@
     <t>ONE OF</t>
   </si>
   <si>
-    <t>[["PH_DEPT"], ["CH_DEPT"], ["BB_DEPT"], ["GE_DEPT"]]</t>
-  </si>
-  <si>
     <t>["CS_GEN_SCI"]</t>
   </si>
   <si>
@@ -788,9 +734,6 @@
     <t>CS_SOC_IMPS</t>
   </si>
   <si>
-    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "RBE_3100"]</t>
-  </si>
-  <si>
     <t>["CS_CORE", "SOC_SCI_REQ"]</t>
   </si>
   <si>
@@ -836,9 +779,6 @@
     <t>HUA_DEPTH</t>
   </si>
   <si>
-    <t>[["AR_DEPT", "TH_DEPT", "MUS_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
-  </si>
-  <si>
     <t>["HUA_CORE"]</t>
   </si>
   <si>
@@ -848,9 +788,6 @@
     <t>HUA_ART_MAX</t>
   </si>
   <si>
-    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT"]</t>
-  </si>
-  <si>
     <t>Breadth requirement</t>
   </si>
   <si>
@@ -965,45 +902,12 @@
     <t xml:space="preserve">currently not including the ES 3001 replacements because they cause things to move categories (like GOV for social imps) </t>
   </si>
   <si>
-    <t>ME_OTHER_ECE</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT MOST </t>
   </si>
   <si>
-    <t>["ECE_1799"]</t>
-  </si>
-  <si>
-    <t>["ME_ECE"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't take ECE 1799 for the ECE req (ECE 2010 preferred) </t>
-  </si>
-  <si>
-    <t>BME_BIO_2000_L</t>
-  </si>
-  <si>
-    <t>["BME_DEPT_2000_L"]</t>
-  </si>
-  <si>
-    <t>["BME_B"]</t>
-  </si>
-  <si>
-    <t>BME_ENGR_REST</t>
-  </si>
-  <si>
-    <t>["BME_1001", "BME_1004", "BME_3110", "RBE_3100", "CE_3022"]</t>
-  </si>
-  <si>
-    <t>["BME_2000_L", "BME_3000_L"]</t>
-  </si>
-  <si>
     <t>BME_BME</t>
   </si>
   <si>
-    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L", "BME_ED", "BME_L", "BME_3000_L", "BME_4000_L"]</t>
-  </si>
-  <si>
     <t>at least 27 credits of actual biomedical engineering classes within the engineering requirements</t>
   </si>
   <si>
@@ -1013,9 +917,6 @@
     <t>["BME_3012", "BME_3111", "BME_3503", "BME_3813"]</t>
   </si>
   <si>
-    <t>["BME_BME"]</t>
-  </si>
-  <si>
     <t>BME_STRESS_REST</t>
   </si>
   <si>
@@ -1025,15 +926,6 @@
     <t>BME_MAT_REST</t>
   </si>
   <si>
-    <t>BME_4000_4000</t>
-  </si>
-  <si>
-    <t>["BME_DEPT_500_L"]</t>
-  </si>
-  <si>
-    <t>["BME_4000_L"]</t>
-  </si>
-  <si>
     <t>DS_M_MATH_ANALYTICS</t>
   </si>
   <si>
@@ -1208,27 +1100,18 @@
     <t>Chem or Bio</t>
   </si>
   <si>
-    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
-  </si>
-  <si>
     <t>ECE_MATH_SCI_ELECT</t>
   </si>
   <si>
     <t>Math or Basic Science Electives</t>
   </si>
   <si>
-    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3457", "CS_4033", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
-  </si>
-  <si>
     <t>ECE_MATH_CORE</t>
   </si>
   <si>
     <t>["MA_1021", "MA_1022", "MA_2051", "MA_2621"]</t>
   </si>
   <si>
-    <t>["ECE_MATH"]</t>
-  </si>
-  <si>
     <t>ECE_COMP_ENG</t>
   </si>
   <si>
@@ -1253,9 +1136,6 @@
     <t xml:space="preserve">Engineering Electives </t>
   </si>
   <si>
-    <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2312", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4902", "ES_3011", "ECE_2029", "ECE_2049", "ECE_3829", "ECE_4801", "BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2311", "ECE_2799", "ECE_3501", "ECE_4902", "AE_DEPT_2000_L", "AE_DEPT_3000_L", "AE_DEPT_4000_L", "AE_DEPT_5000_L", "AREN_DEPT_2000_L", "AREN_DEPT_3000_L", "AREN_DEPT_4000_L", "AREN_DEPT_500_L", "BME_DEPT_2000_L", "BME_DEPT_3000_L", "BME_DEPT_4000_L", "BME_DEPT_500_L", "CE_DEPT_2000_L", "CE_DEPT_3000_L", "CE_DEPT_4000_L", "CE_DEPT_500_L", "CHE_DEPT_2000_L", "CHE_DEPT_3000_L", "CHE_DEPT_4000_L", "CHE_DEPT_500_L", "ES_DEPT_2000_L", "ES_DEPT_3000_L", "ES_DEPT_4000_L", "ES_DEPT_500_L", "FP_DEPT_2000_L", "FP_DEPT_3000_L", "FP_DEPT_4000_L", "FP_DEPT_500_L", "ME_DEPT_2000_L", "ME_DEPT_3000_L", "ME_DEPT_4000_L", "ME_DEPT_500_L", "ME_DEPT_5000_L", "RBE_DEPT_2000_L", "RBE_DEPT_3000_L", "RBE_DEPT_4000_L", "RBE_DEPT_500_L", "RBE_DEPT_5000_L"]</t>
-  </si>
-  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_2102", "CS_2103", "CS_2119", "CS_2223", "CS_2301", "CS_2303", "CS_3013", "CS_3041", "CS_3133", "CS_3431", "CS_3516", "CS_3733", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804"]</t>
   </si>
   <si>
@@ -1472,12 +1352,6 @@
     <t>["CS_3133", "CS_4120", "CS_4123", "CS_4533", "CS_4536", "CS_5003", "CS_5084", "CS_503", "CS_536", "CS_544", "CS_584"]</t>
   </si>
   <si>
-    <t>["CS 3041", "CS 3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
-  </si>
-  <si>
-    <t>["MA_DEPT", "MA_1020", "MA_1021", "MA_1022", "MA_1120", "CS_2022", "MA_2201", "MA_4603", "CS_4032", "MA_3257", "DS_4635", "MA_4635", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_2051", "MA_2073", "MA_2210", "MA_2431", "MA_2621", "MA_2631", "MA_3231", "MA_3233", "MA_3627", "MA_3631", "MA_4213", "MA_4214", "MA_4222", "MA_4235", "MA_4237", "MA_4631", "MA_4632", "DS_502", "MA_543", "MA_542", "MA_554", "MA_540", "MA_541", "MA_2071", "MA_2072", "MA_2611", "MA_2612"]</t>
-  </si>
-  <si>
     <t>["BCB_4002", "CS_4802", "BCB_4003", "CS_4803", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "CS_4099", "CS_4100", "IMGD_4100", "CS_4120", "CS_4123", "CS_4233", "CS_4241", "CS_4300", "IMGD_4300", "CS_4341", "CS_4342", "CS_4401", "CS_4404", "CS_4432", "CS_4433", "DS_4433", "CS_4445", "CS_4513", "CS_4515", "CS_4516", "CS_4518", "CS_4533", "CS_4536", "CS_4731", "CS_4732", "CS_4801", "ECE_4802", "CS_4804", "BCB_502", "CS_582", "BCB_503", "CS_583", "CS_502", "CS_503", "CS_504", "CS_509", "CS_513", "CS_514", "ECE_572", "CS_521", "CS_522", "MA_510", "CS_525", "CS_526", "RBE_526", "CS_528", "CS_529", "CS_533", "ECE_581", "CS_534", "CS_535", "CS_536", "CS_538", "CS_539", "CS_540", "CS_542", "CS_543", "CS_544", "CS_545", "ECE_545", "CS_546", "CS_548", "CS_549", "RBE_549", "CS_557", "CS_558", "CS_559", "CS_561", "CS_562", "CS_563", "CS_564", "CS_571", "CS_573", "CS_577", "ECE_577", "CS_578", "ECE_578", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "CS_673", "ECE_673", "CS_5003", "CS_5008", "CS_5084", "CS_541", "DS_541", "CS_547", "DS_547", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568"]</t>
   </si>
   <si>
@@ -1508,42 +1382,24 @@
     <t>at most 1 2000 systems class</t>
   </si>
   <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
-  </si>
-  <si>
     <t>Thermofluid Systems</t>
   </si>
   <si>
     <t>ME_ES_3001_EQ</t>
   </si>
   <si>
-    <t>['ES_3001', 'CH_3510', 'PH_2102']</t>
-  </si>
-  <si>
     <t>['ES_3003', 'ES_3004']</t>
   </si>
   <si>
     <t>need one of these three for intro to thermo</t>
   </si>
   <si>
-    <t xml:space="preserve">['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT', 'PH_2101', 'CH_3510'] </t>
-  </si>
-  <si>
-    <t>['CH_1010', 'PH_1110', 'PH_1120', 'CH_1020', 'PH_1111', 'PH_1121', 'PH_2101', 'CH_3510']</t>
-  </si>
-  <si>
     <t>['CH_1010', 'CH_1020', 'CH_3510']</t>
   </si>
   <si>
-    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121', 'PH_2101']</t>
-  </si>
-  <si>
     <t>["ME_BSCAP", "ME_E", "ME_MABS"]</t>
   </si>
   <si>
-    <t>not dealing with the level restrictions here really</t>
-  </si>
-  <si>
     <t xml:space="preserve">this cross restriction not really accounted for either </t>
   </si>
   <si>
@@ -1562,12 +1418,6 @@
     <t>mechanical systems core</t>
   </si>
   <si>
-    <t>["ECE_2010", "ECE_DEPT"]</t>
-  </si>
-  <si>
-    <t>['ES_3001', 'ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT',  'CE_DEPT',  'ECE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT', 'ECE_2010']</t>
-  </si>
-  <si>
     <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "CS_4801", "ECE_4802", "ECE_2010", "ECE_2019", "ECE_2029", "ECE_2049", "ECE_2112", "ECE_2201", "ECE_2305", "ECE_2311", "ECE_2312", "ECE_2799", "ECE_3012", "ECE_3113", "ECE_3204", "ECE_3308", "ECE_3311", "ECE_3500", "ECE_3501", "ECE_3829", "ECE_3849", "ECE_4305", "ECE_4503", "ECE_4703", "ECE_4801", "ECE_4902", "ECE_4904", "ES_3011"]</t>
   </si>
   <si>
@@ -1616,7 +1466,304 @@
     <t>["CS_5007", "CS_5008", "CS_598"]</t>
   </si>
   <si>
-    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501", "CS_568", "SEME_568"]</t>
+    <t>["BUS_500", "FIN_500", "FIN_503", "MIS_500", "MIS_571", "MIS_573", "MIS_576", "MIS_581", "MIS_583", "MIS_584", "MIS_585", "MIS_587", "MKT_568", "OBC_505", "OBC_506", "OIE_501", "OIE_542", "OIE_544", "OIE_552", "OIE_559", "CS_5007", "CS_5084", "CS_504", "CS_509", "CS_525", "CS_528", "CS_534", "CS_536", "CS_539", "CS_541", "DS_541", "CS_542", "CS_545", "CS_546", "CS_547", "DS_547", "CS_548", "CS_549", "CS_561", "CS_573", "CS_584", "CS_585", "DS_503", "CS_586", "DS_504", "MA_511", "MA_517", "DS_517", "MA_529", "MA_540", "MA_541", "MA_542", "MA_543", "DS_502", "MA_546", "MA_547", "MA_549", "MA_550", "MA_552", "MA_554", "MA_556", "CS_565", "SEME_565", "CS_566", "SEME_566", "CS_567", "SEME_567", "CS_568", "SEME_568", "PSY_505", "BCB_501", "BCB_502", "CS_582", "BCB_503", "CS_583", "BCB_504", "MA_584", "BME_595", "ECE_502", "ECE_503", "ECE_504", "ECE_578", "CS_578", "ECE_630", "ECE_673", "CS_673", "ECE_5311", "DS_501"]</t>
+  </si>
+  <si>
+    <t>["BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520"]</t>
+  </si>
+  <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895"]</t>
+  </si>
+  <si>
+    <t>["BCB_4004", "MA_4603", "CS_2022", "MA_2201", "CS_4032", "MA_3257", "CS_4033", "MA_3457", "DS_4635", "MA_4635", "MA_1020", "MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1033", "MA_1034", "MA_1120", "MA_1801", "MA_1971", "MA_2051", "MA_2071", "MA_2072", "MA_2073", "MA_2210", "MA_2211", "MA_2212", "MA_2251", "MA_2271", "MA_2273", "MA_2431", "MA_2610", "MA_2611", "MA_2612", "MA_2621", "MA_2631", "MA_3212", "MA_3213", "MA_3231", "MA_3233", "MA_3471", "MA_3475", "MA_3627", "MA_3631", "MA_3823", "MA_3825", "MA_3831", "MA_3832", "MA_4213", "MA_4214", "MA_4216", "MA_4222", "MA_4235", "MA_4237", "MA_4291", "MA_4411", "MA_4451", "MA_4473", "MA_4631", "MA_4632", "MA_4891", "MA_4892", "MA_4895",  "PH_1110", "PH_1111", "PH_1120", "PH_1121", "PH_1130", "PH_1140", "PH_1150", "PH_2101", "PH_2201", "PH_2202", "PH_2301", "PH_2501", "PH_2502", "PH_2510", "PH_2520", "PH_2540", "PH_2550", "AE_2550", "PH_2601", "PH_2651", "PH_3206", "PH_3301", "PH_3401", "PH_3402", "PH_3501", "PH_3502", "PH_3503", "PH_3504", "PH_4201", "PH_511",  "BB_1001", "BB_1002", "BB_1003", "BCB_1003", "BB_1025", "BB_1035", "BB_1045", "BB_2002", "BB_2003", "BB_2030", "BB_2040", "BB_2050", "BB_2550", "BB_2902",  "BB_2903", "BB_2904", "BB_2915", "BB_2917", "BB_2920", "BB_2950", "BB_3003", "BB_3010", "BCB_3010", "BB_3050", "BB_3080", "BB_3101", "BB_3102", "BB_3120", "BB_3140", "BB_3512", "BB_3513", "BB_3515", "BB_3517", "BB_3519", "BB_3521", "BB_3525", "BB_3526", "BB_3527", "BB_3530", "BB_3570", "BB_3620", "BB_3920", "BB_4150", "BB_4170", "CH_4170", "BB_4190", "CH_4190", "BB_4260", "BB_4801", "BCB_4001", "BB_4900", "CH_1010", "CH_1020", "CH_1030", "CH_1040", "CH_2310", "CH_2320", "CH_2330", "CH_2360", "CH_2640", "CH_2650", "CH_2660", "CH_2760", "CH_3310", "CH_3410", "CH_3510", "CH_3530", "CH_3550", "CH_4110", "CH_4120", "CH_4130", "CH_4140", "CH_4150", "CH_4160", "CH_4330", "CH_4420", "CH_4520", "GE_2341"]</t>
+  </si>
+  <si>
+    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT", "AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT", "EN_DEPT", "WR_DEPT", "HI_DEPT", "HU_DEPT", "INTL_DEPT", "PY_DEPT", "RE_DEPT", 'PY_2731', 'PY_2713', 'RE_2731']</t>
+  </si>
+  <si>
+    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT"]</t>
+  </si>
+  <si>
+    <t>[["AR_DEPT", "TH_DEPT", "MU_DEPT"], ["AB_DEPT", "CN_DEPT", "GN_DEPT", "SP_DEPT"], ["EN_DEPT", "WR_DEPT"], ["HI_DEPT", "HU_DEPT", "INTL_DEPT"], ["PY_DEPT", "RE_DEPT"]]</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023',  'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'CHE_2301', 'ME_2301', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2051', 'MA_2071']</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020', 'PH_1110', 'PH_1120']</t>
+  </si>
+  <si>
+    <t>['BME_1004', 'CS_1004', 'CS_1101', 'ME_2312', 'ME_4512']</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4322', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>['ES_3001', 'CH_3510', 'PH_2101']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_2101']</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_1020", "MA_1120", "MA_1033", "MA_1034", "MA_1801", "MA_1971"]</t>
+  </si>
+  <si>
+    <t>["CS_GEN_MATH"]</t>
+  </si>
+  <si>
+    <t>CS_MATH_1000L_REST</t>
+  </si>
+  <si>
+    <t>at most 4 1000 level math classes</t>
+  </si>
+  <si>
+    <t>[['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201'], ['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520'], ['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120',  'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900'], ['GE_2341']]</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CHE_1011', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'ME_1520', 'ME_1800', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815', 'RBE_1001']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>also includes the first year courses like GPS (FY_1100 and FY_1101) and FY_1800 but I think different GPS projects apply different places so I'll leave it as a course substitution with the IS form</t>
+  </si>
+  <si>
+    <t>RBE_MAJOR</t>
+  </si>
+  <si>
+    <t>RBE_MATH</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024", "MA_2051", "MA_2071", "MA_2621", "MA_2631"]</t>
+  </si>
+  <si>
+    <t>RBE_PHYS</t>
+  </si>
+  <si>
+    <t>["PH_1110", "PH_1111", "PH_1120", "PH_1121"]</t>
+  </si>
+  <si>
+    <t>RBE_SCI</t>
+  </si>
+  <si>
+    <t>Other Science</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>RBE_ETR</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>["ETR_1100", "ETR_3600"]</t>
+  </si>
+  <si>
+    <t>Should I put the other ETR classes in here? catalog unspecific, tracking sheet says /other</t>
+  </si>
+  <si>
+    <t>RBE_ROBO</t>
+  </si>
+  <si>
+    <t>Robotics Engineering</t>
+  </si>
+  <si>
+    <t>["RBE_1001", "RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002", "RBE_4322", "ME_4322", "RBE_4540", "RBE_4815"]</t>
+  </si>
+  <si>
+    <t>RBE_CS</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>["RBE_MATH"]</t>
+  </si>
+  <si>
+    <t>RBE_DIFF_EQS_LIN_ALG</t>
+  </si>
+  <si>
+    <t>["MA_2051", "MA_2071"]</t>
+  </si>
+  <si>
+    <t>RBE_CALC</t>
+  </si>
+  <si>
+    <t>["MA_1021", "MA_1022", "MA_1023", "MA_1024"]</t>
+  </si>
+  <si>
+    <t>RBE_PROB</t>
+  </si>
+  <si>
+    <t>RBE_RBE_CORE</t>
+  </si>
+  <si>
+    <t>["RBE_2001", "RBE_2002", "RBE_3001", "RBE_3002"]</t>
+  </si>
+  <si>
+    <t>["RBE_ROBO"]</t>
+  </si>
+  <si>
+    <t>there's some weird "or equivalent stuff going on here too"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suppose you could hypothetically substitute the theoretical calc III/IV and semester calc 1 and 2, but it's not specific </t>
+  </si>
+  <si>
+    <t>RBE_OBJ_OR</t>
+  </si>
+  <si>
+    <t>["CS_2102"]</t>
+  </si>
+  <si>
+    <t>does this mean you could take CS_4233 - obj-oriented analysis and design? it's so unspecific</t>
+  </si>
+  <si>
+    <t>["RBE_CS"]</t>
+  </si>
+  <si>
+    <t>RBE_SOFT_ENG</t>
+  </si>
+  <si>
+    <t>["CS_3733"]</t>
+  </si>
+  <si>
+    <t>RBE_ECE</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799']</t>
+  </si>
+  <si>
+    <t>RBE_EMB_SYS</t>
+  </si>
+  <si>
+    <t>["ECE_2049"]</t>
+  </si>
+  <si>
+    <t>["RBE_ECE"]</t>
+  </si>
+  <si>
+    <t>RBE_ES_STATICS</t>
+  </si>
+  <si>
+    <t>Engineering Science - Statics</t>
+  </si>
+  <si>
+    <t>["ES_2501"]</t>
+  </si>
+  <si>
+    <t>RBE_ES_CONTROLS</t>
+  </si>
+  <si>
+    <t>Engineering Science - Controls</t>
+  </si>
+  <si>
+    <t>["ES_3011", "ES_3012", "ME_3703", "AE_2310"]</t>
+  </si>
+  <si>
+    <t>again differing courses on tracking sheet and catalog</t>
+  </si>
+  <si>
+    <t>RBE_ENG_ELECT</t>
+  </si>
+  <si>
+    <t>Engineering Science and Design Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what even goes here? is it any engineering elective? everything in this major is so unclear for no reason </t>
+  </si>
+  <si>
+    <t>RBE_4000</t>
+  </si>
+  <si>
+    <t>["RBE_ENG_ELECT"]</t>
+  </si>
+  <si>
+    <t>["CS_3041", "CS_3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
+  </si>
+  <si>
+    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313", "ID_2314"]</t>
+  </si>
+  <si>
+    <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "IMGD_2001", "RBE_3100"]</t>
+  </si>
+  <si>
+    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815', ]</t>
+  </si>
+  <si>
+    <t>["BME_3012", "BME_3013", "BME_3014", "BME_3503", "BME_3505", "BME_3506", "BME_3605", "BME_3811", "BME_3813"]</t>
+  </si>
+  <si>
+    <t>1/6 unit each</t>
+  </si>
+  <si>
+    <t>['BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CS_4801', 'ECE_4802', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_4322', 'ME_4322', 'RBE_3001', 'RBE_3002', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>["BME_4011", "ECE_4011", "BME_4023", "ECE_4023", "BME_4201", "BME_4300", "BME_4503", "BME_4504", "ME_4504", "BME_4606", "ME_4606", "BME_4701", "BME_4814", "ME_4814", "BME_4828", "BME_4831"]</t>
+  </si>
+  <si>
+    <t>tracking sheet says + AE, AREN, but catalog does not include these?</t>
+  </si>
+  <si>
+    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004']</t>
+  </si>
+  <si>
+    <t>["BME_520", "RBE_520", "BME_523", "BME_330", "ME_5359", "MTE_559", "BME_531", "BME_532", "BME_533", "ME_5503", "BME_535", "BME_553", "BME_555", "BME_560", "BME_562", "BME_564", "BME_580", "RBE_580", "ME_5205", "BME_581", "BME_583", "BME_591", "BME_592", "BME_593", "BME_594", "BME_595", "BME_596", "BME_597", "BME_598", "BME_599", "BME_698"]</t>
+  </si>
+  <si>
+    <t>BME_GRAD_REST</t>
+  </si>
+  <si>
+    <t>BME_2000_L_ENG</t>
+  </si>
+  <si>
+    <t>BME_3000_L_ENG</t>
+  </si>
+  <si>
+    <t>BME_4000_L_BME</t>
+  </si>
+  <si>
+    <t>["BME_BIOMECH", "BME_BIOMAT", "BME_BIOINS", "BME_A", "BME_2000_L_ENG", "BME_ED", "BME_L", "BME_3000_L_ENG", "BME_4000_L_BME"]</t>
+  </si>
+  <si>
+    <t>["BME_4000_L_BME", "BME_2000_L_ENG", "BME_3000_L_ENG"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2135,7 +2282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,9 +2410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2308,28 +2452,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2360,7 +2489,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2680,26 +2815,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2856,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2877,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2762,7 +2898,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +2919,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2940,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2961,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2982,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +3003,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -2884,7 +3020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +3037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="288" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2915,10 +3051,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
@@ -2935,7 +3071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -2952,7 +3088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -2965,11 +3101,11 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="74" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
@@ -2982,118 +3118,119 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="205" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="23">
         <v>6</v>
       </c>
       <c r="D16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="86"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -3102,15 +3239,15 @@
         <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -3119,321 +3256,321 @@
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C26" s="5">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5">
         <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="C32" s="30">
         <v>15</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
     </row>
-    <row r="34" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="9">
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C37" s="5">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="5">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="26">
         <v>3</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="28"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="26">
         <v>3</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="28"/>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C41" s="26">
         <v>6</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>44</v>
@@ -3442,820 +3579,823 @@
       <c r="H41" s="28"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="26">
         <v>3</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="28"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="26">
         <v>3</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="28"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" s="5">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="32" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45" s="34">
         <v>6</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71" t="s">
-        <v>208</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70" t="s">
+        <v>191</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C46" s="30">
         <v>45</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="71" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="71" t="s">
-        <v>130</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="70" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70" t="s">
+        <v>126</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C47" s="30">
         <v>9</v>
       </c>
-      <c r="D47" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5">
         <v>18</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="354" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="77" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C51" s="5">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C56" s="34">
         <v>15</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>508</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C57" s="5">
         <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="275" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C67" s="5">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>569</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C70" s="5">
         <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>196</v>
+        <v>561</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="253" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
       <c r="C71" s="5">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>201</v>
+        <v>571</v>
       </c>
       <c r="C72" s="34">
         <v>6</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>203</v>
+        <v>564</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C73" s="5">
         <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="181.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="32" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C80" s="34">
         <v>45</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="78" t="s">
-        <v>214</v>
+        <v>193</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>197</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="81" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="B81" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" s="83">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="75" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="75" t="s">
+        <v>468</v>
+      </c>
+      <c r="B81" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="C81" s="77">
         <v>45</v>
       </c>
-      <c r="D81" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="82" t="s">
-        <v>520</v>
-      </c>
-      <c r="F81" s="81" t="s">
-        <v>216</v>
+      <c r="D81" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>199</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C82" s="5">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C83" s="5">
         <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C84" s="5">
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C85" s="26">
         <v>3</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G85" s="39"/>
       <c r="H85" s="28"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C86" s="26">
         <v>3</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G86" s="39"/>
       <c r="H86" s="28"/>
       <c r="I86" s="26"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C87" s="26">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>44</v>
@@ -4264,112 +4404,288 @@
       <c r="H87" s="28"/>
       <c r="I87" s="26"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G88" s="39"/>
       <c r="H88" s="28"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G89" s="39"/>
       <c r="H89" s="28"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" s="5">
         <v>6</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="32" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C91" s="34">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="71" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C93" s="30">
         <v>45</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>525</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="70" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C94" s="30">
+        <v>21</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C96" s="5">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C97" s="5">
+        <v>3</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="5">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C99" s="5">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C100" s="5">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" s="5">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4383,207 +4699,208 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="40" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="37" customWidth="1"/>
     <col min="9" max="9" width="13" style="37" customWidth="1"/>
-    <col min="10" max="10" width="97.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="48.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="62">
+      <c r="B2" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="61">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>227</v>
+      <c r="E2" s="58" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="67">
+        <v>0</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D3" s="38">
         <v>3</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I3" s="37">
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D4" s="38">
         <v>7.5</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="68">
-        <v>0</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="67">
+        <v>0</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="62">
+      <c r="B5" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="61">
         <v>15</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>227</v>
+      <c r="E5" s="58" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="59">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>245</v>
+        <v>227</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>497</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
@@ -4592,10 +4909,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -4603,31 +4920,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
@@ -4635,31 +4952,31 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -4667,3281 +4984,3455 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="91">
+        <v>209</v>
+      </c>
+      <c r="D10" s="85">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="91">
+        <v>287</v>
+      </c>
+      <c r="D11" s="85">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" s="91">
+        <v>287</v>
+      </c>
+      <c r="D12" s="85">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="85">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="63">
-        <v>3</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="60">
-        <v>0</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>252</v>
-      </c>
       <c r="C14" s="59" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D14" s="62">
         <v>3</v>
       </c>
       <c r="E14" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="61">
+        <v>3</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="61">
+        <v>9</v>
+      </c>
+      <c r="E19" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="38">
-        <v>3</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="62">
-        <v>9</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="59">
+      <c r="F19" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="58">
         <v>2</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I19" s="58">
         <v>5</v>
       </c>
-      <c r="J18" s="59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="38">
-        <v>12</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>90</v>
+      <c r="J19" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D20" s="38">
         <v>12</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I20" s="37">
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D21" s="38">
         <v>12</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I21" s="37">
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D22" s="38">
         <v>12</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I22" s="37">
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="47">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="38">
+        <v>12</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="47">
         <v>3</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="46">
-        <v>0</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="51" customFormat="1" ht="129.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="64">
+      <c r="E24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" s="46">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="50" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="63">
         <v>12</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="38">
-        <v>3</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>101</v>
+      <c r="E25" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="42">
+        <v>0</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I26" s="37">
         <v>0</v>
       </c>
-      <c r="J26" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="J26" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="38">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>384</v>
+      <c r="E27" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="26">
-        <v>0</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="38">
+        <v>265</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="26">
         <v>3</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>292</v>
+      <c r="E28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" s="39">
-        <v>0</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="47">
+        <v>369</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="38">
         <v>3</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29" s="37" t="str">
-        <f>IF(C29="AT LEAST", "1a", "1b")</f>
+      <c r="E29" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="47">
+        <v>3</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="37" t="str">
+        <f>IF(C30="AT LEAST", "1a", "1b")</f>
         <v>1b</v>
       </c>
-      <c r="I29" s="46">
-        <f>IF(H29=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="38">
-        <v>3</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="H30" s="42" t="str">
-        <f>IF(C30="AT LEAST", "1a", "1b")</f>
-        <v>1a</v>
-      </c>
-      <c r="I30" s="37">
-        <v>0</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>130</v>
+      <c r="I30" s="46">
+        <f>IF(H30=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="42" t="str">
+        <f>IF(C31="AT LEAST", "1a", "1b")</f>
+        <v>1a</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="38">
+        <v>3</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="38">
+        <v>9</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="G31" s="39" t="s">
+      <c r="G33" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="44">
+        <v>6</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="37">
+        <v>0</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="61">
+        <v>27</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="58">
+        <v>0</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="38">
+        <v>3</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="47">
+        <v>3</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="46">
+        <v>0</v>
+      </c>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="38">
+        <v>12</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="38">
+        <v>6</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="38">
+        <v>9</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="58">
+        <v>0</v>
+      </c>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I31" s="37">
-        <v>0</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="37" t="s">
+      <c r="C46" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="38">
-        <v>9</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" s="37">
-        <v>0</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="44">
-        <v>6</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="62">
-        <v>3</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I36" s="59">
-        <v>0</v>
-      </c>
-      <c r="J36" s="59"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="38">
-        <v>27</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D40" s="38">
-        <v>3</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I40" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D41" s="38">
-        <v>3</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" s="47">
-        <v>3</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I42" s="46">
-        <v>0</v>
-      </c>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="38">
-        <v>12</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="38">
-        <v>6</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I44" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="38">
-        <v>9</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I45" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I46" s="59">
-        <v>0</v>
-      </c>
-      <c r="J46" s="59"/>
-    </row>
-    <row r="47" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>334</v>
-      </c>
       <c r="C47" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D47" s="38">
         <v>4.5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I47" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D48" s="38">
+    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" s="27">
         <v>4.5</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="38">
+      <c r="E48" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="26">
+        <v>0</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="27">
         <v>4.5</v>
       </c>
-      <c r="E49" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D50" s="27">
         <v>4.5</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I50" s="26">
         <v>0</v>
       </c>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D51" s="27">
         <v>4.5</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I51" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D52" s="27">
         <v>4.5</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I52" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D53" s="27">
         <v>4.5</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I53" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D54" s="27">
         <v>4.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I54" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D55" s="27">
         <v>4.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I55" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D56" s="27">
         <v>4.5</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I56" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D57" s="27">
         <v>4.5</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G57" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="81">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="82">
+        <v>0</v>
+      </c>
+      <c r="J58" s="59"/>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="5">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="32">
+        <v>0</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="68">
+        <v>4.5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" s="37">
+        <v>0</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" t="s">
         <v>342</v>
       </c>
-      <c r="H57" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I57" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I58" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I59" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="C60" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="D60" s="87">
-        <v>4.5</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="H60" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="I60" s="88">
-        <v>0</v>
-      </c>
-      <c r="J60" s="60"/>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D62" s="5">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="I63" s="32">
-        <v>0</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>291</v>
+      <c r="C64" t="s">
+        <v>270</v>
       </c>
       <c r="D64" s="69">
         <v>4.5</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>343</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="69">
+        <v>13.5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="69">
+        <v>13.5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="79" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" s="59">
+        <v>0</v>
+      </c>
+      <c r="J67" s="59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A68" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="63">
+        <v>12</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I68" s="42">
+        <v>0</v>
+      </c>
+      <c r="J68" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="38">
+        <v>3</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="37">
+        <v>0</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="38">
+        <v>3</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="37">
+        <v>0</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="26">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G71" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I65" s="37">
-        <v>0</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>518</v>
-      </c>
-      <c r="B66" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="70">
-        <v>4.5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>227</v>
-      </c>
-      <c r="F66" t="s">
-        <v>379</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H66" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C67" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="70">
-        <v>13.5</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" s="70">
-        <v>13.5</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="85" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>519</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="I69" s="60">
-        <v>0</v>
-      </c>
-      <c r="J69" s="60" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="51" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="64">
-        <v>12</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="G70" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I70" s="42">
-        <v>0</v>
-      </c>
-      <c r="J70" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="38">
-        <v>3</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I71" s="37">
-        <v>0</v>
-      </c>
-      <c r="J71" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H71" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I71" s="26">
+        <v>0</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>240</v>
+        <v>269</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>270</v>
       </c>
       <c r="D72" s="38">
         <v>3</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>227</v>
+      <c r="E72" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" s="37">
-        <v>0</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" s="39">
+        <v>0</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="26">
+        <v>368</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="27">
         <v>3</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>282</v>
+      <c r="E73" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>241</v>
+        <v>275</v>
+      </c>
+      <c r="G73" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="26" t="str">
+        <f>IF(C73="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
       </c>
       <c r="I73" s="26">
-        <v>0</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF(H73=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="D74" s="38">
-        <v>3</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>282</v>
+        <v>4.5</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I74" s="39">
-        <v>0</v>
-      </c>
-      <c r="J74" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I74" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="27">
-        <v>3</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G75" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="H75" s="26" t="str">
-        <f>IF(C75="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I75" s="26">
-        <f>IF(H75=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="37" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I75" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D76" s="38">
         <v>4.5</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I76" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D77" s="38">
         <v>4.5</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I77" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D78" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="I78" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D79" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="I79" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D80" s="38">
         <v>3</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D81" s="38">
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="C83" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I83" s="37">
+        <v>0</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F84" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I84" s="37">
+        <v>0</v>
+      </c>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="D83" s="38">
-        <v>3</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H83" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I83" s="37">
-        <v>0</v>
-      </c>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D84" s="38">
-        <v>3</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="G84" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H84" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I84" s="37">
-        <v>0</v>
-      </c>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>340</v>
-      </c>
       <c r="C85" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D85" s="38">
         <v>4.5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I85" s="37">
         <v>0</v>
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D86" s="38">
         <v>4.5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I86" s="37">
         <v>0</v>
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D87" s="38">
         <v>4.5</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I87" s="37">
         <v>0</v>
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D88" s="38">
         <v>4.5</v>
       </c>
       <c r="E88" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I88" s="37">
         <v>0</v>
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D89" s="38">
         <v>4.5</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I89" s="37">
         <v>0</v>
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D90" s="38">
         <v>4.5</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I90" s="37">
         <v>0</v>
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D91" s="38">
         <v>4.5</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I91" s="37">
         <v>0</v>
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D92" s="38">
         <v>4.5</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I92" s="37">
         <v>0</v>
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D93" s="38">
         <v>4.5</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I93" s="37">
         <v>0</v>
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D94" s="38">
         <v>4.5</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I94" s="37">
         <v>0</v>
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D95" s="38">
         <v>4.5</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I95" s="37">
         <v>0</v>
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D96" s="38">
         <v>4.5</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D97" s="38">
         <v>4.5</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I97" s="37">
         <v>0</v>
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" s="38">
+    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="69">
         <v>4.5</v>
       </c>
-      <c r="E98" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>434</v>
+      <c r="E98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H98" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I98" s="37">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="28" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="H98" t="s">
+        <v>213</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D99" s="38">
         <v>4.5</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I99" s="37">
         <v>0</v>
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>408</v>
-      </c>
-      <c r="B100" t="s">
-        <v>361</v>
-      </c>
-      <c r="C100" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="70">
+    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="38">
         <v>4.5</v>
       </c>
-      <c r="E100" t="s">
-        <v>282</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>362</v>
+      <c r="E100" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>400</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H100" t="s">
-        <v>230</v>
-      </c>
-      <c r="I100">
+        <v>424</v>
+      </c>
+      <c r="H100" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="37">
         <v>0</v>
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="54" t="s">
-        <v>408</v>
+    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D101" s="38">
         <v>4.5</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I101" s="37">
         <v>0</v>
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="54" t="s">
-        <v>408</v>
+    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D102" s="38">
         <v>4.5</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I102" s="37">
         <v>0</v>
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="54" t="s">
-        <v>408</v>
+    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D103" s="38">
         <v>4.5</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I103" s="37">
         <v>0</v>
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="54" t="s">
-        <v>408</v>
+    <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D104" s="38">
         <v>4.5</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I104" s="37">
         <v>0</v>
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="54" t="s">
+    <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="B105" s="37" t="s">
-        <v>445</v>
-      </c>
       <c r="C105" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D105" s="38">
         <v>4.5</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I105" s="37">
         <v>0</v>
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="54" t="s">
-        <v>408</v>
+    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D106" s="38">
         <v>4.5</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I106" s="37">
         <v>0</v>
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="54" t="s">
-        <v>408</v>
+    <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D107" s="38">
         <v>4.5</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I107" s="37">
         <v>0</v>
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="54" t="s">
-        <v>408</v>
+    <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D108" s="38">
         <v>4.5</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I108" s="37">
         <v>0</v>
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="54" t="s">
-        <v>408</v>
+    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D109" s="38">
         <v>4.5</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I109" s="37">
         <v>0</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="38">
+        <v>368</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="62">
         <v>4.5</v>
       </c>
-      <c r="E110" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F110" s="39" t="s">
-        <v>452</v>
+      <c r="E110" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>416</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H110" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I110" s="37">
-        <v>0</v>
-      </c>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="54" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I110" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I111" s="37">
         <v>0</v>
       </c>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" s="85" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="B112" s="60" t="s">
-        <v>455</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="D112" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="E112" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="F112" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="G112" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H112" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="I112" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="54" t="s">
-        <v>408</v>
+    </row>
+    <row r="112" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="10">
+        <v>12</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="H112" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I112" s="58">
+        <v>0</v>
+      </c>
+      <c r="J112" s="58" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="53" t="s">
+        <v>505</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>226</v>
+        <v>527</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="D113" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>468</v>
+        <v>41</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I113" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="38"/>
-    </row>
-    <row r="116" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="10:10" s="33" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J145" s="46"/>
-    </row>
-    <row r="146" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="10:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="10:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="57.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="61">
+        <v>6</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H114" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I114" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D115" s="38">
+        <v>12</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F115" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="G115" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="H115" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I115" s="37">
+        <v>0</v>
+      </c>
+      <c r="J115" s="37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" s="38">
+        <v>3</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H116" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I116" s="37">
+        <v>0</v>
+      </c>
+      <c r="J116" s="37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="38">
+        <v>3</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I117" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="38">
+        <v>3</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G118" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="H118" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I118" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" s="38">
+        <v>6</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="H119" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I119" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="46"/>
+    </row>
+    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC30411-6DC8-D24B-AE17-5C950F4A9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE274CD-B513-A94F-9748-691B58947BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="593">
   <si>
     <t>Program Key</t>
   </si>
@@ -1022,27 +1022,15 @@
     <t>["DS_517", "MA_517"]</t>
   </si>
   <si>
-    <t>RBE_MS_FOUNDATIONS</t>
-  </si>
-  <si>
     <t>["RBE_500", "RBE_501", "ME_501", "RBE_502"]</t>
   </si>
   <si>
     <t>["RBE_MS_TOTAL_CREDITS"]</t>
   </si>
   <si>
-    <t>Foundations Req for RBE MS</t>
-  </si>
-  <si>
     <t>RBE_MS_CORE_ELECTIVES</t>
   </si>
   <si>
-    <t>["BME_520", "RBE_520", "BME_580", "RBE_580", "ME_5205", "CS_526", "RBE_526", "CS_549", "RBE_549", "ME_521", "RBE_521", "ME_530", "RBE_530", "RBE_510", "ME_5204", "RBE_521", "ME_521", "RBE_522", "RBE_526", "CS_526", "RBE_530", "ME_530", "RBE_533", "RBE_549", "CS_549", "RBE_550", "RBE_597"]</t>
-  </si>
-  <si>
-    <t>Core Robotics Engineering Electives for RBE MS</t>
-  </si>
-  <si>
     <t>RBE_MS_CTXT</t>
   </si>
   <si>
@@ -1764,6 +1752,72 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BME_ODE</t>
+  </si>
+  <si>
+    <t>["BME_M"]</t>
+  </si>
+  <si>
+    <t>BME_STATS</t>
+  </si>
+  <si>
+    <t>["MA_2610", "MA_2611"]</t>
+  </si>
+  <si>
+    <t>BME_BIO_2000</t>
+  </si>
+  <si>
+    <t>['BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>["BME_SS", "BME_B"]</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>RBE_MASTER</t>
+  </si>
+  <si>
+    <t>RBE_MS_FOUND</t>
+  </si>
+  <si>
+    <t>["ME_501", "RBE_501"]</t>
+  </si>
+  <si>
+    <t>RBE_MS_FOUND_CR</t>
+  </si>
+  <si>
+    <t>RBE_THESIS_CAP</t>
+  </si>
+  <si>
+    <t>["RBE_599"]</t>
+  </si>
+  <si>
+    <t>RBE_CAPSTONE</t>
+  </si>
+  <si>
+    <t>Capstone Requirement</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>Core Robotics Electives</t>
+  </si>
+  <si>
+    <t>Foundations of Robotics</t>
+  </si>
+  <si>
+    <t>Cross Restriction for Robot Dynamics</t>
+  </si>
+  <si>
+    <t>["RBE_594", "RBE_596", "RBE_598", "RBE_599"]</t>
+  </si>
+  <si>
+    <t>["BME_520", "RBE_520", "BME_580", "RBE_580", "ME_5205", "CS_526", "RBE_526", "CS_549", "RBE_549", "ME_521", "RBE_521", "ME_530", "RBE_530", "RBE_510", "ME_5204", "RBE_522", "RBE_533", "RBE_550", "RBE_597"]</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2452,9 +2506,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2493,9 +2544,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2817,9 +2865,9 @@
   </sheetPr>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3051,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3102,7 +3150,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="216" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3167,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="205" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3136,9 +3184,9 @@
         <v>49</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>494</v>
+      </c>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3412,7 +3460,7 @@
         <v>90</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -3465,7 +3513,7 @@
         <v>96</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -3499,7 +3547,7 @@
         <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3564,7 @@
         <v>104</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3632,7 +3680,7 @@
       <c r="D44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3650,7 +3698,7 @@
         <v>125</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -3683,8 +3731,8 @@
       <c r="D47" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="74" t="s">
-        <v>485</v>
+      <c r="E47" s="73" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,7 +3749,7 @@
         <v>130</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="354" customHeight="1" x14ac:dyDescent="0.2">
@@ -3718,7 +3766,7 @@
         <v>132</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3735,7 +3783,7 @@
         <v>134</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3749,13 +3797,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3837,7 @@
         <v>140</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3823,10 +3871,10 @@
         <v>145</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="32" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -3843,7 +3891,7 @@
         <v>147</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,7 +3925,7 @@
         <v>153</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,7 +3942,7 @@
         <v>155</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,7 +3959,7 @@
         <v>158</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="275" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,10 +3976,10 @@
         <v>161</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4041,7 +4089,7 @@
         <v>148</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
@@ -4050,7 +4098,7 @@
         <v>180</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4084,10 +4132,10 @@
         <v>185</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="253" customHeight="1" x14ac:dyDescent="0.2">
@@ -4095,7 +4143,7 @@
         <v>148</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C71" s="5">
         <v>6</v>
@@ -4103,11 +4151,11 @@
       <c r="D71" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="87" t="s">
-        <v>563</v>
+      <c r="E71" s="86" t="s">
+        <v>559</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,7 +4163,7 @@
         <v>148</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C72" s="34">
         <v>6</v>
@@ -4124,7 +4172,7 @@
         <v>187</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>188</v>
@@ -4144,7 +4192,7 @@
         <v>150</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4152,7 +4200,7 @@
         <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C74" s="5">
         <v>6</v>
@@ -4161,7 +4209,7 @@
         <v>155</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,16 +4217,16 @@
         <v>189</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -4186,16 +4234,16 @@
         <v>189</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C76" s="5">
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -4203,16 +4251,16 @@
         <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C77" s="5">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -4221,7 +4269,7 @@
         <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4230,7 +4278,7 @@
         <v>125</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -4238,16 +4286,16 @@
         <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
@@ -4263,39 +4311,39 @@
       <c r="D80" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="72" t="s">
         <v>197</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="75" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="B81" s="76" t="s">
-        <v>471</v>
-      </c>
-      <c r="C81" s="77">
+    <row r="81" spans="1:9" s="74" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="C81" s="76">
         <v>45</v>
       </c>
-      <c r="D81" s="78" t="s">
+      <c r="D81" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="F81" s="75" t="s">
+      <c r="E81" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="F81" s="74" t="s">
         <v>199</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -4312,7 +4360,7 @@
     </row>
     <row r="83" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>101</v>
@@ -4324,12 +4372,12 @@
         <v>102</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>103</v>
@@ -4341,12 +4389,12 @@
         <v>104</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>105</v>
@@ -4366,7 +4414,7 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>108</v>
@@ -4386,7 +4434,7 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>111</v>
@@ -4406,7 +4454,7 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>113</v>
@@ -4426,7 +4474,7 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>118</v>
@@ -4446,7 +4494,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>121</v>
@@ -4457,13 +4505,13 @@
       <c r="D90" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="71" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="32" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>124</v>
@@ -4475,29 +4523,29 @@
         <v>125</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C92" s="5">
         <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="70" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>192</v>
@@ -4509,15 +4557,15 @@
         <v>193</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="70" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="70" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C94" s="30">
         <v>21</v>
@@ -4526,15 +4574,15 @@
         <v>150</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C95" s="5">
         <v>6</v>
@@ -4543,69 +4591,69 @@
         <v>155</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C96" s="5">
         <v>6</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C97" s="5">
         <v>3</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C98" s="5">
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -4614,78 +4662,78 @@
         <v>125</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C100" s="5">
         <v>6</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C101" s="5">
         <v>3</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C102" s="5">
         <v>3</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C103" s="5">
         <v>3</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4699,11 +4747,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4865,10 +4913,10 @@
         <v>210</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H5" s="61" t="s">
         <v>224</v>
@@ -4897,7 +4945,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>228</v>
@@ -4929,10 +4977,10 @@
         <v>210</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>224</v>
@@ -4941,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4961,10 +5009,10 @@
         <v>210</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>224</v>
@@ -4973,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4993,10 +5041,10 @@
         <v>210</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>224</v>
@@ -5005,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5013,22 +5061,22 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="84">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>213</v>
@@ -5045,22 +5093,22 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="84">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>213</v>
@@ -5069,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5077,22 +5125,22 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="84">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>213</v>
@@ -5101,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -5109,22 +5157,22 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="84">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>213</v>
@@ -5133,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,7 +5201,7 @@
         <v>210</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>231</v>
@@ -5313,7 +5361,7 @@
         <v>227</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>246</v>
@@ -5345,7 +5393,7 @@
         <v>210</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>246</v>
@@ -5505,7 +5553,7 @@
         <v>261</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>262</v>
@@ -5537,7 +5585,7 @@
         <v>210</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>265</v>
@@ -5569,7 +5617,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>265</v>
@@ -5601,10 +5649,10 @@
         <v>261</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>224</v>
@@ -5699,7 +5747,7 @@
         <v>261</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>279</v>
@@ -5712,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5732,7 +5780,7 @@
         <v>261</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>279</v>
@@ -5744,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5776,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5796,7 +5844,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>285</v>
@@ -5816,7 +5864,7 @@
         <v>126</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>223</v>
@@ -5828,10 +5876,10 @@
         <v>261</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>224</v>
@@ -5840,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
@@ -5857,13 +5905,13 @@
         <v>27</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H36" s="58" t="s">
         <v>224</v>
@@ -5875,24 +5923,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
         <v>148</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>290</v>
+        <v>571</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>223</v>
       </c>
       <c r="D37" s="38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>291</v>
+        <v>210</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G37" s="41" t="s">
         <v>572</v>
@@ -5903,233 +5951,252 @@
       <c r="I37" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>292</v>
+        <v>573</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="D38" s="38">
         <v>3</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" s="41" t="s">
         <v>572</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I38" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>294</v>
+        <v>575</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="D39" s="38">
         <v>3</v>
       </c>
       <c r="E39" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="38">
+        <v>3</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="38">
+        <v>3</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A43" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="47">
+        <v>3</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="46">
+        <v>0</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="38">
+        <v>12</v>
+      </c>
+      <c r="E44" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>568</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="47">
-        <v>3</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>567</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>573</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="46">
-        <v>0</v>
-      </c>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="F44" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="B45" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="38">
-        <v>12</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="38">
+      <c r="D45" s="38">
         <v>6</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="38">
-        <v>9</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" s="58">
-        <v>0</v>
-      </c>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="38">
-        <v>4.5</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>224</v>
@@ -6138,27 +6205,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D46" s="38">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>301</v>
+      <c r="F46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>224</v>
@@ -6167,120 +6234,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="58">
+        <v>0</v>
+      </c>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C50" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D50" s="38">
         <v>4.5</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E50" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F50" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G50" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H50" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="I47" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="26">
+      <c r="I50" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6289,7 +6356,7 @@
         <v>191</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>287</v>
@@ -6301,7 +6368,7 @@
         <v>261</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>306</v>
@@ -6312,13 +6379,14 @@
       <c r="I51" s="26">
         <v>0</v>
       </c>
+      <c r="J51"/>
     </row>
     <row r="52" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>287</v>
@@ -6330,7 +6398,7 @@
         <v>261</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>306</v>
@@ -6342,12 +6410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>287</v>
@@ -6359,7 +6427,7 @@
         <v>261</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>306</v>
@@ -6371,12 +6439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>287</v>
@@ -6388,7 +6456,7 @@
         <v>261</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>306</v>
@@ -6405,7 +6473,7 @@
         <v>191</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>287</v>
@@ -6417,7 +6485,7 @@
         <v>261</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>306</v>
@@ -6429,12 +6497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>287</v>
@@ -6446,7 +6514,7 @@
         <v>261</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>306</v>
@@ -6458,12 +6526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>287</v>
@@ -6475,7 +6543,7 @@
         <v>261</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>306</v>
@@ -6487,153 +6555,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="80" t="s">
+    <row r="58" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I59" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="C58" s="80" t="s">
+      <c r="C61" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="81">
+      <c r="D61" s="80">
         <v>4.5</v>
       </c>
-      <c r="E58" s="82" t="s">
+      <c r="E61" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F61" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="G58" s="82" t="s">
+      <c r="G61" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="H58" s="82" t="s">
+      <c r="H61" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="82">
-        <v>0</v>
-      </c>
-      <c r="J58" s="59"/>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="I61" s="81">
+        <v>0</v>
+      </c>
+      <c r="J61" s="59"/>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="G62" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="5">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A61" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I61" s="32">
-        <v>0</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="68">
-        <v>4.5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>224</v>
@@ -6641,127 +6700,127 @@
       <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="C63" s="37" t="s">
+      <c r="J62" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D64" s="5">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="5">
         <v>4.5</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I63" s="37">
-        <v>0</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>468</v>
-      </c>
-      <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
-      <c r="D64" s="69">
-        <v>4.5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" t="s">
-        <v>343</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="H64" t="s">
-        <v>224</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C65" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="69">
-        <v>13.5</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>339</v>
+      <c r="F65" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
-      <c r="J65" s="37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J65" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="69">
+        <v>579</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="5">
         <v>13.5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>339</v>
+        <v>210</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>213</v>
@@ -6769,95 +6828,95 @@
       <c r="I66" s="1">
         <v>0</v>
       </c>
-      <c r="J66" s="37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="79" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="C67" s="59" t="s">
+      <c r="J66" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A67" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="D67" s="62">
+      <c r="D67" s="34">
         <v>4.5</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="E67" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F67" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="H67" s="59" t="s">
+      <c r="F67" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="H67" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="I67" s="59">
-        <v>0</v>
-      </c>
-      <c r="J67" s="59" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A68" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="63">
-        <v>12</v>
-      </c>
-      <c r="E68" s="42" t="s">
+      <c r="I67" s="32">
+        <v>0</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="68">
+        <v>4.5</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F68" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="G68" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="H68" s="42" t="s">
+      <c r="F68" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I68" s="42">
-        <v>0</v>
-      </c>
-      <c r="J68" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>368</v>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="53" t="s">
+        <v>464</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="D69" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="H69" s="37" t="s">
         <v>224</v>
@@ -6865,190 +6924,191 @@
       <c r="I69" s="37">
         <v>0</v>
       </c>
-      <c r="J69" s="39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="38">
-        <v>3</v>
-      </c>
-      <c r="E70" s="37" t="s">
+      <c r="J69" s="37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="69">
+        <v>4.5</v>
+      </c>
+      <c r="E70" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="39" t="s">
-        <v>367</v>
+      <c r="F70" t="s">
+        <v>339</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="H70" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="H70" t="s">
         <v>224</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="26">
-        <v>3</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="69">
+        <v>13.5</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>348</v>
+      <c r="F71" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="H71" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="69">
+        <v>13.5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="78" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A73" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="H73" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="I71" s="26">
-        <v>0</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
+      <c r="I73" s="59">
+        <v>0</v>
+      </c>
+      <c r="J73" s="59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A74" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="63">
+        <v>12</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G74" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="B72" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D72" s="38">
+      <c r="H74" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I74" s="42">
+        <v>0</v>
+      </c>
+      <c r="J74" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="38">
         <v>3</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I72" s="39">
-        <v>0</v>
-      </c>
-      <c r="J72" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="27">
-        <v>3</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="26" t="str">
-        <f>IF(C73="AT LEAST", "1a", "1b")</f>
-        <v>1b</v>
-      </c>
-      <c r="I73" s="26">
-        <f>IF(H73=2, "FIX ME", 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I74" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="38">
-        <v>4.5</v>
-      </c>
       <c r="E75" s="37" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>299</v>
+        <v>362</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="H75" s="37" t="s">
         <v>224</v>
@@ -7056,28 +7116,31 @@
       <c r="I75" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D76" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>224</v>
@@ -7085,237 +7148,245 @@
       <c r="I76" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C77" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="26">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="26">
+        <v>0</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="44" t="s">
         <v>270</v>
-      </c>
-      <c r="D77" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H77" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I77" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>287</v>
       </c>
       <c r="D78" s="38">
         <v>3</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="39" t="s">
         <v>261</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H78" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I78" s="37">
-        <v>0</v>
-      </c>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="38">
+        <v>364</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="27">
         <v>3</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I79" s="37">
-        <v>0</v>
-      </c>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G79" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="H79" s="26" t="str">
+        <f>IF(C79="AT LEAST", "1a", "1b")</f>
+        <v>1b</v>
+      </c>
+      <c r="I79" s="26">
+        <f>IF(H79=2, "FIX ME", 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D80" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I80" s="37">
         <v>0</v>
       </c>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D81" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E81" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I81" s="37">
         <v>0</v>
       </c>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D82" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I82" s="37">
         <v>0</v>
       </c>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D83" s="38">
         <v>4.5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I83" s="37">
         <v>0</v>
       </c>
-      <c r="J83"/>
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D84" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>213</v>
@@ -7327,25 +7398,25 @@
     </row>
     <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D85" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H85" s="37" t="s">
         <v>213</v>
@@ -7357,25 +7428,25 @@
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D86" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E86" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>213</v>
@@ -7387,25 +7458,25 @@
     </row>
     <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D87" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>213</v>
@@ -7417,25 +7488,25 @@
     </row>
     <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D88" s="38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E88" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>213</v>
@@ -7447,10 +7518,10 @@
     </row>
     <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>287</v>
@@ -7462,10 +7533,10 @@
         <v>261</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>213</v>
@@ -7477,10 +7548,10 @@
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>287</v>
@@ -7492,10 +7563,10 @@
         <v>261</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H90" s="37" t="s">
         <v>213</v>
@@ -7507,10 +7578,10 @@
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>287</v>
@@ -7522,10 +7593,10 @@
         <v>261</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H91" s="37" t="s">
         <v>213</v>
@@ -7537,10 +7608,10 @@
     </row>
     <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>287</v>
@@ -7552,10 +7623,10 @@
         <v>261</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>213</v>
@@ -7567,10 +7638,10 @@
     </row>
     <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>287</v>
@@ -7582,10 +7653,10 @@
         <v>261</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>213</v>
@@ -7597,10 +7668,10 @@
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>287</v>
@@ -7612,10 +7683,10 @@
         <v>261</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>213</v>
@@ -7627,10 +7698,10 @@
     </row>
     <row r="95" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>287</v>
@@ -7642,10 +7713,10 @@
         <v>261</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H95" s="37" t="s">
         <v>213</v>
@@ -7657,10 +7728,10 @@
     </row>
     <row r="96" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>287</v>
@@ -7672,10 +7743,10 @@
         <v>261</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>213</v>
@@ -7683,16 +7754,14 @@
       <c r="I96" s="37">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>395</v>
-      </c>
+      <c r="J96"/>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>287</v>
@@ -7704,10 +7773,10 @@
         <v>261</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H97" s="37" t="s">
         <v>213</v>
@@ -7718,41 +7787,41 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" t="s">
-        <v>325</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="A98" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="D98" s="69">
+      <c r="D98" s="38">
         <v>4.5</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>326</v>
+      <c r="F98" s="39" t="s">
+        <v>382</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H98" t="s">
+        <v>420</v>
+      </c>
+      <c r="H98" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="37">
         <v>0</v>
       </c>
       <c r="J98"/>
     </row>
     <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="53" t="s">
-        <v>368</v>
+      <c r="A99" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>287</v>
@@ -7764,10 +7833,10 @@
         <v>261</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H99" s="37" t="s">
         <v>213</v>
@@ -7778,11 +7847,11 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
-        <v>368</v>
+      <c r="A100" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>287</v>
@@ -7794,10 +7863,10 @@
         <v>261</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H100" s="37" t="s">
         <v>213</v>
@@ -7808,11 +7877,11 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="53" t="s">
-        <v>368</v>
+      <c r="A101" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>287</v>
@@ -7824,10 +7893,10 @@
         <v>261</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H101" s="37" t="s">
         <v>213</v>
@@ -7838,11 +7907,11 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="53" t="s">
-        <v>368</v>
+      <c r="A102" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>287</v>
@@ -7854,10 +7923,10 @@
         <v>261</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H102" s="37" t="s">
         <v>213</v>
@@ -7865,14 +7934,16 @@
       <c r="I102" s="37">
         <v>0</v>
       </c>
-      <c r="J102"/>
+      <c r="J102" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
-        <v>368</v>
+      <c r="A103" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>287</v>
@@ -7884,10 +7955,10 @@
         <v>261</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H103" s="37" t="s">
         <v>213</v>
@@ -7898,41 +7969,41 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C104" s="37" t="s">
+      <c r="A104" t="s">
+        <v>364</v>
+      </c>
+      <c r="B104" t="s">
+        <v>325</v>
+      </c>
+      <c r="C104" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="38">
+      <c r="D104" s="69">
         <v>4.5</v>
       </c>
-      <c r="E104" s="37" t="s">
+      <c r="E104" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="39" t="s">
-        <v>417</v>
+      <c r="F104" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H104" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="H104" t="s">
         <v>213</v>
       </c>
-      <c r="I104" s="37">
+      <c r="I104">
         <v>0</v>
       </c>
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C105" s="37" t="s">
         <v>287</v>
@@ -7944,10 +8015,10 @@
         <v>261</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H105" s="37" t="s">
         <v>213</v>
@@ -7959,10 +8030,10 @@
     </row>
     <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>287</v>
@@ -7974,10 +8045,10 @@
         <v>261</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H106" s="37" t="s">
         <v>213</v>
@@ -7989,10 +8060,10 @@
     </row>
     <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>287</v>
@@ -8004,10 +8075,10 @@
         <v>261</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H107" s="37" t="s">
         <v>213</v>
@@ -8019,10 +8090,10 @@
     </row>
     <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>287</v>
@@ -8034,10 +8105,10 @@
         <v>261</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H108" s="37" t="s">
         <v>213</v>
@@ -8049,10 +8120,10 @@
     </row>
     <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>287</v>
@@ -8064,10 +8135,10 @@
         <v>261</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H109" s="37" t="s">
         <v>213</v>
@@ -8077,56 +8148,57 @@
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="C110" s="59" t="s">
+    <row r="110" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="62">
+      <c r="D110" s="38">
         <v>4.5</v>
       </c>
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F110" s="45" t="s">
-        <v>416</v>
+      <c r="F110" s="39" t="s">
+        <v>413</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="H110" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="H110" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="I110" s="59">
-        <v>0</v>
-      </c>
+      <c r="I110" s="37">
+        <v>0</v>
+      </c>
+      <c r="J110"/>
     </row>
     <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="D111" s="38">
         <v>4.5</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H111" s="37" t="s">
         <v>213</v>
@@ -8134,237 +8206,239 @@
       <c r="I111" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D112" s="10">
-        <v>12</v>
-      </c>
-      <c r="E112" s="10" t="s">
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D112" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E112" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="H112" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="I112" s="58">
-        <v>0</v>
-      </c>
-      <c r="J112" s="58" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="H112" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I112" s="37">
+        <v>0</v>
+      </c>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="53" t="s">
-        <v>505</v>
+        <v>364</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>270</v>
+        <v>405</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="D113" s="38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I113" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B114" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="61">
-        <v>6</v>
-      </c>
-      <c r="E114" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E114" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="41" t="s">
-        <v>524</v>
+      <c r="F114" s="39" t="s">
+        <v>408</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I114" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
-        <v>505</v>
+        <v>364</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>528</v>
+        <v>409</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D115" s="38">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>261</v>
       </c>
       <c r="F115" s="39" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="H115" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I115" s="37">
+        <v>0</v>
+      </c>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" s="78" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="E116" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="H116" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I116" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I117" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="10">
+        <v>12</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="H118" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="I115" s="37">
-        <v>0</v>
-      </c>
-      <c r="J115" s="37" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="C116" s="37" t="s">
+      <c r="I118" s="58">
+        <v>0</v>
+      </c>
+      <c r="J118" s="58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C119" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D119" s="38">
         <v>3</v>
       </c>
-      <c r="E116" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="H116" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I116" s="37">
-        <v>0</v>
-      </c>
-      <c r="J116" s="37" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D117" s="38">
-        <v>3</v>
-      </c>
-      <c r="E117" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F117" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="H117" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I117" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="38">
-        <v>3</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="F118" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="H118" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I118" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D119" s="38">
-        <v>6</v>
-      </c>
       <c r="E119" s="37" t="s">
-        <v>261</v>
+        <v>210</v>
+      </c>
+      <c r="F119" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="G119" s="39" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="H119" s="37" t="s">
         <v>224</v>
@@ -8373,66 +8447,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J143" s="46"/>
-    </row>
-    <row r="144" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="C120" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="61">
+        <v>6</v>
+      </c>
+      <c r="E120" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F120" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="G120" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="H120" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I120" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="38">
+        <v>12</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="H121" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I121" s="37">
+        <v>0</v>
+      </c>
+      <c r="J121" s="37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="38">
+        <v>3</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="H122" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I122" s="37">
+        <v>0</v>
+      </c>
+      <c r="J122" s="37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123" s="38">
+        <v>3</v>
+      </c>
+      <c r="E123" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="H123" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I123" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="38">
+        <v>3</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F124" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="H124" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I124" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" s="38">
+        <v>6</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G125" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="H125" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I125" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="10:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="10:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="10:10" s="33" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="46"/>
+    </row>
+    <row r="150" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="10:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="10:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="10:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="162" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="163" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="169" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="184" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="185" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="115.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="portrait"/>

--- a/double-major-optimization-main/Data/Sheets/Requirements.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA4AEE-7FF6-0E46-AC47-781B5D45D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BAC98-0193-4A4C-B6D6-C2EFBF73E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="612">
   <si>
     <t>Program Key</t>
   </si>
@@ -1571,9 +1571,6 @@
     <t>RBE_CS</t>
   </si>
   <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
-  </si>
-  <si>
     <t>["RBE_MATH"]</t>
   </si>
   <si>
@@ -1682,9 +1679,6 @@
     <t>["CS_3041", "CS_3431", "CS_3733", "CS_4233", "CS_509", "CS_542", "CS_546", "CS_561", "CS_562"]</t>
   </si>
   <si>
-    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313", "ID_2314"]</t>
-  </si>
-  <si>
     <t>["CS_3043", "ID_2314", "GOV_2314", "GOV_2315", "IMGD_2000", "IMGD_2001", "RBE_3100"]</t>
   </si>
   <si>
@@ -1872,6 +1866,15 @@
   </si>
   <si>
     <t>["SOC_SCI_REQ"]</t>
+  </si>
+  <si>
+    <t>This isn't the only way to do this - can take CS/RBE ones, but they require an extra slot</t>
+  </si>
+  <si>
+    <t>["ID_2050", "ECON_DEPT", "ENV_DEPT", "GOV_DEPT", "PSY_DEPT", "SD_DEPT", "SOC_DEPT", "SS_DEPT", "STS_DEPT", "DEV_DEPT", "GOV_2314", "GOV_2315", "GOV_2313", "ID_2314", "GOV_2302"]</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041',  'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
   </si>
 </sst>
 </file>
@@ -2572,9 +2575,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2619,6 +2619,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2938,9 +2941,9 @@
   </sheetPr>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3259,7 +3262,7 @@
       <c r="E16" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="80"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3586,7 +3589,7 @@
         <v>96</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -3754,49 +3757,50 @@
         <v>122</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="9">
         <v>6</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="73" customFormat="1" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:15" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>588</v>
-      </c>
-      <c r="C46" s="75">
+      <c r="B46" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="68">
         <v>31.5</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="74" t="s">
-        <v>600</v>
-      </c>
+      <c r="E46" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>191</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C47" s="37">
         <v>9</v>
@@ -3804,8 +3808,8 @@
       <c r="D47" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="74" t="s">
-        <v>600</v>
+      <c r="E47" s="8" t="s">
+        <v>598</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="39"/>
@@ -3817,21 +3821,21 @@
       </c>
       <c r="J47" s="37"/>
     </row>
-    <row r="48" spans="1:15" s="83" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83" t="s">
+    <row r="48" spans="1:15" s="82" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="84" t="s">
-        <v>599</v>
-      </c>
-      <c r="C48" s="85">
+      <c r="B48" s="83" t="s">
+        <v>597</v>
+      </c>
+      <c r="C48" s="84">
         <v>3</v>
       </c>
-      <c r="D48" s="83" t="s">
-        <v>598</v>
-      </c>
-      <c r="E48" s="83" t="s">
-        <v>597</v>
+      <c r="D48" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="70" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3847,7 +3851,7 @@
       <c r="D49" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="90" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4205,7 +4209,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C70" s="5">
         <v>9</v>
@@ -4214,7 +4218,7 @@
         <v>180</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4248,10 +4252,10 @@
         <v>185</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="253" customHeight="1" x14ac:dyDescent="0.2">
@@ -4259,7 +4263,7 @@
         <v>148</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C73" s="5">
         <v>6</v>
@@ -4267,11 +4271,11 @@
       <c r="D73" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="82" t="s">
+      <c r="E73" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="32" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,7 +4283,7 @@
         <v>148</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C74" s="34">
         <v>6</v>
@@ -4288,7 +4292,7 @@
         <v>187</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>188</v>
@@ -4416,7 +4420,7 @@
     </row>
     <row r="82" spans="1:9" s="32" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>194</v>
@@ -4428,32 +4432,32 @@
         <v>193</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>195</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="73" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="72" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="C83" s="75">
+      <c r="C83" s="74">
         <v>45</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D83" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="74" t="s">
+      <c r="E83" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="F83" s="73" t="s">
+      <c r="F83" s="72" t="s">
         <v>196</v>
       </c>
       <c r="G83" s="45" t="s">
@@ -4781,7 +4785,7 @@
         <v>125</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>510</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4789,16 +4793,16 @@
         <v>495</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C102" s="5">
         <v>6</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4806,16 +4810,16 @@
         <v>495</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C103" s="5">
         <v>3</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4823,19 +4827,19 @@
         <v>495</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C104" s="5">
         <v>3</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -4843,19 +4847,19 @@
         <v>495</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
       </c>
       <c r="D105" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E105" t="s">
+        <v>604</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="E105" t="s">
-        <v>606</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4871,9 +4875,9 @@
   </sheetPr>
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5163,7 +5167,7 @@
         <v>207</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>421</v>
@@ -5188,7 +5192,7 @@
       <c r="C10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="79">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -5220,7 +5224,7 @@
       <c r="C11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="79">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -5252,7 +5256,7 @@
       <c r="C12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="79">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5284,7 +5288,7 @@
       <c r="C13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="79">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5323,7 +5327,7 @@
         <v>207</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>228</v>
@@ -5675,7 +5679,7 @@
         <v>258</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>259</v>
@@ -6030,10 +6034,10 @@
         <v>207</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H36" s="58" t="s">
         <v>221</v>
@@ -6050,7 +6054,7 @@
         <v>148</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>220</v>
@@ -6065,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>221</v>
@@ -6074,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6082,7 +6086,7 @@
         <v>148</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>220</v>
@@ -6094,10 +6098,10 @@
         <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>221</v>
@@ -6106,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="176" x14ac:dyDescent="0.2">
@@ -6114,7 +6118,7 @@
         <v>148</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>220</v>
@@ -6126,10 +6130,10 @@
         <v>207</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>221</v>
@@ -6138,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="112" x14ac:dyDescent="0.2">
@@ -6161,7 +6165,7 @@
         <v>288</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>221</v>
@@ -6170,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6193,7 +6197,7 @@
         <v>290</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>210</v>
@@ -6202,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6225,7 +6229,7 @@
         <v>173</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>210</v>
@@ -6234,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="33" customFormat="1" ht="128" x14ac:dyDescent="0.2">
@@ -6242,7 +6246,7 @@
         <v>148</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C43" s="46" t="s">
         <v>206</v>
@@ -6254,10 +6258,10 @@
         <v>207</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H43" s="46" t="s">
         <v>210</v>
@@ -6266,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -6289,7 +6293,7 @@
         <v>347</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>221</v>
@@ -6361,7 +6365,7 @@
         <v>191</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>267</v>
@@ -6376,7 +6380,7 @@
         <v>293</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H47" s="58" t="s">
         <v>221</v>
@@ -6391,7 +6395,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>267</v>
@@ -6406,7 +6410,7 @@
         <v>295</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>221</v>
@@ -6420,7 +6424,7 @@
         <v>191</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>220</v>
@@ -6432,10 +6436,10 @@
         <v>258</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>221</v>
@@ -6449,7 +6453,7 @@
         <v>191</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>267</v>
@@ -6464,7 +6468,7 @@
         <v>297</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>221</v>
@@ -6478,7 +6482,7 @@
         <v>191</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>206</v>
@@ -6490,10 +6494,10 @@
         <v>207</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>210</v>
@@ -6502,12 +6506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
         <v>191</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C52" s="59" t="s">
         <v>267</v>
@@ -6522,7 +6526,7 @@
         <v>299</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H52" s="59" t="s">
         <v>221</v>
@@ -6534,10 +6538,10 @@
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>267</v>
@@ -6561,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>206</v>
@@ -6581,7 +6585,7 @@
         <v>207</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>323</v>
@@ -6593,12 +6597,12 @@
         <v>0</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>324</v>
@@ -6613,7 +6617,7 @@
         <v>258</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>323</v>
@@ -6625,15 +6629,15 @@
         <v>0</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>220</v>
@@ -6645,7 +6649,7 @@
         <v>258</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>323</v>
@@ -6657,15 +6661,15 @@
         <v>0</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>284</v>
@@ -6677,7 +6681,7 @@
         <v>207</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>323</v>
@@ -6689,12 +6693,12 @@
         <v>0</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="32" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>325</v>
@@ -6884,7 +6888,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="77" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="76" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
         <v>458</v>
       </c>
@@ -6917,7 +6921,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="50" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="77" t="s">
         <v>359</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -7095,7 +7099,7 @@
       <c r="F70" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G70" s="79" t="s">
+      <c r="G70" s="78" t="s">
         <v>273</v>
       </c>
       <c r="H70" s="26" t="str">
@@ -8188,7 +8192,7 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="77" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="76" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>359</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>495</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>267</v>
@@ -8263,10 +8267,10 @@
         <v>258</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H109" s="58" t="s">
         <v>221</v>
@@ -8275,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8283,7 +8287,7 @@
         <v>495</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>267</v>
@@ -8298,7 +8302,7 @@
         <v>41</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H110" s="37" t="s">
         <v>221</v>
@@ -8312,7 +8316,7 @@
         <v>495</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C111" s="58" t="s">
         <v>220</v>
@@ -8324,10 +8328,10 @@
         <v>258</v>
       </c>
       <c r="F111" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H111" s="37" t="s">
         <v>221</v>
@@ -8341,7 +8345,7 @@
         <v>495</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C112" s="37" t="s">
         <v>267</v>
@@ -8353,10 +8357,10 @@
         <v>258</v>
       </c>
       <c r="F112" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="G112" s="39" t="s">
         <v>518</v>
-      </c>
-      <c r="G112" s="39" t="s">
-        <v>519</v>
       </c>
       <c r="H112" s="37" t="s">
         <v>221</v>
@@ -8365,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -8373,7 +8377,7 @@
         <v>495</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C113" s="37" t="s">
         <v>267</v>
@@ -8385,10 +8389,10 @@
         <v>258</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H113" s="37" t="s">
         <v>221</v>
@@ -8397,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -8405,7 +8409,7 @@
         <v>495</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>220</v>
@@ -8417,10 +8421,10 @@
         <v>258</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H114" s="37" t="s">
         <v>221</v>
@@ -8434,7 +8438,7 @@
         <v>495</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>267</v>
@@ -8446,10 +8450,10 @@
         <v>258</v>
       </c>
       <c r="F115" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="G115" s="39" t="s">
         <v>532</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>533</v>
       </c>
       <c r="H115" s="37" t="s">
         <v>221</v>
@@ -8463,7 +8467,7 @@
         <v>495</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C116" s="37" t="s">
         <v>267</v>
@@ -8475,10 +8479,10 @@
         <v>258</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H116" s="37" t="s">
         <v>221</v>
@@ -8487,35 +8491,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="90" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="86" t="s">
+    <row r="117" spans="1:10" s="89" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="B117" s="87" t="s">
+      <c r="B117" s="86" t="s">
+        <v>606</v>
+      </c>
+      <c r="C117" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="87">
+        <v>3</v>
+      </c>
+      <c r="E117" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="G117" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="C117" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="D117" s="88">
-        <v>3</v>
-      </c>
-      <c r="E117" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="F117" s="89" t="s">
+      <c r="H117" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="I117" s="86">
+        <v>0</v>
+      </c>
+      <c r="J117" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="G117" s="89" t="s">
-        <v>610</v>
-      </c>
-      <c r="H117" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="I117" s="87">
-        <v>0</v>
-      </c>
-      <c r="J117" s="87"/>
     </row>
     <row r="118" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
